--- a/Proyectos/2015/11/P1339 - DA3 - CBANT, Héctor Antonio Núñez Ruiz_OC/Planeación/Plan_de_proyecto.xlsx
+++ b/Proyectos/2015/11/P1339 - DA3 - CBANT, Héctor Antonio Núñez Ruiz_OC/Planeación/Plan_de_proyecto.xlsx
@@ -22,14 +22,14 @@
     <definedName name="_Toc120446011" localSheetId="1">'Datos Generales'!$A$9</definedName>
     <definedName name="_Toc120446011" localSheetId="0">Presentación!#REF!</definedName>
     <definedName name="_Toc120446019" localSheetId="2">'Recursos Humanos'!$A$3</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Plan Riesgos'!$A$1:$F$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Plan Riesgos'!$A$1:$F$18</definedName>
     <definedName name="Complej." localSheetId="4">#REF!</definedName>
     <definedName name="Complej." localSheetId="6">#REF!</definedName>
     <definedName name="Complej." localSheetId="0">#REF!</definedName>
     <definedName name="Complej.">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4">#REF!</definedName>
-    <definedName name="Print_Area_0" localSheetId="6">'Plan Riesgos'!$A$1:$F$24</definedName>
+    <definedName name="Print_Area_0" localSheetId="6">'Plan Riesgos'!$A$1:$F$18</definedName>
   </definedNames>
   <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="153">
   <si>
     <t>Plan del Proyecto</t>
   </si>
@@ -501,15 +501,6 @@
     <t>Seguimiento</t>
   </si>
   <si>
-    <t>Medio</t>
-  </si>
-  <si>
-    <t>Seguimiento y Comunicación</t>
-  </si>
-  <si>
-    <t>Alto</t>
-  </si>
-  <si>
     <t>P1339 - DA3 - CBANT, Héctor Antonio Núñez Ruiz_OC</t>
   </si>
   <si>
@@ -672,16 +663,10 @@
     <t>Cerrado</t>
   </si>
   <si>
-    <t xml:space="preserve">Falla de servicio electrico </t>
-  </si>
-  <si>
     <t>Home work</t>
   </si>
   <si>
     <t>Comunicación con el cliente para reagendar cita</t>
-  </si>
-  <si>
-    <t>Falla de servicio de internet</t>
   </si>
   <si>
     <t>Tener contrato con varias compañias de internet</t>
@@ -700,6 +685,12 @@
   </si>
   <si>
     <t>1 Sola vez</t>
+  </si>
+  <si>
+    <t>El servicio de internet puede fallar  y eliminar la conexión con Bitrix, no dar seguimiento a la recepción del certificado y entregarlo</t>
+  </si>
+  <si>
+    <t>Falla electrica por problemas variables que afecta el uso de dispositivos eléctricos</t>
   </si>
 </sst>
 </file>
@@ -970,7 +961,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1213,37 +1204,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1252,7 +1212,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1448,9 +1408,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1479,17 +1436,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1540,15 +1486,15 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2132,7 +2078,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2257425</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2175,7 +2121,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2257425</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2218,7 +2164,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2257425</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2261,7 +2207,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2257425</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2618,11 +2564,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
     </row>
     <row r="2" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2634,65 +2580,65 @@
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="115" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="115"/>
+    </row>
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="115"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+    </row>
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="115"/>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="114">
+        <v>42333</v>
+      </c>
+      <c r="C7" s="114"/>
+    </row>
+    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="125"/>
+      <c r="C8" s="115"/>
     </row>
-    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
-        <v>3</v>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="104" t="s">
+        <v>8</v>
       </c>
-      <c r="B4" s="125" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="125"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="127" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="114" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="125" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="125"/>
-    </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="124">
+      <c r="B9" s="114">
         <v>42333</v>
       </c>
-      <c r="C7" s="124"/>
-    </row>
-    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="125" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="125"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="124">
-        <v>42333</v>
-      </c>
-      <c r="C9" s="124"/>
+      <c r="C9" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3765,10 +3711,10 @@
       <c r="AMI1"/>
     </row>
     <row r="2" spans="1:1023" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="126"/>
+      <c r="B2" s="116"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
@@ -4812,42 +4758,42 @@
       <c r="D4"/>
     </row>
     <row r="5" spans="1:1023" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="126"/>
+      <c r="B5" s="116"/>
       <c r="C5"/>
       <c r="D5"/>
     </row>
     <row r="6" spans="1:1023" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="128" t="s">
-        <v>96</v>
+      <c r="A6" s="121" t="s">
+        <v>93</v>
       </c>
-      <c r="B6" s="128"/>
+      <c r="B6" s="121"/>
       <c r="C6"/>
       <c r="D6"/>
     </row>
     <row r="7" spans="1:1023" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="126"/>
+      <c r="B7" s="116"/>
       <c r="C7"/>
       <c r="D7"/>
     </row>
     <row r="8" spans="1:1023" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="125" t="s">
-        <v>97</v>
+      <c r="A8" s="115" t="s">
+        <v>94</v>
       </c>
-      <c r="B8" s="125"/>
+      <c r="B8" s="115"/>
       <c r="C8"/>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:1023" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="126"/>
+      <c r="B9" s="116"/>
       <c r="C9"/>
       <c r="D9"/>
     </row>
@@ -4876,7 +4822,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -4888,12 +4834,12 @@
       <c r="D13"/>
     </row>
     <row r="14" spans="1:1023" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="126" t="s">
+      <c r="A14" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
     </row>
     <row r="15" spans="1:1023" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
@@ -4975,10 +4921,10 @@
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="126" t="s">
+      <c r="A23" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="126"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:4" ht="59.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4989,45 +4935,50 @@
       <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="126" t="s">
+      <c r="A25" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="126"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:4" ht="53.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="130" t="s">
-        <v>99</v>
+      <c r="A26" s="119" t="s">
+        <v>96</v>
       </c>
-      <c r="B26" s="130"/>
+      <c r="B26" s="119"/>
       <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="126" t="s">
+      <c r="A27" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="126"/>
+      <c r="B27" s="116"/>
     </row>
     <row r="28" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="129" t="s">
-        <v>100</v>
+      <c r="A28" s="118" t="s">
+        <v>97</v>
       </c>
-      <c r="B28" s="130"/>
+      <c r="B28" s="119"/>
     </row>
     <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="126" t="s">
+      <c r="A29" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="126"/>
+      <c r="B29" s="116"/>
     </row>
     <row r="30" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="131" t="s">
+      <c r="A30" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="131"/>
+      <c r="B30" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -5037,11 +4988,6 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A28" r:id="rId1"/>
@@ -5093,13 +5039,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
@@ -7164,20 +7110,20 @@
       </c>
     </row>
     <row r="4" spans="1:1023" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="105" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="107" t="s">
         <v>101</v>
-      </c>
-      <c r="B4" s="115" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="115" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="116" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="117" t="s">
-        <v>104</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
@@ -8199,20 +8145,20 @@
       <c r="AMI4"/>
     </row>
     <row r="5" spans="1:1023" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="115" t="s">
-        <v>105</v>
+      <c r="A5" s="105" t="s">
+        <v>102</v>
       </c>
-      <c r="B5" s="115" t="s">
-        <v>106</v>
+      <c r="B5" s="105" t="s">
+        <v>103</v>
       </c>
-      <c r="C5" s="115">
+      <c r="C5" s="105">
         <v>3313482553</v>
       </c>
-      <c r="D5" s="116" t="s">
-        <v>107</v>
+      <c r="D5" s="106" t="s">
+        <v>104</v>
       </c>
-      <c r="E5" s="117" t="s">
-        <v>108</v>
+      <c r="E5" s="107" t="s">
+        <v>105</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -9234,20 +9180,20 @@
       <c r="AMI5"/>
     </row>
     <row r="6" spans="1:1023" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="115" t="s">
-        <v>109</v>
+      <c r="A6" s="105" t="s">
+        <v>106</v>
       </c>
-      <c r="B6" s="115" t="s">
-        <v>110</v>
+      <c r="B6" s="105" t="s">
+        <v>107</v>
       </c>
-      <c r="C6" s="115">
+      <c r="C6" s="105">
         <v>3312233155</v>
       </c>
-      <c r="D6" s="116" t="s">
-        <v>111</v>
+      <c r="D6" s="106" t="s">
+        <v>108</v>
       </c>
-      <c r="E6" s="118" t="s">
-        <v>112</v>
+      <c r="E6" s="108" t="s">
+        <v>109</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -10269,20 +10215,20 @@
       <c r="AMI6"/>
     </row>
     <row r="7" spans="1:1023" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="115" t="s">
-        <v>113</v>
+      <c r="A7" s="105" t="s">
+        <v>110</v>
       </c>
-      <c r="B7" s="115" t="s">
-        <v>114</v>
+      <c r="B7" s="105" t="s">
+        <v>111</v>
       </c>
-      <c r="C7" s="115">
+      <c r="C7" s="105">
         <v>3318039095</v>
       </c>
-      <c r="D7" s="116" t="s">
-        <v>115</v>
+      <c r="D7" s="106" t="s">
+        <v>112</v>
       </c>
-      <c r="E7" s="119" t="s">
-        <v>116</v>
+      <c r="E7" s="109" t="s">
+        <v>113</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -11304,20 +11250,20 @@
       <c r="AMI7"/>
     </row>
     <row r="8" spans="1:1023" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="105" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="106" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="E8" s="108" t="s">
         <v>118</v>
-      </c>
-      <c r="C8" s="115" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="116" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="118" t="s">
-        <v>121</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
@@ -12339,20 +12285,20 @@
       <c r="AMI8"/>
     </row>
     <row r="9" spans="1:1023" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="115" t="s">
-        <v>122</v>
+      <c r="A9" s="105" t="s">
+        <v>119</v>
       </c>
-      <c r="B9" s="115" t="s">
-        <v>95</v>
+      <c r="B9" s="105" t="s">
+        <v>92</v>
       </c>
-      <c r="C9" s="115">
+      <c r="C9" s="105">
         <v>3312448000</v>
       </c>
-      <c r="D9" s="116" t="s">
-        <v>123</v>
+      <c r="D9" s="106" t="s">
+        <v>120</v>
       </c>
-      <c r="E9" s="118" t="s">
-        <v>124</v>
+      <c r="E9" s="108" t="s">
+        <v>121</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
@@ -16452,19 +16398,19 @@
     </row>
     <row r="13" spans="1:1023" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="110" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="E13" s="23" t="s">
         <v>126</v>
-      </c>
-      <c r="C13" s="120" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="121" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>129</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
@@ -20590,13 +20536,13 @@
       <c r="E20"/>
     </row>
     <row r="21" spans="1:1024" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="133" t="s">
+      <c r="A21" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
     </row>
     <row r="22" spans="1:1024" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22"/>
@@ -20669,7 +20615,7 @@
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
@@ -21841,13 +21787,13 @@
       <c r="AMI1"/>
     </row>
     <row r="2" spans="1:1023" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
@@ -23904,19 +23850,19 @@
     </row>
     <row r="4" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
@@ -24939,53 +24885,53 @@
     </row>
     <row r="5" spans="1:1023" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:1023" s="38" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:1023" s="38" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:1023" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -25067,15 +25013,15 @@
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -25103,26 +25049,26 @@
       <c r="J3"/>
     </row>
     <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="122" t="s">
-        <v>143</v>
+      <c r="A4" s="112" t="s">
+        <v>140</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="115" t="s">
-        <v>130</v>
+      <c r="C4" s="105" t="s">
+        <v>127</v>
       </c>
-      <c r="D4" s="115">
+      <c r="D4" s="105">
         <v>1</v>
       </c>
-      <c r="E4" s="123" t="s">
-        <v>144</v>
+      <c r="E4" s="113" t="s">
+        <v>141</v>
       </c>
-      <c r="F4" s="123" t="s">
-        <v>130</v>
+      <c r="F4" s="113" t="s">
+        <v>127</v>
       </c>
-      <c r="G4" s="115" t="s">
-        <v>142</v>
+      <c r="G4" s="105" t="s">
+        <v>139</v>
       </c>
       <c r="J4" s="42" t="s">
         <v>62</v>
@@ -25253,10 +25199,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK43"/>
+  <dimension ref="A1:AMK37"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E7:E10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26344,30 +26290,30 @@
       <c r="AMJ1"/>
     </row>
     <row r="2" spans="1:1024" s="46" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="IR2" s="138" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="IR2" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="IS2" s="138"/>
-      <c r="IT2" s="138"/>
-      <c r="IU2" s="138"/>
-      <c r="IV2" s="138"/>
-      <c r="IW2" s="138"/>
-      <c r="IX2" s="138"/>
-      <c r="IY2" s="138"/>
-      <c r="IZ2" s="138"/>
-      <c r="JA2" s="138"/>
+      <c r="IS2" s="128"/>
+      <c r="IT2" s="128"/>
+      <c r="IU2" s="128"/>
+      <c r="IV2" s="128"/>
+      <c r="IW2" s="128"/>
+      <c r="IX2" s="128"/>
+      <c r="IY2" s="128"/>
+      <c r="IZ2" s="128"/>
+      <c r="JA2" s="128"/>
     </row>
     <row r="3" spans="1:1024" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48"/>
@@ -26428,12 +26374,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="59">
         <v>1</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C5" s="59">
         <v>5</v>
@@ -26442,26 +26388,25 @@
         <v>0.01</v>
       </c>
       <c r="E5" s="59">
-        <f t="shared" ref="E5:E6" si="0">PRODUCT(C5:D5)</f>
         <v>0.05</v>
       </c>
       <c r="F5" s="59">
         <v>4</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H5" s="60" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I5" s="62" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K5" s="64" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
@@ -27477,40 +27422,39 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="59">
         <v>2</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C6" s="59">
         <v>5</v>
       </c>
       <c r="D6" s="61">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="E6" s="59">
-        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="F6" s="59">
         <v>4</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H6" s="60" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I6" s="62" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K6" s="64" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
@@ -28534,11 +28478,11 @@
       <c r="C7" s="59"/>
       <c r="D7" s="61"/>
       <c r="E7" s="59">
-        <f t="shared" ref="E7:E24" si="1">PRODUCT(C7:D7)</f>
+        <f t="shared" ref="E7:E18" si="0">PRODUCT(C7:D7)</f>
         <v>0</v>
       </c>
       <c r="F7" s="59"/>
-      <c r="G7" s="60"/>
+      <c r="G7" s="83"/>
       <c r="H7" s="60"/>
       <c r="I7" s="62"/>
       <c r="J7" s="63"/>
@@ -28784,14 +28728,14 @@
       <c r="IP7"/>
       <c r="IQ7"/>
       <c r="IR7"/>
-      <c r="IS7"/>
-      <c r="IT7"/>
-      <c r="IU7"/>
-      <c r="IV7"/>
-      <c r="IW7"/>
-      <c r="IX7"/>
-      <c r="IY7"/>
-      <c r="IZ7"/>
+      <c r="IS7" s="65"/>
+      <c r="IT7" s="129"/>
+      <c r="IU7" s="129"/>
+      <c r="IV7" s="66"/>
+      <c r="IW7" s="67"/>
+      <c r="IX7" s="67"/>
+      <c r="IY7" s="67"/>
+      <c r="IZ7" s="68"/>
       <c r="JA7"/>
       <c r="JB7"/>
       <c r="JC7"/>
@@ -29557,7 +29501,7 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1024" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="59">
         <v>4</v>
       </c>
@@ -29565,11 +29509,11 @@
       <c r="C8" s="59"/>
       <c r="D8" s="61"/>
       <c r="E8" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
+      <c r="G8" s="89"/>
       <c r="H8" s="60"/>
       <c r="I8" s="62"/>
       <c r="J8" s="63"/>
@@ -29815,14 +29759,35 @@
       <c r="IP8"/>
       <c r="IQ8"/>
       <c r="IR8"/>
-      <c r="IS8" s="65"/>
-      <c r="IT8" s="139"/>
-      <c r="IU8" s="139"/>
-      <c r="IV8" s="66"/>
-      <c r="IW8" s="67"/>
-      <c r="IX8" s="67"/>
-      <c r="IY8" s="67"/>
-      <c r="IZ8" s="68"/>
+      <c r="IS8" s="130" t="s">
+        <v>80</v>
+      </c>
+      <c r="IT8" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="IU8" s="70">
+        <v>0.9</v>
+      </c>
+      <c r="IV8" s="71">
+        <f>(IV12*IU8)</f>
+        <v>0.9</v>
+      </c>
+      <c r="IW8" s="72">
+        <f>(IW12*IU8)</f>
+        <v>1.8</v>
+      </c>
+      <c r="IX8" s="73">
+        <f>(IX12*IU8)</f>
+        <v>2.7</v>
+      </c>
+      <c r="IY8" s="74">
+        <f>(IY12*IU8)</f>
+        <v>3.6</v>
+      </c>
+      <c r="IZ8" s="75">
+        <f>(IZ12*IU8)</f>
+        <v>4.5</v>
+      </c>
       <c r="JA8"/>
       <c r="JB8"/>
       <c r="JC8"/>
@@ -30588,7 +30553,7 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1024" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="59">
         <v>5</v>
       </c>
@@ -30596,11 +30561,11 @@
       <c r="C9" s="59"/>
       <c r="D9" s="61"/>
       <c r="E9" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
+      <c r="G9" s="89"/>
       <c r="H9" s="60"/>
       <c r="I9" s="62"/>
       <c r="J9" s="63"/>
@@ -30846,34 +30811,32 @@
       <c r="IP9"/>
       <c r="IQ9"/>
       <c r="IR9"/>
-      <c r="IS9" s="140" t="s">
-        <v>80</v>
-      </c>
+      <c r="IS9" s="130"/>
       <c r="IT9" s="69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="IU9" s="70">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
-      <c r="IV9" s="71">
-        <f>(IV14*IU9)</f>
-        <v>0.9</v>
+      <c r="IV9" s="76">
+        <f>(IV12*IU9)</f>
+        <v>0.7</v>
       </c>
-      <c r="IW9" s="72">
-        <f>(IW14*IU9)</f>
-        <v>1.8</v>
+      <c r="IW9" s="77">
+        <f>(IW12*IU9)</f>
+        <v>1.4</v>
       </c>
-      <c r="IX9" s="73">
-        <f>(IX14*IU9)</f>
-        <v>2.7</v>
+      <c r="IX9" s="78">
+        <f>(IX12*IU9)</f>
+        <v>2.0999999999999996</v>
       </c>
-      <c r="IY9" s="74">
-        <f>(IY14*IU9)</f>
-        <v>3.6</v>
+      <c r="IY9" s="79">
+        <f>(IY12*IU9)</f>
+        <v>2.8</v>
       </c>
-      <c r="IZ9" s="75">
-        <f>(IZ14*IU9)</f>
-        <v>4.5</v>
+      <c r="IZ9" s="80">
+        <f>(IZ12*IU9)</f>
+        <v>3.5</v>
       </c>
       <c r="JA9"/>
       <c r="JB9"/>
@@ -31640,7 +31603,7 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1024" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="59">
         <v>6</v>
       </c>
@@ -31648,11 +31611,11 @@
       <c r="C10" s="59"/>
       <c r="D10" s="61"/>
       <c r="E10" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
+      <c r="G10" s="89"/>
       <c r="H10" s="60"/>
       <c r="I10" s="62"/>
       <c r="J10" s="63"/>
@@ -31898,32 +31861,32 @@
       <c r="IP10"/>
       <c r="IQ10"/>
       <c r="IR10"/>
-      <c r="IS10" s="140"/>
+      <c r="IS10" s="130"/>
       <c r="IT10" s="69" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="IU10" s="70">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="IV10" s="76">
-        <f>(IV14*IU10)</f>
-        <v>0.7</v>
+        <f>(IV12*IU10)</f>
+        <v>0.5</v>
       </c>
-      <c r="IW10" s="77">
-        <f>(IW14*IU10)</f>
-        <v>1.4</v>
+      <c r="IW10" s="81">
+        <f>(IW12*IU10)</f>
+        <v>1</v>
       </c>
-      <c r="IX10" s="78">
-        <f>(IX14*IU10)</f>
-        <v>2.0999999999999996</v>
+      <c r="IX10" s="77">
+        <f>(IX12*IU10)</f>
+        <v>1.5</v>
       </c>
-      <c r="IY10" s="79">
-        <f>(IY14*IU10)</f>
-        <v>2.8</v>
+      <c r="IY10" s="77">
+        <f>(IY12*IU10)</f>
+        <v>2</v>
       </c>
-      <c r="IZ10" s="80">
-        <f>(IZ14*IU10)</f>
-        <v>3.5</v>
+      <c r="IZ10" s="82">
+        <f>(IZ12*IU10)</f>
+        <v>2.5</v>
       </c>
       <c r="JA10"/>
       <c r="JB10"/>
@@ -32690,7 +32653,7 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1024" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="59">
         <v>7</v>
       </c>
@@ -32698,11 +32661,11 @@
       <c r="C11" s="59"/>
       <c r="D11" s="61"/>
       <c r="E11" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="60"/>
       <c r="I11" s="62"/>
       <c r="J11" s="63"/>
@@ -32948,32 +32911,32 @@
       <c r="IP11"/>
       <c r="IQ11"/>
       <c r="IR11"/>
-      <c r="IS11" s="140"/>
+      <c r="IS11" s="130"/>
       <c r="IT11" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="IU11" s="70">
+      <c r="IU11" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="IV11" s="85">
+        <f>(IV12*IU11)</f>
+        <v>0.1</v>
+      </c>
+      <c r="IW11" s="86">
+        <f>(IW12*IU11)</f>
+        <v>0.2</v>
+      </c>
+      <c r="IX11" s="87">
+        <f>(IX12*IV11)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="IY11" s="87">
+        <f>(IY12*IU11)</f>
+        <v>0.4</v>
+      </c>
+      <c r="IZ11" s="88">
+        <f>(IZ12*IU11)</f>
         <v>0.5</v>
-      </c>
-      <c r="IV11" s="76">
-        <f>(IV14*IU11)</f>
-        <v>0.5</v>
-      </c>
-      <c r="IW11" s="81">
-        <f>(IW14*IU11)</f>
-        <v>1</v>
-      </c>
-      <c r="IX11" s="77">
-        <f>(IX14*IU11)</f>
-        <v>1.5</v>
-      </c>
-      <c r="IY11" s="77">
-        <f>(IY14*IU11)</f>
-        <v>2</v>
-      </c>
-      <c r="IZ11" s="82">
-        <f>(IZ14*IU11)</f>
-        <v>2.5</v>
       </c>
       <c r="JA11"/>
       <c r="JB11"/>
@@ -33740,7 +33703,7 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1024" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="59">
         <v>8</v>
       </c>
@@ -33748,11 +33711,11 @@
       <c r="C12" s="59"/>
       <c r="D12" s="61"/>
       <c r="E12" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="60"/>
       <c r="I12" s="62"/>
       <c r="J12" s="63"/>
@@ -33998,32 +33961,23 @@
       <c r="IP12"/>
       <c r="IQ12"/>
       <c r="IR12"/>
-      <c r="IS12" s="140"/>
-      <c r="IT12" s="69" t="s">
-        <v>84</v>
+      <c r="IS12" s="90"/>
+      <c r="IT12" s="91"/>
+      <c r="IU12" s="69"/>
+      <c r="IV12" s="70">
+        <v>1</v>
       </c>
-      <c r="IU12" s="70">
-        <v>0.3</v>
+      <c r="IW12" s="70">
+        <v>2</v>
       </c>
-      <c r="IV12" s="83">
-        <f>(IV14*IU12)</f>
-        <v>0.3</v>
+      <c r="IX12" s="70">
+        <v>3</v>
       </c>
-      <c r="IW12" s="84">
-        <f>(IW14*IU12)</f>
-        <v>0.6</v>
+      <c r="IY12" s="70">
+        <v>4</v>
       </c>
-      <c r="IX12" s="77">
-        <f>(IX14*IU12)</f>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="IY12" s="77">
-        <f>(IY14*IU12)</f>
-        <v>1.2</v>
-      </c>
-      <c r="IZ12" s="85">
-        <f>(IZ14*IU12)</f>
-        <v>1.5</v>
+      <c r="IZ12" s="92">
+        <v>5</v>
       </c>
       <c r="JA12"/>
       <c r="JB12"/>
@@ -34790,7 +34744,7 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1024" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="59">
         <v>9</v>
       </c>
@@ -34798,11 +34752,11 @@
       <c r="C13" s="59"/>
       <c r="D13" s="61"/>
       <c r="E13" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="59"/>
-      <c r="G13" s="86"/>
+      <c r="G13" s="89"/>
       <c r="H13" s="60"/>
       <c r="I13" s="62"/>
       <c r="J13" s="63"/>
@@ -35048,32 +35002,23 @@
       <c r="IP13"/>
       <c r="IQ13"/>
       <c r="IR13"/>
-      <c r="IS13" s="140"/>
-      <c r="IT13" s="69" t="s">
+      <c r="IS13" s="90"/>
+      <c r="IT13" s="91"/>
+      <c r="IU13" s="91"/>
+      <c r="IV13" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="IU13" s="87">
-        <v>0.1</v>
+      <c r="IW13" s="69" t="s">
+        <v>84</v>
       </c>
-      <c r="IV13" s="88">
-        <f>(IV14*IU13)</f>
-        <v>0.1</v>
+      <c r="IX13" s="69" t="s">
+        <v>85</v>
       </c>
-      <c r="IW13" s="89">
-        <f>(IW14*IU13)</f>
-        <v>0.2</v>
+      <c r="IY13" s="69" t="s">
+        <v>82</v>
       </c>
-      <c r="IX13" s="90">
-        <f>(IX14*IV13)</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="IY13" s="90">
-        <f>(IY14*IU13)</f>
-        <v>0.4</v>
-      </c>
-      <c r="IZ13" s="91">
-        <f>(IZ14*IU13)</f>
-        <v>0.5</v>
+      <c r="IZ13" s="93" t="s">
+        <v>81</v>
       </c>
       <c r="JA13"/>
       <c r="JB13"/>
@@ -35840,7 +35785,7 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1024" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="59">
         <v>10</v>
       </c>
@@ -35848,11 +35793,11 @@
       <c r="C14" s="59"/>
       <c r="D14" s="61"/>
       <c r="E14" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="59"/>
-      <c r="G14" s="92"/>
+      <c r="G14" s="89"/>
       <c r="H14" s="60"/>
       <c r="I14" s="62"/>
       <c r="J14" s="63"/>
@@ -36098,24 +36043,16 @@
       <c r="IP14"/>
       <c r="IQ14"/>
       <c r="IR14"/>
-      <c r="IS14" s="93"/>
-      <c r="IT14" s="94"/>
-      <c r="IU14" s="69"/>
-      <c r="IV14" s="70">
-        <v>1</v>
+      <c r="IS14" s="90"/>
+      <c r="IT14" s="91"/>
+      <c r="IU14" s="70"/>
+      <c r="IV14" s="131" t="s">
+        <v>86</v>
       </c>
-      <c r="IW14" s="70">
-        <v>2</v>
-      </c>
-      <c r="IX14" s="70">
-        <v>3</v>
-      </c>
-      <c r="IY14" s="70">
-        <v>4</v>
-      </c>
-      <c r="IZ14" s="95">
-        <v>5</v>
-      </c>
+      <c r="IW14" s="131"/>
+      <c r="IX14" s="131"/>
+      <c r="IY14" s="131"/>
+      <c r="IZ14" s="131"/>
       <c r="JA14"/>
       <c r="JB14"/>
       <c r="JC14"/>
@@ -36881,7 +36818,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1024" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="59">
         <v>11</v>
       </c>
@@ -36889,11 +36826,11 @@
       <c r="C15" s="59"/>
       <c r="D15" s="61"/>
       <c r="E15" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="59"/>
-      <c r="G15" s="92"/>
+      <c r="G15" s="89"/>
       <c r="H15" s="60"/>
       <c r="I15" s="62"/>
       <c r="J15" s="63"/>
@@ -37139,24 +37076,14 @@
       <c r="IP15"/>
       <c r="IQ15"/>
       <c r="IR15"/>
-      <c r="IS15" s="93"/>
-      <c r="IT15" s="94"/>
-      <c r="IU15" s="94"/>
-      <c r="IV15" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="IW15" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="IX15" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="IY15" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="IZ15" s="96" t="s">
-        <v>81</v>
-      </c>
+      <c r="IS15" s="90"/>
+      <c r="IT15" s="91"/>
+      <c r="IU15" s="91"/>
+      <c r="IV15" s="91"/>
+      <c r="IW15" s="91"/>
+      <c r="IX15" s="91"/>
+      <c r="IY15" s="91"/>
+      <c r="IZ15" s="94"/>
       <c r="JA15"/>
       <c r="JB15"/>
       <c r="JC15"/>
@@ -37922,7 +37849,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1024" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="59">
         <v>12</v>
       </c>
@@ -37930,11 +37857,11 @@
       <c r="C16" s="59"/>
       <c r="D16" s="61"/>
       <c r="E16" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="59"/>
-      <c r="G16" s="92"/>
+      <c r="G16" s="89"/>
       <c r="H16" s="60"/>
       <c r="I16" s="62"/>
       <c r="J16" s="63"/>
@@ -38180,16 +38107,14 @@
       <c r="IP16"/>
       <c r="IQ16"/>
       <c r="IR16"/>
-      <c r="IS16" s="93"/>
-      <c r="IT16" s="94"/>
-      <c r="IU16" s="70"/>
-      <c r="IV16" s="141" t="s">
-        <v>86</v>
-      </c>
-      <c r="IW16" s="141"/>
-      <c r="IX16" s="141"/>
-      <c r="IY16" s="141"/>
-      <c r="IZ16" s="141"/>
+      <c r="IS16" s="90"/>
+      <c r="IT16" s="91"/>
+      <c r="IU16" s="95"/>
+      <c r="IV16" s="95"/>
+      <c r="IW16" s="95"/>
+      <c r="IX16" s="95"/>
+      <c r="IY16" s="95"/>
+      <c r="IZ16" s="96"/>
       <c r="JA16"/>
       <c r="JB16"/>
       <c r="JC16"/>
@@ -38963,11 +38888,11 @@
       <c r="C17" s="59"/>
       <c r="D17" s="61"/>
       <c r="E17" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="59"/>
-      <c r="G17" s="92"/>
+      <c r="G17" s="89"/>
       <c r="H17" s="60"/>
       <c r="I17" s="62"/>
       <c r="J17" s="63"/>
@@ -39213,14 +39138,16 @@
       <c r="IP17"/>
       <c r="IQ17"/>
       <c r="IR17"/>
-      <c r="IS17" s="93"/>
-      <c r="IT17" s="94"/>
-      <c r="IU17" s="94"/>
-      <c r="IV17" s="94"/>
-      <c r="IW17" s="94"/>
-      <c r="IX17" s="94"/>
-      <c r="IY17" s="94"/>
-      <c r="IZ17" s="97"/>
+      <c r="IS17" s="125" t="s">
+        <v>73</v>
+      </c>
+      <c r="IT17" s="125"/>
+      <c r="IU17" s="95"/>
+      <c r="IV17" s="95"/>
+      <c r="IW17" s="95"/>
+      <c r="IX17" s="95"/>
+      <c r="IY17" s="95"/>
+      <c r="IZ17" s="96"/>
       <c r="JA17"/>
       <c r="JB17"/>
       <c r="JC17"/>
@@ -39986,7 +39913,7 @@
       <c r="AMI17"/>
       <c r="AMJ17"/>
     </row>
-    <row r="18" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1024" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="59">
         <v>14</v>
       </c>
@@ -39994,11 +39921,11 @@
       <c r="C18" s="59"/>
       <c r="D18" s="61"/>
       <c r="E18" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="59"/>
-      <c r="G18" s="92"/>
+      <c r="G18" s="89"/>
       <c r="H18" s="60"/>
       <c r="I18" s="62"/>
       <c r="J18" s="63"/>
@@ -40244,14 +40171,18 @@
       <c r="IP18"/>
       <c r="IQ18"/>
       <c r="IR18"/>
-      <c r="IS18" s="93"/>
-      <c r="IT18" s="94"/>
-      <c r="IU18" s="98"/>
-      <c r="IV18" s="98"/>
-      <c r="IW18" s="98"/>
-      <c r="IX18" s="98"/>
-      <c r="IY18" s="98"/>
-      <c r="IZ18" s="99"/>
+      <c r="IS18" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="IT18" s="98"/>
+      <c r="IU18" s="95"/>
+      <c r="IV18" s="126" t="s">
+        <v>88</v>
+      </c>
+      <c r="IW18" s="126"/>
+      <c r="IX18" s="126"/>
+      <c r="IY18" s="126"/>
+      <c r="IZ18" s="126"/>
       <c r="JA18"/>
       <c r="JB18"/>
       <c r="JC18"/>
@@ -41017,23 +40948,18 @@
       <c r="AMI18"/>
       <c r="AMJ18"/>
     </row>
-    <row r="19" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="59">
-        <v>15</v>
-      </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="59"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64"/>
+    <row r="19" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A19" s="99"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19"/>
@@ -41275,16 +41201,14 @@
       <c r="IP19"/>
       <c r="IQ19"/>
       <c r="IR19"/>
-      <c r="IS19" s="135" t="s">
-        <v>73</v>
-      </c>
-      <c r="IT19" s="135"/>
-      <c r="IU19" s="98"/>
-      <c r="IV19" s="98"/>
-      <c r="IW19" s="98"/>
-      <c r="IX19" s="98"/>
-      <c r="IY19" s="98"/>
-      <c r="IZ19" s="99"/>
+      <c r="IS19"/>
+      <c r="IT19"/>
+      <c r="IU19"/>
+      <c r="IV19"/>
+      <c r="IW19"/>
+      <c r="IX19"/>
+      <c r="IY19"/>
+      <c r="IZ19"/>
       <c r="JA19"/>
       <c r="JB19"/>
       <c r="JC19"/>
@@ -42050,23 +41974,18 @@
       <c r="AMI19"/>
       <c r="AMJ19"/>
     </row>
-    <row r="20" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59">
-        <v>16</v>
-      </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="64"/>
+    <row r="20" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="99"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
@@ -42308,18 +42227,14 @@
       <c r="IP20"/>
       <c r="IQ20"/>
       <c r="IR20"/>
-      <c r="IS20" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="IT20" s="101"/>
-      <c r="IU20" s="98"/>
-      <c r="IV20" s="136" t="s">
-        <v>88</v>
-      </c>
-      <c r="IW20" s="136"/>
-      <c r="IX20" s="136"/>
-      <c r="IY20" s="136"/>
-      <c r="IZ20" s="136"/>
+      <c r="IS20"/>
+      <c r="IT20"/>
+      <c r="IU20"/>
+      <c r="IV20"/>
+      <c r="IW20"/>
+      <c r="IX20"/>
+      <c r="IY20"/>
+      <c r="IZ20"/>
       <c r="JA20"/>
       <c r="JB20"/>
       <c r="JC20"/>
@@ -43085,23 +43000,18 @@
       <c r="AMI20"/>
       <c r="AMJ20"/>
     </row>
-    <row r="21" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="59">
-        <v>17</v>
-      </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="64"/>
+    <row r="21" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A21" s="99"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
@@ -43343,18 +43253,14 @@
       <c r="IP21"/>
       <c r="IQ21"/>
       <c r="IR21"/>
-      <c r="IS21" s="100" t="s">
-        <v>89</v>
-      </c>
-      <c r="IT21" s="102"/>
-      <c r="IU21" s="98"/>
-      <c r="IV21" s="136" t="s">
-        <v>90</v>
-      </c>
-      <c r="IW21" s="136"/>
-      <c r="IX21" s="136"/>
-      <c r="IY21" s="136"/>
-      <c r="IZ21" s="136"/>
+      <c r="IS21"/>
+      <c r="IT21"/>
+      <c r="IU21"/>
+      <c r="IV21"/>
+      <c r="IW21"/>
+      <c r="IX21"/>
+      <c r="IY21"/>
+      <c r="IZ21"/>
       <c r="JA21"/>
       <c r="JB21"/>
       <c r="JC21"/>
@@ -44120,23 +44026,8 @@
       <c r="AMI21"/>
       <c r="AMJ21"/>
     </row>
-    <row r="22" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59">
-        <v>18</v>
-      </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="64"/>
+    <row r="22" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A22" s="99"/>
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22"/>
@@ -44378,18 +44269,14 @@
       <c r="IP22"/>
       <c r="IQ22"/>
       <c r="IR22"/>
-      <c r="IS22" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="IT22" s="103"/>
-      <c r="IU22" s="98"/>
-      <c r="IV22" s="136" t="s">
-        <v>90</v>
-      </c>
-      <c r="IW22" s="136"/>
-      <c r="IX22" s="136"/>
-      <c r="IY22" s="136"/>
-      <c r="IZ22" s="136"/>
+      <c r="IS22"/>
+      <c r="IT22"/>
+      <c r="IU22"/>
+      <c r="IV22"/>
+      <c r="IW22"/>
+      <c r="IX22"/>
+      <c r="IY22"/>
+      <c r="IZ22"/>
       <c r="JA22"/>
       <c r="JB22"/>
       <c r="JC22"/>
@@ -45155,23 +45042,8 @@
       <c r="AMI22"/>
       <c r="AMJ22"/>
     </row>
-    <row r="23" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="59">
-        <v>19</v>
-      </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="59"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="64"/>
+    <row r="23" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A23" s="99"/>
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23"/>
@@ -45413,14 +45285,14 @@
       <c r="IP23"/>
       <c r="IQ23"/>
       <c r="IR23"/>
-      <c r="IS23" s="104"/>
-      <c r="IT23" s="105"/>
-      <c r="IU23" s="106"/>
-      <c r="IV23" s="106"/>
-      <c r="IW23" s="106"/>
-      <c r="IX23" s="106"/>
-      <c r="IY23" s="106"/>
-      <c r="IZ23" s="107"/>
+      <c r="IS23"/>
+      <c r="IT23"/>
+      <c r="IU23"/>
+      <c r="IV23"/>
+      <c r="IW23"/>
+      <c r="IX23"/>
+      <c r="IY23"/>
+      <c r="IZ23"/>
       <c r="JA23"/>
       <c r="JB23"/>
       <c r="JC23"/>
@@ -46186,36 +46058,1024 @@
       <c r="AMI23"/>
       <c r="AMJ23"/>
     </row>
-    <row r="24" spans="1:1024" s="108" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59">
-        <v>20</v>
-      </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
+    <row r="24" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A24" s="99"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24"/>
+      <c r="AR24"/>
+      <c r="AS24"/>
+      <c r="AT24"/>
+      <c r="AU24"/>
+      <c r="AV24"/>
+      <c r="AW24"/>
+      <c r="AX24"/>
+      <c r="AY24"/>
+      <c r="AZ24"/>
+      <c r="BA24"/>
+      <c r="BB24"/>
+      <c r="BC24"/>
+      <c r="BD24"/>
+      <c r="BE24"/>
+      <c r="BF24"/>
+      <c r="BG24"/>
+      <c r="BH24"/>
+      <c r="BI24"/>
+      <c r="BJ24"/>
+      <c r="BK24"/>
+      <c r="BL24"/>
+      <c r="BM24"/>
+      <c r="BN24"/>
+      <c r="BO24"/>
+      <c r="BP24"/>
+      <c r="BQ24"/>
+      <c r="BR24"/>
+      <c r="BS24"/>
+      <c r="BT24"/>
+      <c r="BU24"/>
+      <c r="BV24"/>
+      <c r="BW24"/>
+      <c r="BX24"/>
+      <c r="BY24"/>
+      <c r="BZ24"/>
+      <c r="CA24"/>
+      <c r="CB24"/>
+      <c r="CC24"/>
+      <c r="CD24"/>
+      <c r="CE24"/>
+      <c r="CF24"/>
+      <c r="CG24"/>
+      <c r="CH24"/>
+      <c r="CI24"/>
+      <c r="CJ24"/>
+      <c r="CK24"/>
+      <c r="CL24"/>
+      <c r="CM24"/>
+      <c r="CN24"/>
+      <c r="CO24"/>
+      <c r="CP24"/>
+      <c r="CQ24"/>
+      <c r="CR24"/>
+      <c r="CS24"/>
+      <c r="CT24"/>
+      <c r="CU24"/>
+      <c r="CV24"/>
+      <c r="CW24"/>
+      <c r="CX24"/>
+      <c r="CY24"/>
+      <c r="CZ24"/>
+      <c r="DA24"/>
+      <c r="DB24"/>
+      <c r="DC24"/>
+      <c r="DD24"/>
+      <c r="DE24"/>
+      <c r="DF24"/>
+      <c r="DG24"/>
+      <c r="DH24"/>
+      <c r="DI24"/>
+      <c r="DJ24"/>
+      <c r="DK24"/>
+      <c r="DL24"/>
+      <c r="DM24"/>
+      <c r="DN24"/>
+      <c r="DO24"/>
+      <c r="DP24"/>
+      <c r="DQ24"/>
+      <c r="DR24"/>
+      <c r="DS24"/>
+      <c r="DT24"/>
+      <c r="DU24"/>
+      <c r="DV24"/>
+      <c r="DW24"/>
+      <c r="DX24"/>
+      <c r="DY24"/>
+      <c r="DZ24"/>
+      <c r="EA24"/>
+      <c r="EB24"/>
+      <c r="EC24"/>
+      <c r="ED24"/>
+      <c r="EE24"/>
+      <c r="EF24"/>
+      <c r="EG24"/>
+      <c r="EH24"/>
+      <c r="EI24"/>
+      <c r="EJ24"/>
+      <c r="EK24"/>
+      <c r="EL24"/>
+      <c r="EM24"/>
+      <c r="EN24"/>
+      <c r="EO24"/>
+      <c r="EP24"/>
+      <c r="EQ24"/>
+      <c r="ER24"/>
+      <c r="ES24"/>
+      <c r="ET24"/>
+      <c r="EU24"/>
+      <c r="EV24"/>
+      <c r="EW24"/>
+      <c r="EX24"/>
+      <c r="EY24"/>
+      <c r="EZ24"/>
+      <c r="FA24"/>
+      <c r="FB24"/>
+      <c r="FC24"/>
+      <c r="FD24"/>
+      <c r="FE24"/>
+      <c r="FF24"/>
+      <c r="FG24"/>
+      <c r="FH24"/>
+      <c r="FI24"/>
+      <c r="FJ24"/>
+      <c r="FK24"/>
+      <c r="FL24"/>
+      <c r="FM24"/>
+      <c r="FN24"/>
+      <c r="FO24"/>
+      <c r="FP24"/>
+      <c r="FQ24"/>
+      <c r="FR24"/>
+      <c r="FS24"/>
+      <c r="FT24"/>
+      <c r="FU24"/>
+      <c r="FV24"/>
+      <c r="FW24"/>
+      <c r="FX24"/>
+      <c r="FY24"/>
+      <c r="FZ24"/>
+      <c r="GA24"/>
+      <c r="GB24"/>
+      <c r="GC24"/>
+      <c r="GD24"/>
+      <c r="GE24"/>
+      <c r="GF24"/>
+      <c r="GG24"/>
+      <c r="GH24"/>
+      <c r="GI24"/>
+      <c r="GJ24"/>
+      <c r="GK24"/>
+      <c r="GL24"/>
+      <c r="GM24"/>
+      <c r="GN24"/>
+      <c r="GO24"/>
+      <c r="GP24"/>
+      <c r="GQ24"/>
+      <c r="GR24"/>
+      <c r="GS24"/>
+      <c r="GT24"/>
+      <c r="GU24"/>
+      <c r="GV24"/>
+      <c r="GW24"/>
+      <c r="GX24"/>
+      <c r="GY24"/>
+      <c r="GZ24"/>
+      <c r="HA24"/>
+      <c r="HB24"/>
+      <c r="HC24"/>
+      <c r="HD24"/>
+      <c r="HE24"/>
+      <c r="HF24"/>
+      <c r="HG24"/>
+      <c r="HH24"/>
+      <c r="HI24"/>
+      <c r="HJ24"/>
+      <c r="HK24"/>
+      <c r="HL24"/>
+      <c r="HM24"/>
+      <c r="HN24"/>
+      <c r="HO24"/>
+      <c r="HP24"/>
+      <c r="HQ24"/>
+      <c r="HR24"/>
+      <c r="HS24"/>
+      <c r="HT24"/>
+      <c r="HU24"/>
+      <c r="HV24"/>
+      <c r="HW24"/>
+      <c r="HX24"/>
+      <c r="HY24"/>
+      <c r="HZ24"/>
+      <c r="IA24"/>
+      <c r="IB24"/>
+      <c r="IC24"/>
+      <c r="ID24"/>
+      <c r="IE24"/>
+      <c r="IF24"/>
+      <c r="IG24"/>
+      <c r="IH24"/>
+      <c r="II24"/>
+      <c r="IJ24"/>
+      <c r="IK24"/>
+      <c r="IL24"/>
+      <c r="IM24"/>
+      <c r="IN24"/>
+      <c r="IO24"/>
+      <c r="IP24"/>
+      <c r="IQ24"/>
+      <c r="IR24"/>
+      <c r="IS24"/>
+      <c r="IT24"/>
+      <c r="IU24"/>
+      <c r="IV24"/>
+      <c r="IW24"/>
+      <c r="IX24"/>
+      <c r="IY24"/>
+      <c r="IZ24"/>
+      <c r="JA24"/>
+      <c r="JB24"/>
+      <c r="JC24"/>
+      <c r="JD24"/>
+      <c r="JE24"/>
+      <c r="JF24"/>
+      <c r="JG24"/>
+      <c r="JH24"/>
+      <c r="JI24"/>
+      <c r="JJ24"/>
+      <c r="JK24"/>
+      <c r="JL24"/>
+      <c r="JM24"/>
+      <c r="JN24"/>
+      <c r="JO24"/>
+      <c r="JP24"/>
+      <c r="JQ24"/>
+      <c r="JR24"/>
+      <c r="JS24"/>
+      <c r="JT24"/>
+      <c r="JU24"/>
+      <c r="JV24"/>
+      <c r="JW24"/>
+      <c r="JX24"/>
+      <c r="JY24"/>
+      <c r="JZ24"/>
+      <c r="KA24"/>
+      <c r="KB24"/>
+      <c r="KC24"/>
+      <c r="KD24"/>
+      <c r="KE24"/>
+      <c r="KF24"/>
+      <c r="KG24"/>
+      <c r="KH24"/>
+      <c r="KI24"/>
+      <c r="KJ24"/>
+      <c r="KK24"/>
+      <c r="KL24"/>
+      <c r="KM24"/>
+      <c r="KN24"/>
+      <c r="KO24"/>
+      <c r="KP24"/>
+      <c r="KQ24"/>
+      <c r="KR24"/>
+      <c r="KS24"/>
+      <c r="KT24"/>
+      <c r="KU24"/>
+      <c r="KV24"/>
+      <c r="KW24"/>
+      <c r="KX24"/>
+      <c r="KY24"/>
+      <c r="KZ24"/>
+      <c r="LA24"/>
+      <c r="LB24"/>
+      <c r="LC24"/>
+      <c r="LD24"/>
+      <c r="LE24"/>
+      <c r="LF24"/>
+      <c r="LG24"/>
+      <c r="LH24"/>
+      <c r="LI24"/>
+      <c r="LJ24"/>
+      <c r="LK24"/>
+      <c r="LL24"/>
+      <c r="LM24"/>
+      <c r="LN24"/>
+      <c r="LO24"/>
+      <c r="LP24"/>
+      <c r="LQ24"/>
+      <c r="LR24"/>
+      <c r="LS24"/>
+      <c r="LT24"/>
+      <c r="LU24"/>
+      <c r="LV24"/>
+      <c r="LW24"/>
+      <c r="LX24"/>
+      <c r="LY24"/>
+      <c r="LZ24"/>
+      <c r="MA24"/>
+      <c r="MB24"/>
+      <c r="MC24"/>
+      <c r="MD24"/>
+      <c r="ME24"/>
+      <c r="MF24"/>
+      <c r="MG24"/>
+      <c r="MH24"/>
+      <c r="MI24"/>
+      <c r="MJ24"/>
+      <c r="MK24"/>
+      <c r="ML24"/>
+      <c r="MM24"/>
+      <c r="MN24"/>
+      <c r="MO24"/>
+      <c r="MP24"/>
+      <c r="MQ24"/>
+      <c r="MR24"/>
+      <c r="MS24"/>
+      <c r="MT24"/>
+      <c r="MU24"/>
+      <c r="MV24"/>
+      <c r="MW24"/>
+      <c r="MX24"/>
+      <c r="MY24"/>
+      <c r="MZ24"/>
+      <c r="NA24"/>
+      <c r="NB24"/>
+      <c r="NC24"/>
+      <c r="ND24"/>
+      <c r="NE24"/>
+      <c r="NF24"/>
+      <c r="NG24"/>
+      <c r="NH24"/>
+      <c r="NI24"/>
+      <c r="NJ24"/>
+      <c r="NK24"/>
+      <c r="NL24"/>
+      <c r="NM24"/>
+      <c r="NN24"/>
+      <c r="NO24"/>
+      <c r="NP24"/>
+      <c r="NQ24"/>
+      <c r="NR24"/>
+      <c r="NS24"/>
+      <c r="NT24"/>
+      <c r="NU24"/>
+      <c r="NV24"/>
+      <c r="NW24"/>
+      <c r="NX24"/>
+      <c r="NY24"/>
+      <c r="NZ24"/>
+      <c r="OA24"/>
+      <c r="OB24"/>
+      <c r="OC24"/>
+      <c r="OD24"/>
+      <c r="OE24"/>
+      <c r="OF24"/>
+      <c r="OG24"/>
+      <c r="OH24"/>
+      <c r="OI24"/>
+      <c r="OJ24"/>
+      <c r="OK24"/>
+      <c r="OL24"/>
+      <c r="OM24"/>
+      <c r="ON24"/>
+      <c r="OO24"/>
+      <c r="OP24"/>
+      <c r="OQ24"/>
+      <c r="OR24"/>
+      <c r="OS24"/>
+      <c r="OT24"/>
+      <c r="OU24"/>
+      <c r="OV24"/>
+      <c r="OW24"/>
+      <c r="OX24"/>
+      <c r="OY24"/>
+      <c r="OZ24"/>
+      <c r="PA24"/>
+      <c r="PB24"/>
+      <c r="PC24"/>
+      <c r="PD24"/>
+      <c r="PE24"/>
+      <c r="PF24"/>
+      <c r="PG24"/>
+      <c r="PH24"/>
+      <c r="PI24"/>
+      <c r="PJ24"/>
+      <c r="PK24"/>
+      <c r="PL24"/>
+      <c r="PM24"/>
+      <c r="PN24"/>
+      <c r="PO24"/>
+      <c r="PP24"/>
+      <c r="PQ24"/>
+      <c r="PR24"/>
+      <c r="PS24"/>
+      <c r="PT24"/>
+      <c r="PU24"/>
+      <c r="PV24"/>
+      <c r="PW24"/>
+      <c r="PX24"/>
+      <c r="PY24"/>
+      <c r="PZ24"/>
+      <c r="QA24"/>
+      <c r="QB24"/>
+      <c r="QC24"/>
+      <c r="QD24"/>
+      <c r="QE24"/>
+      <c r="QF24"/>
+      <c r="QG24"/>
+      <c r="QH24"/>
+      <c r="QI24"/>
+      <c r="QJ24"/>
+      <c r="QK24"/>
+      <c r="QL24"/>
+      <c r="QM24"/>
+      <c r="QN24"/>
+      <c r="QO24"/>
+      <c r="QP24"/>
+      <c r="QQ24"/>
+      <c r="QR24"/>
+      <c r="QS24"/>
+      <c r="QT24"/>
+      <c r="QU24"/>
+      <c r="QV24"/>
+      <c r="QW24"/>
+      <c r="QX24"/>
+      <c r="QY24"/>
+      <c r="QZ24"/>
+      <c r="RA24"/>
+      <c r="RB24"/>
+      <c r="RC24"/>
+      <c r="RD24"/>
+      <c r="RE24"/>
+      <c r="RF24"/>
+      <c r="RG24"/>
+      <c r="RH24"/>
+      <c r="RI24"/>
+      <c r="RJ24"/>
+      <c r="RK24"/>
+      <c r="RL24"/>
+      <c r="RM24"/>
+      <c r="RN24"/>
+      <c r="RO24"/>
+      <c r="RP24"/>
+      <c r="RQ24"/>
+      <c r="RR24"/>
+      <c r="RS24"/>
+      <c r="RT24"/>
+      <c r="RU24"/>
+      <c r="RV24"/>
+      <c r="RW24"/>
+      <c r="RX24"/>
+      <c r="RY24"/>
+      <c r="RZ24"/>
+      <c r="SA24"/>
+      <c r="SB24"/>
+      <c r="SC24"/>
+      <c r="SD24"/>
+      <c r="SE24"/>
+      <c r="SF24"/>
+      <c r="SG24"/>
+      <c r="SH24"/>
+      <c r="SI24"/>
+      <c r="SJ24"/>
+      <c r="SK24"/>
+      <c r="SL24"/>
+      <c r="SM24"/>
+      <c r="SN24"/>
+      <c r="SO24"/>
+      <c r="SP24"/>
+      <c r="SQ24"/>
+      <c r="SR24"/>
+      <c r="SS24"/>
+      <c r="ST24"/>
+      <c r="SU24"/>
+      <c r="SV24"/>
+      <c r="SW24"/>
+      <c r="SX24"/>
+      <c r="SY24"/>
+      <c r="SZ24"/>
+      <c r="TA24"/>
+      <c r="TB24"/>
+      <c r="TC24"/>
+      <c r="TD24"/>
+      <c r="TE24"/>
+      <c r="TF24"/>
+      <c r="TG24"/>
+      <c r="TH24"/>
+      <c r="TI24"/>
+      <c r="TJ24"/>
+      <c r="TK24"/>
+      <c r="TL24"/>
+      <c r="TM24"/>
+      <c r="TN24"/>
+      <c r="TO24"/>
+      <c r="TP24"/>
+      <c r="TQ24"/>
+      <c r="TR24"/>
+      <c r="TS24"/>
+      <c r="TT24"/>
+      <c r="TU24"/>
+      <c r="TV24"/>
+      <c r="TW24"/>
+      <c r="TX24"/>
+      <c r="TY24"/>
+      <c r="TZ24"/>
+      <c r="UA24"/>
+      <c r="UB24"/>
+      <c r="UC24"/>
+      <c r="UD24"/>
+      <c r="UE24"/>
+      <c r="UF24"/>
+      <c r="UG24"/>
+      <c r="UH24"/>
+      <c r="UI24"/>
+      <c r="UJ24"/>
+      <c r="UK24"/>
+      <c r="UL24"/>
+      <c r="UM24"/>
+      <c r="UN24"/>
+      <c r="UO24"/>
+      <c r="UP24"/>
+      <c r="UQ24"/>
+      <c r="UR24"/>
+      <c r="US24"/>
+      <c r="UT24"/>
+      <c r="UU24"/>
+      <c r="UV24"/>
+      <c r="UW24"/>
+      <c r="UX24"/>
+      <c r="UY24"/>
+      <c r="UZ24"/>
+      <c r="VA24"/>
+      <c r="VB24"/>
+      <c r="VC24"/>
+      <c r="VD24"/>
+      <c r="VE24"/>
+      <c r="VF24"/>
+      <c r="VG24"/>
+      <c r="VH24"/>
+      <c r="VI24"/>
+      <c r="VJ24"/>
+      <c r="VK24"/>
+      <c r="VL24"/>
+      <c r="VM24"/>
+      <c r="VN24"/>
+      <c r="VO24"/>
+      <c r="VP24"/>
+      <c r="VQ24"/>
+      <c r="VR24"/>
+      <c r="VS24"/>
+      <c r="VT24"/>
+      <c r="VU24"/>
+      <c r="VV24"/>
+      <c r="VW24"/>
+      <c r="VX24"/>
+      <c r="VY24"/>
+      <c r="VZ24"/>
+      <c r="WA24"/>
+      <c r="WB24"/>
+      <c r="WC24"/>
+      <c r="WD24"/>
+      <c r="WE24"/>
+      <c r="WF24"/>
+      <c r="WG24"/>
+      <c r="WH24"/>
+      <c r="WI24"/>
+      <c r="WJ24"/>
+      <c r="WK24"/>
+      <c r="WL24"/>
+      <c r="WM24"/>
+      <c r="WN24"/>
+      <c r="WO24"/>
+      <c r="WP24"/>
+      <c r="WQ24"/>
+      <c r="WR24"/>
+      <c r="WS24"/>
+      <c r="WT24"/>
+      <c r="WU24"/>
+      <c r="WV24"/>
+      <c r="WW24"/>
+      <c r="WX24"/>
+      <c r="WY24"/>
+      <c r="WZ24"/>
+      <c r="XA24"/>
+      <c r="XB24"/>
+      <c r="XC24"/>
+      <c r="XD24"/>
+      <c r="XE24"/>
+      <c r="XF24"/>
+      <c r="XG24"/>
+      <c r="XH24"/>
+      <c r="XI24"/>
+      <c r="XJ24"/>
+      <c r="XK24"/>
+      <c r="XL24"/>
+      <c r="XM24"/>
+      <c r="XN24"/>
+      <c r="XO24"/>
+      <c r="XP24"/>
+      <c r="XQ24"/>
+      <c r="XR24"/>
+      <c r="XS24"/>
+      <c r="XT24"/>
+      <c r="XU24"/>
+      <c r="XV24"/>
+      <c r="XW24"/>
+      <c r="XX24"/>
+      <c r="XY24"/>
+      <c r="XZ24"/>
+      <c r="YA24"/>
+      <c r="YB24"/>
+      <c r="YC24"/>
+      <c r="YD24"/>
+      <c r="YE24"/>
+      <c r="YF24"/>
+      <c r="YG24"/>
+      <c r="YH24"/>
+      <c r="YI24"/>
+      <c r="YJ24"/>
+      <c r="YK24"/>
+      <c r="YL24"/>
+      <c r="YM24"/>
+      <c r="YN24"/>
+      <c r="YO24"/>
+      <c r="YP24"/>
+      <c r="YQ24"/>
+      <c r="YR24"/>
+      <c r="YS24"/>
+      <c r="YT24"/>
+      <c r="YU24"/>
+      <c r="YV24"/>
+      <c r="YW24"/>
+      <c r="YX24"/>
+      <c r="YY24"/>
+      <c r="YZ24"/>
+      <c r="ZA24"/>
+      <c r="ZB24"/>
+      <c r="ZC24"/>
+      <c r="ZD24"/>
+      <c r="ZE24"/>
+      <c r="ZF24"/>
+      <c r="ZG24"/>
+      <c r="ZH24"/>
+      <c r="ZI24"/>
+      <c r="ZJ24"/>
+      <c r="ZK24"/>
+      <c r="ZL24"/>
+      <c r="ZM24"/>
+      <c r="ZN24"/>
+      <c r="ZO24"/>
+      <c r="ZP24"/>
+      <c r="ZQ24"/>
+      <c r="ZR24"/>
+      <c r="ZS24"/>
+      <c r="ZT24"/>
+      <c r="ZU24"/>
+      <c r="ZV24"/>
+      <c r="ZW24"/>
+      <c r="ZX24"/>
+      <c r="ZY24"/>
+      <c r="ZZ24"/>
+      <c r="AAA24"/>
+      <c r="AAB24"/>
+      <c r="AAC24"/>
+      <c r="AAD24"/>
+      <c r="AAE24"/>
+      <c r="AAF24"/>
+      <c r="AAG24"/>
+      <c r="AAH24"/>
+      <c r="AAI24"/>
+      <c r="AAJ24"/>
+      <c r="AAK24"/>
+      <c r="AAL24"/>
+      <c r="AAM24"/>
+      <c r="AAN24"/>
+      <c r="AAO24"/>
+      <c r="AAP24"/>
+      <c r="AAQ24"/>
+      <c r="AAR24"/>
+      <c r="AAS24"/>
+      <c r="AAT24"/>
+      <c r="AAU24"/>
+      <c r="AAV24"/>
+      <c r="AAW24"/>
+      <c r="AAX24"/>
+      <c r="AAY24"/>
+      <c r="AAZ24"/>
+      <c r="ABA24"/>
+      <c r="ABB24"/>
+      <c r="ABC24"/>
+      <c r="ABD24"/>
+      <c r="ABE24"/>
+      <c r="ABF24"/>
+      <c r="ABG24"/>
+      <c r="ABH24"/>
+      <c r="ABI24"/>
+      <c r="ABJ24"/>
+      <c r="ABK24"/>
+      <c r="ABL24"/>
+      <c r="ABM24"/>
+      <c r="ABN24"/>
+      <c r="ABO24"/>
+      <c r="ABP24"/>
+      <c r="ABQ24"/>
+      <c r="ABR24"/>
+      <c r="ABS24"/>
+      <c r="ABT24"/>
+      <c r="ABU24"/>
+      <c r="ABV24"/>
+      <c r="ABW24"/>
+      <c r="ABX24"/>
+      <c r="ABY24"/>
+      <c r="ABZ24"/>
+      <c r="ACA24"/>
+      <c r="ACB24"/>
+      <c r="ACC24"/>
+      <c r="ACD24"/>
+      <c r="ACE24"/>
+      <c r="ACF24"/>
+      <c r="ACG24"/>
+      <c r="ACH24"/>
+      <c r="ACI24"/>
+      <c r="ACJ24"/>
+      <c r="ACK24"/>
+      <c r="ACL24"/>
+      <c r="ACM24"/>
+      <c r="ACN24"/>
+      <c r="ACO24"/>
+      <c r="ACP24"/>
+      <c r="ACQ24"/>
+      <c r="ACR24"/>
+      <c r="ACS24"/>
+      <c r="ACT24"/>
+      <c r="ACU24"/>
+      <c r="ACV24"/>
+      <c r="ACW24"/>
+      <c r="ACX24"/>
+      <c r="ACY24"/>
+      <c r="ACZ24"/>
+      <c r="ADA24"/>
+      <c r="ADB24"/>
+      <c r="ADC24"/>
+      <c r="ADD24"/>
+      <c r="ADE24"/>
+      <c r="ADF24"/>
+      <c r="ADG24"/>
+      <c r="ADH24"/>
+      <c r="ADI24"/>
+      <c r="ADJ24"/>
+      <c r="ADK24"/>
+      <c r="ADL24"/>
+      <c r="ADM24"/>
+      <c r="ADN24"/>
+      <c r="ADO24"/>
+      <c r="ADP24"/>
+      <c r="ADQ24"/>
+      <c r="ADR24"/>
+      <c r="ADS24"/>
+      <c r="ADT24"/>
+      <c r="ADU24"/>
+      <c r="ADV24"/>
+      <c r="ADW24"/>
+      <c r="ADX24"/>
+      <c r="ADY24"/>
+      <c r="ADZ24"/>
+      <c r="AEA24"/>
+      <c r="AEB24"/>
+      <c r="AEC24"/>
+      <c r="AED24"/>
+      <c r="AEE24"/>
+      <c r="AEF24"/>
+      <c r="AEG24"/>
+      <c r="AEH24"/>
+      <c r="AEI24"/>
+      <c r="AEJ24"/>
+      <c r="AEK24"/>
+      <c r="AEL24"/>
+      <c r="AEM24"/>
+      <c r="AEN24"/>
+      <c r="AEO24"/>
+      <c r="AEP24"/>
+      <c r="AEQ24"/>
+      <c r="AER24"/>
+      <c r="AES24"/>
+      <c r="AET24"/>
+      <c r="AEU24"/>
+      <c r="AEV24"/>
+      <c r="AEW24"/>
+      <c r="AEX24"/>
+      <c r="AEY24"/>
+      <c r="AEZ24"/>
+      <c r="AFA24"/>
+      <c r="AFB24"/>
+      <c r="AFC24"/>
+      <c r="AFD24"/>
+      <c r="AFE24"/>
+      <c r="AFF24"/>
+      <c r="AFG24"/>
+      <c r="AFH24"/>
+      <c r="AFI24"/>
+      <c r="AFJ24"/>
+      <c r="AFK24"/>
+      <c r="AFL24"/>
+      <c r="AFM24"/>
+      <c r="AFN24"/>
+      <c r="AFO24"/>
+      <c r="AFP24"/>
+      <c r="AFQ24"/>
+      <c r="AFR24"/>
+      <c r="AFS24"/>
+      <c r="AFT24"/>
+      <c r="AFU24"/>
+      <c r="AFV24"/>
+      <c r="AFW24"/>
+      <c r="AFX24"/>
+      <c r="AFY24"/>
+      <c r="AFZ24"/>
+      <c r="AGA24"/>
+      <c r="AGB24"/>
+      <c r="AGC24"/>
+      <c r="AGD24"/>
+      <c r="AGE24"/>
+      <c r="AGF24"/>
+      <c r="AGG24"/>
+      <c r="AGH24"/>
+      <c r="AGI24"/>
+      <c r="AGJ24"/>
+      <c r="AGK24"/>
+      <c r="AGL24"/>
+      <c r="AGM24"/>
+      <c r="AGN24"/>
+      <c r="AGO24"/>
+      <c r="AGP24"/>
+      <c r="AGQ24"/>
+      <c r="AGR24"/>
+      <c r="AGS24"/>
+      <c r="AGT24"/>
+      <c r="AGU24"/>
+      <c r="AGV24"/>
+      <c r="AGW24"/>
+      <c r="AGX24"/>
+      <c r="AGY24"/>
+      <c r="AGZ24"/>
+      <c r="AHA24"/>
+      <c r="AHB24"/>
+      <c r="AHC24"/>
+      <c r="AHD24"/>
+      <c r="AHE24"/>
+      <c r="AHF24"/>
+      <c r="AHG24"/>
+      <c r="AHH24"/>
+      <c r="AHI24"/>
+      <c r="AHJ24"/>
+      <c r="AHK24"/>
+      <c r="AHL24"/>
+      <c r="AHM24"/>
+      <c r="AHN24"/>
+      <c r="AHO24"/>
+      <c r="AHP24"/>
+      <c r="AHQ24"/>
+      <c r="AHR24"/>
+      <c r="AHS24"/>
+      <c r="AHT24"/>
+      <c r="AHU24"/>
+      <c r="AHV24"/>
+      <c r="AHW24"/>
+      <c r="AHX24"/>
+      <c r="AHY24"/>
+      <c r="AHZ24"/>
+      <c r="AIA24"/>
+      <c r="AIB24"/>
+      <c r="AIC24"/>
+      <c r="AID24"/>
+      <c r="AIE24"/>
+      <c r="AIF24"/>
+      <c r="AIG24"/>
+      <c r="AIH24"/>
+      <c r="AII24"/>
+      <c r="AIJ24"/>
+      <c r="AIK24"/>
+      <c r="AIL24"/>
+      <c r="AIM24"/>
+      <c r="AIN24"/>
+      <c r="AIO24"/>
+      <c r="AIP24"/>
+      <c r="AIQ24"/>
+      <c r="AIR24"/>
+      <c r="AIS24"/>
+      <c r="AIT24"/>
+      <c r="AIU24"/>
+      <c r="AIV24"/>
+      <c r="AIW24"/>
+      <c r="AIX24"/>
+      <c r="AIY24"/>
+      <c r="AIZ24"/>
+      <c r="AJA24"/>
+      <c r="AJB24"/>
+      <c r="AJC24"/>
+      <c r="AJD24"/>
+      <c r="AJE24"/>
+      <c r="AJF24"/>
+      <c r="AJG24"/>
+      <c r="AJH24"/>
+      <c r="AJI24"/>
+      <c r="AJJ24"/>
+      <c r="AJK24"/>
+      <c r="AJL24"/>
+      <c r="AJM24"/>
+      <c r="AJN24"/>
+      <c r="AJO24"/>
+      <c r="AJP24"/>
+      <c r="AJQ24"/>
+      <c r="AJR24"/>
+      <c r="AJS24"/>
+      <c r="AJT24"/>
+      <c r="AJU24"/>
+      <c r="AJV24"/>
+      <c r="AJW24"/>
+      <c r="AJX24"/>
+      <c r="AJY24"/>
+      <c r="AJZ24"/>
+      <c r="AKA24"/>
+      <c r="AKB24"/>
+      <c r="AKC24"/>
+      <c r="AKD24"/>
+      <c r="AKE24"/>
+      <c r="AKF24"/>
+      <c r="AKG24"/>
+      <c r="AKH24"/>
+      <c r="AKI24"/>
+      <c r="AKJ24"/>
+      <c r="AKK24"/>
+      <c r="AKL24"/>
+      <c r="AKM24"/>
+      <c r="AKN24"/>
+      <c r="AKO24"/>
+      <c r="AKP24"/>
+      <c r="AKQ24"/>
+      <c r="AKR24"/>
+      <c r="AKS24"/>
+      <c r="AKT24"/>
+      <c r="AKU24"/>
+      <c r="AKV24"/>
+      <c r="AKW24"/>
+      <c r="AKX24"/>
+      <c r="AKY24"/>
+      <c r="AKZ24"/>
+      <c r="ALA24"/>
+      <c r="ALB24"/>
+      <c r="ALC24"/>
+      <c r="ALD24"/>
+      <c r="ALE24"/>
+      <c r="ALF24"/>
+      <c r="ALG24"/>
+      <c r="ALH24"/>
+      <c r="ALI24"/>
+      <c r="ALJ24"/>
+      <c r="ALK24"/>
+      <c r="ALL24"/>
+      <c r="ALM24"/>
+      <c r="ALN24"/>
+      <c r="ALO24"/>
+      <c r="ALP24"/>
+      <c r="ALQ24"/>
+      <c r="ALR24"/>
+      <c r="ALS24"/>
+      <c r="ALT24"/>
+      <c r="ALU24"/>
+      <c r="ALV24"/>
+      <c r="ALW24"/>
+      <c r="ALX24"/>
+      <c r="ALY24"/>
+      <c r="ALZ24"/>
+      <c r="AMA24"/>
+      <c r="AMB24"/>
+      <c r="AMC24"/>
+      <c r="AMD24"/>
+      <c r="AME24"/>
+      <c r="AMF24"/>
+      <c r="AMG24"/>
+      <c r="AMH24"/>
+      <c r="AMI24"/>
+      <c r="AMJ24"/>
     </row>
-    <row r="25" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="109"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
+    <row r="25" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A25"/>
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25"/>
@@ -47230,6382 +48090,253 @@
       <c r="AMI25"/>
       <c r="AMJ25"/>
     </row>
-    <row r="26" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="109"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
-      <c r="Y26"/>
-      <c r="Z26"/>
-      <c r="AA26"/>
-      <c r="AB26"/>
-      <c r="AC26"/>
-      <c r="AD26"/>
-      <c r="AE26"/>
-      <c r="AF26"/>
-      <c r="AG26"/>
-      <c r="AH26"/>
-      <c r="AI26"/>
-      <c r="AJ26"/>
-      <c r="AK26"/>
-      <c r="AL26"/>
-      <c r="AM26"/>
-      <c r="AN26"/>
-      <c r="AO26"/>
-      <c r="AP26"/>
-      <c r="AQ26"/>
-      <c r="AR26"/>
-      <c r="AS26"/>
-      <c r="AT26"/>
-      <c r="AU26"/>
-      <c r="AV26"/>
-      <c r="AW26"/>
-      <c r="AX26"/>
-      <c r="AY26"/>
-      <c r="AZ26"/>
-      <c r="BA26"/>
-      <c r="BB26"/>
-      <c r="BC26"/>
-      <c r="BD26"/>
-      <c r="BE26"/>
-      <c r="BF26"/>
-      <c r="BG26"/>
-      <c r="BH26"/>
-      <c r="BI26"/>
-      <c r="BJ26"/>
-      <c r="BK26"/>
-      <c r="BL26"/>
-      <c r="BM26"/>
-      <c r="BN26"/>
-      <c r="BO26"/>
-      <c r="BP26"/>
-      <c r="BQ26"/>
-      <c r="BR26"/>
-      <c r="BS26"/>
-      <c r="BT26"/>
-      <c r="BU26"/>
-      <c r="BV26"/>
-      <c r="BW26"/>
-      <c r="BX26"/>
-      <c r="BY26"/>
-      <c r="BZ26"/>
-      <c r="CA26"/>
-      <c r="CB26"/>
-      <c r="CC26"/>
-      <c r="CD26"/>
-      <c r="CE26"/>
-      <c r="CF26"/>
-      <c r="CG26"/>
-      <c r="CH26"/>
-      <c r="CI26"/>
-      <c r="CJ26"/>
-      <c r="CK26"/>
-      <c r="CL26"/>
-      <c r="CM26"/>
-      <c r="CN26"/>
-      <c r="CO26"/>
-      <c r="CP26"/>
-      <c r="CQ26"/>
-      <c r="CR26"/>
-      <c r="CS26"/>
-      <c r="CT26"/>
-      <c r="CU26"/>
-      <c r="CV26"/>
-      <c r="CW26"/>
-      <c r="CX26"/>
-      <c r="CY26"/>
-      <c r="CZ26"/>
-      <c r="DA26"/>
-      <c r="DB26"/>
-      <c r="DC26"/>
-      <c r="DD26"/>
-      <c r="DE26"/>
-      <c r="DF26"/>
-      <c r="DG26"/>
-      <c r="DH26"/>
-      <c r="DI26"/>
-      <c r="DJ26"/>
-      <c r="DK26"/>
-      <c r="DL26"/>
-      <c r="DM26"/>
-      <c r="DN26"/>
-      <c r="DO26"/>
-      <c r="DP26"/>
-      <c r="DQ26"/>
-      <c r="DR26"/>
-      <c r="DS26"/>
-      <c r="DT26"/>
-      <c r="DU26"/>
-      <c r="DV26"/>
-      <c r="DW26"/>
-      <c r="DX26"/>
-      <c r="DY26"/>
-      <c r="DZ26"/>
-      <c r="EA26"/>
-      <c r="EB26"/>
-      <c r="EC26"/>
-      <c r="ED26"/>
-      <c r="EE26"/>
-      <c r="EF26"/>
-      <c r="EG26"/>
-      <c r="EH26"/>
-      <c r="EI26"/>
-      <c r="EJ26"/>
-      <c r="EK26"/>
-      <c r="EL26"/>
-      <c r="EM26"/>
-      <c r="EN26"/>
-      <c r="EO26"/>
-      <c r="EP26"/>
-      <c r="EQ26"/>
-      <c r="ER26"/>
-      <c r="ES26"/>
-      <c r="ET26"/>
-      <c r="EU26"/>
-      <c r="EV26"/>
-      <c r="EW26"/>
-      <c r="EX26"/>
-      <c r="EY26"/>
-      <c r="EZ26"/>
-      <c r="FA26"/>
-      <c r="FB26"/>
-      <c r="FC26"/>
-      <c r="FD26"/>
-      <c r="FE26"/>
-      <c r="FF26"/>
-      <c r="FG26"/>
-      <c r="FH26"/>
-      <c r="FI26"/>
-      <c r="FJ26"/>
-      <c r="FK26"/>
-      <c r="FL26"/>
-      <c r="FM26"/>
-      <c r="FN26"/>
-      <c r="FO26"/>
-      <c r="FP26"/>
-      <c r="FQ26"/>
-      <c r="FR26"/>
-      <c r="FS26"/>
-      <c r="FT26"/>
-      <c r="FU26"/>
-      <c r="FV26"/>
-      <c r="FW26"/>
-      <c r="FX26"/>
-      <c r="FY26"/>
-      <c r="FZ26"/>
-      <c r="GA26"/>
-      <c r="GB26"/>
-      <c r="GC26"/>
-      <c r="GD26"/>
-      <c r="GE26"/>
-      <c r="GF26"/>
-      <c r="GG26"/>
-      <c r="GH26"/>
-      <c r="GI26"/>
-      <c r="GJ26"/>
-      <c r="GK26"/>
-      <c r="GL26"/>
-      <c r="GM26"/>
-      <c r="GN26"/>
-      <c r="GO26"/>
-      <c r="GP26"/>
-      <c r="GQ26"/>
-      <c r="GR26"/>
-      <c r="GS26"/>
-      <c r="GT26"/>
-      <c r="GU26"/>
-      <c r="GV26"/>
-      <c r="GW26"/>
-      <c r="GX26"/>
-      <c r="GY26"/>
-      <c r="GZ26"/>
-      <c r="HA26"/>
-      <c r="HB26"/>
-      <c r="HC26"/>
-      <c r="HD26"/>
-      <c r="HE26"/>
-      <c r="HF26"/>
-      <c r="HG26"/>
-      <c r="HH26"/>
-      <c r="HI26"/>
-      <c r="HJ26"/>
-      <c r="HK26"/>
-      <c r="HL26"/>
-      <c r="HM26"/>
-      <c r="HN26"/>
-      <c r="HO26"/>
-      <c r="HP26"/>
-      <c r="HQ26"/>
-      <c r="HR26"/>
-      <c r="HS26"/>
-      <c r="HT26"/>
-      <c r="HU26"/>
-      <c r="HV26"/>
-      <c r="HW26"/>
-      <c r="HX26"/>
-      <c r="HY26"/>
-      <c r="HZ26"/>
-      <c r="IA26"/>
-      <c r="IB26"/>
-      <c r="IC26"/>
-      <c r="ID26"/>
-      <c r="IE26"/>
-      <c r="IF26"/>
-      <c r="IG26"/>
-      <c r="IH26"/>
-      <c r="II26"/>
-      <c r="IJ26"/>
-      <c r="IK26"/>
-      <c r="IL26"/>
-      <c r="IM26"/>
-      <c r="IN26"/>
-      <c r="IO26"/>
-      <c r="IP26"/>
-      <c r="IQ26"/>
-      <c r="IR26"/>
-      <c r="IS26"/>
-      <c r="IT26"/>
-      <c r="IU26"/>
-      <c r="IV26"/>
-      <c r="IW26"/>
-      <c r="IX26"/>
-      <c r="IY26"/>
-      <c r="IZ26"/>
-      <c r="JA26"/>
-      <c r="JB26"/>
-      <c r="JC26"/>
-      <c r="JD26"/>
-      <c r="JE26"/>
-      <c r="JF26"/>
-      <c r="JG26"/>
-      <c r="JH26"/>
-      <c r="JI26"/>
-      <c r="JJ26"/>
-      <c r="JK26"/>
-      <c r="JL26"/>
-      <c r="JM26"/>
-      <c r="JN26"/>
-      <c r="JO26"/>
-      <c r="JP26"/>
-      <c r="JQ26"/>
-      <c r="JR26"/>
-      <c r="JS26"/>
-      <c r="JT26"/>
-      <c r="JU26"/>
-      <c r="JV26"/>
-      <c r="JW26"/>
-      <c r="JX26"/>
-      <c r="JY26"/>
-      <c r="JZ26"/>
-      <c r="KA26"/>
-      <c r="KB26"/>
-      <c r="KC26"/>
-      <c r="KD26"/>
-      <c r="KE26"/>
-      <c r="KF26"/>
-      <c r="KG26"/>
-      <c r="KH26"/>
-      <c r="KI26"/>
-      <c r="KJ26"/>
-      <c r="KK26"/>
-      <c r="KL26"/>
-      <c r="KM26"/>
-      <c r="KN26"/>
-      <c r="KO26"/>
-      <c r="KP26"/>
-      <c r="KQ26"/>
-      <c r="KR26"/>
-      <c r="KS26"/>
-      <c r="KT26"/>
-      <c r="KU26"/>
-      <c r="KV26"/>
-      <c r="KW26"/>
-      <c r="KX26"/>
-      <c r="KY26"/>
-      <c r="KZ26"/>
-      <c r="LA26"/>
-      <c r="LB26"/>
-      <c r="LC26"/>
-      <c r="LD26"/>
-      <c r="LE26"/>
-      <c r="LF26"/>
-      <c r="LG26"/>
-      <c r="LH26"/>
-      <c r="LI26"/>
-      <c r="LJ26"/>
-      <c r="LK26"/>
-      <c r="LL26"/>
-      <c r="LM26"/>
-      <c r="LN26"/>
-      <c r="LO26"/>
-      <c r="LP26"/>
-      <c r="LQ26"/>
-      <c r="LR26"/>
-      <c r="LS26"/>
-      <c r="LT26"/>
-      <c r="LU26"/>
-      <c r="LV26"/>
-      <c r="LW26"/>
-      <c r="LX26"/>
-      <c r="LY26"/>
-      <c r="LZ26"/>
-      <c r="MA26"/>
-      <c r="MB26"/>
-      <c r="MC26"/>
-      <c r="MD26"/>
-      <c r="ME26"/>
-      <c r="MF26"/>
-      <c r="MG26"/>
-      <c r="MH26"/>
-      <c r="MI26"/>
-      <c r="MJ26"/>
-      <c r="MK26"/>
-      <c r="ML26"/>
-      <c r="MM26"/>
-      <c r="MN26"/>
-      <c r="MO26"/>
-      <c r="MP26"/>
-      <c r="MQ26"/>
-      <c r="MR26"/>
-      <c r="MS26"/>
-      <c r="MT26"/>
-      <c r="MU26"/>
-      <c r="MV26"/>
-      <c r="MW26"/>
-      <c r="MX26"/>
-      <c r="MY26"/>
-      <c r="MZ26"/>
-      <c r="NA26"/>
-      <c r="NB26"/>
-      <c r="NC26"/>
-      <c r="ND26"/>
-      <c r="NE26"/>
-      <c r="NF26"/>
-      <c r="NG26"/>
-      <c r="NH26"/>
-      <c r="NI26"/>
-      <c r="NJ26"/>
-      <c r="NK26"/>
-      <c r="NL26"/>
-      <c r="NM26"/>
-      <c r="NN26"/>
-      <c r="NO26"/>
-      <c r="NP26"/>
-      <c r="NQ26"/>
-      <c r="NR26"/>
-      <c r="NS26"/>
-      <c r="NT26"/>
-      <c r="NU26"/>
-      <c r="NV26"/>
-      <c r="NW26"/>
-      <c r="NX26"/>
-      <c r="NY26"/>
-      <c r="NZ26"/>
-      <c r="OA26"/>
-      <c r="OB26"/>
-      <c r="OC26"/>
-      <c r="OD26"/>
-      <c r="OE26"/>
-      <c r="OF26"/>
-      <c r="OG26"/>
-      <c r="OH26"/>
-      <c r="OI26"/>
-      <c r="OJ26"/>
-      <c r="OK26"/>
-      <c r="OL26"/>
-      <c r="OM26"/>
-      <c r="ON26"/>
-      <c r="OO26"/>
-      <c r="OP26"/>
-      <c r="OQ26"/>
-      <c r="OR26"/>
-      <c r="OS26"/>
-      <c r="OT26"/>
-      <c r="OU26"/>
-      <c r="OV26"/>
-      <c r="OW26"/>
-      <c r="OX26"/>
-      <c r="OY26"/>
-      <c r="OZ26"/>
-      <c r="PA26"/>
-      <c r="PB26"/>
-      <c r="PC26"/>
-      <c r="PD26"/>
-      <c r="PE26"/>
-      <c r="PF26"/>
-      <c r="PG26"/>
-      <c r="PH26"/>
-      <c r="PI26"/>
-      <c r="PJ26"/>
-      <c r="PK26"/>
-      <c r="PL26"/>
-      <c r="PM26"/>
-      <c r="PN26"/>
-      <c r="PO26"/>
-      <c r="PP26"/>
-      <c r="PQ26"/>
-      <c r="PR26"/>
-      <c r="PS26"/>
-      <c r="PT26"/>
-      <c r="PU26"/>
-      <c r="PV26"/>
-      <c r="PW26"/>
-      <c r="PX26"/>
-      <c r="PY26"/>
-      <c r="PZ26"/>
-      <c r="QA26"/>
-      <c r="QB26"/>
-      <c r="QC26"/>
-      <c r="QD26"/>
-      <c r="QE26"/>
-      <c r="QF26"/>
-      <c r="QG26"/>
-      <c r="QH26"/>
-      <c r="QI26"/>
-      <c r="QJ26"/>
-      <c r="QK26"/>
-      <c r="QL26"/>
-      <c r="QM26"/>
-      <c r="QN26"/>
-      <c r="QO26"/>
-      <c r="QP26"/>
-      <c r="QQ26"/>
-      <c r="QR26"/>
-      <c r="QS26"/>
-      <c r="QT26"/>
-      <c r="QU26"/>
-      <c r="QV26"/>
-      <c r="QW26"/>
-      <c r="QX26"/>
-      <c r="QY26"/>
-      <c r="QZ26"/>
-      <c r="RA26"/>
-      <c r="RB26"/>
-      <c r="RC26"/>
-      <c r="RD26"/>
-      <c r="RE26"/>
-      <c r="RF26"/>
-      <c r="RG26"/>
-      <c r="RH26"/>
-      <c r="RI26"/>
-      <c r="RJ26"/>
-      <c r="RK26"/>
-      <c r="RL26"/>
-      <c r="RM26"/>
-      <c r="RN26"/>
-      <c r="RO26"/>
-      <c r="RP26"/>
-      <c r="RQ26"/>
-      <c r="RR26"/>
-      <c r="RS26"/>
-      <c r="RT26"/>
-      <c r="RU26"/>
-      <c r="RV26"/>
-      <c r="RW26"/>
-      <c r="RX26"/>
-      <c r="RY26"/>
-      <c r="RZ26"/>
-      <c r="SA26"/>
-      <c r="SB26"/>
-      <c r="SC26"/>
-      <c r="SD26"/>
-      <c r="SE26"/>
-      <c r="SF26"/>
-      <c r="SG26"/>
-      <c r="SH26"/>
-      <c r="SI26"/>
-      <c r="SJ26"/>
-      <c r="SK26"/>
-      <c r="SL26"/>
-      <c r="SM26"/>
-      <c r="SN26"/>
-      <c r="SO26"/>
-      <c r="SP26"/>
-      <c r="SQ26"/>
-      <c r="SR26"/>
-      <c r="SS26"/>
-      <c r="ST26"/>
-      <c r="SU26"/>
-      <c r="SV26"/>
-      <c r="SW26"/>
-      <c r="SX26"/>
-      <c r="SY26"/>
-      <c r="SZ26"/>
-      <c r="TA26"/>
-      <c r="TB26"/>
-      <c r="TC26"/>
-      <c r="TD26"/>
-      <c r="TE26"/>
-      <c r="TF26"/>
-      <c r="TG26"/>
-      <c r="TH26"/>
-      <c r="TI26"/>
-      <c r="TJ26"/>
-      <c r="TK26"/>
-      <c r="TL26"/>
-      <c r="TM26"/>
-      <c r="TN26"/>
-      <c r="TO26"/>
-      <c r="TP26"/>
-      <c r="TQ26"/>
-      <c r="TR26"/>
-      <c r="TS26"/>
-      <c r="TT26"/>
-      <c r="TU26"/>
-      <c r="TV26"/>
-      <c r="TW26"/>
-      <c r="TX26"/>
-      <c r="TY26"/>
-      <c r="TZ26"/>
-      <c r="UA26"/>
-      <c r="UB26"/>
-      <c r="UC26"/>
-      <c r="UD26"/>
-      <c r="UE26"/>
-      <c r="UF26"/>
-      <c r="UG26"/>
-      <c r="UH26"/>
-      <c r="UI26"/>
-      <c r="UJ26"/>
-      <c r="UK26"/>
-      <c r="UL26"/>
-      <c r="UM26"/>
-      <c r="UN26"/>
-      <c r="UO26"/>
-      <c r="UP26"/>
-      <c r="UQ26"/>
-      <c r="UR26"/>
-      <c r="US26"/>
-      <c r="UT26"/>
-      <c r="UU26"/>
-      <c r="UV26"/>
-      <c r="UW26"/>
-      <c r="UX26"/>
-      <c r="UY26"/>
-      <c r="UZ26"/>
-      <c r="VA26"/>
-      <c r="VB26"/>
-      <c r="VC26"/>
-      <c r="VD26"/>
-      <c r="VE26"/>
-      <c r="VF26"/>
-      <c r="VG26"/>
-      <c r="VH26"/>
-      <c r="VI26"/>
-      <c r="VJ26"/>
-      <c r="VK26"/>
-      <c r="VL26"/>
-      <c r="VM26"/>
-      <c r="VN26"/>
-      <c r="VO26"/>
-      <c r="VP26"/>
-      <c r="VQ26"/>
-      <c r="VR26"/>
-      <c r="VS26"/>
-      <c r="VT26"/>
-      <c r="VU26"/>
-      <c r="VV26"/>
-      <c r="VW26"/>
-      <c r="VX26"/>
-      <c r="VY26"/>
-      <c r="VZ26"/>
-      <c r="WA26"/>
-      <c r="WB26"/>
-      <c r="WC26"/>
-      <c r="WD26"/>
-      <c r="WE26"/>
-      <c r="WF26"/>
-      <c r="WG26"/>
-      <c r="WH26"/>
-      <c r="WI26"/>
-      <c r="WJ26"/>
-      <c r="WK26"/>
-      <c r="WL26"/>
-      <c r="WM26"/>
-      <c r="WN26"/>
-      <c r="WO26"/>
-      <c r="WP26"/>
-      <c r="WQ26"/>
-      <c r="WR26"/>
-      <c r="WS26"/>
-      <c r="WT26"/>
-      <c r="WU26"/>
-      <c r="WV26"/>
-      <c r="WW26"/>
-      <c r="WX26"/>
-      <c r="WY26"/>
-      <c r="WZ26"/>
-      <c r="XA26"/>
-      <c r="XB26"/>
-      <c r="XC26"/>
-      <c r="XD26"/>
-      <c r="XE26"/>
-      <c r="XF26"/>
-      <c r="XG26"/>
-      <c r="XH26"/>
-      <c r="XI26"/>
-      <c r="XJ26"/>
-      <c r="XK26"/>
-      <c r="XL26"/>
-      <c r="XM26"/>
-      <c r="XN26"/>
-      <c r="XO26"/>
-      <c r="XP26"/>
-      <c r="XQ26"/>
-      <c r="XR26"/>
-      <c r="XS26"/>
-      <c r="XT26"/>
-      <c r="XU26"/>
-      <c r="XV26"/>
-      <c r="XW26"/>
-      <c r="XX26"/>
-      <c r="XY26"/>
-      <c r="XZ26"/>
-      <c r="YA26"/>
-      <c r="YB26"/>
-      <c r="YC26"/>
-      <c r="YD26"/>
-      <c r="YE26"/>
-      <c r="YF26"/>
-      <c r="YG26"/>
-      <c r="YH26"/>
-      <c r="YI26"/>
-      <c r="YJ26"/>
-      <c r="YK26"/>
-      <c r="YL26"/>
-      <c r="YM26"/>
-      <c r="YN26"/>
-      <c r="YO26"/>
-      <c r="YP26"/>
-      <c r="YQ26"/>
-      <c r="YR26"/>
-      <c r="YS26"/>
-      <c r="YT26"/>
-      <c r="YU26"/>
-      <c r="YV26"/>
-      <c r="YW26"/>
-      <c r="YX26"/>
-      <c r="YY26"/>
-      <c r="YZ26"/>
-      <c r="ZA26"/>
-      <c r="ZB26"/>
-      <c r="ZC26"/>
-      <c r="ZD26"/>
-      <c r="ZE26"/>
-      <c r="ZF26"/>
-      <c r="ZG26"/>
-      <c r="ZH26"/>
-      <c r="ZI26"/>
-      <c r="ZJ26"/>
-      <c r="ZK26"/>
-      <c r="ZL26"/>
-      <c r="ZM26"/>
-      <c r="ZN26"/>
-      <c r="ZO26"/>
-      <c r="ZP26"/>
-      <c r="ZQ26"/>
-      <c r="ZR26"/>
-      <c r="ZS26"/>
-      <c r="ZT26"/>
-      <c r="ZU26"/>
-      <c r="ZV26"/>
-      <c r="ZW26"/>
-      <c r="ZX26"/>
-      <c r="ZY26"/>
-      <c r="ZZ26"/>
-      <c r="AAA26"/>
-      <c r="AAB26"/>
-      <c r="AAC26"/>
-      <c r="AAD26"/>
-      <c r="AAE26"/>
-      <c r="AAF26"/>
-      <c r="AAG26"/>
-      <c r="AAH26"/>
-      <c r="AAI26"/>
-      <c r="AAJ26"/>
-      <c r="AAK26"/>
-      <c r="AAL26"/>
-      <c r="AAM26"/>
-      <c r="AAN26"/>
-      <c r="AAO26"/>
-      <c r="AAP26"/>
-      <c r="AAQ26"/>
-      <c r="AAR26"/>
-      <c r="AAS26"/>
-      <c r="AAT26"/>
-      <c r="AAU26"/>
-      <c r="AAV26"/>
-      <c r="AAW26"/>
-      <c r="AAX26"/>
-      <c r="AAY26"/>
-      <c r="AAZ26"/>
-      <c r="ABA26"/>
-      <c r="ABB26"/>
-      <c r="ABC26"/>
-      <c r="ABD26"/>
-      <c r="ABE26"/>
-      <c r="ABF26"/>
-      <c r="ABG26"/>
-      <c r="ABH26"/>
-      <c r="ABI26"/>
-      <c r="ABJ26"/>
-      <c r="ABK26"/>
-      <c r="ABL26"/>
-      <c r="ABM26"/>
-      <c r="ABN26"/>
-      <c r="ABO26"/>
-      <c r="ABP26"/>
-      <c r="ABQ26"/>
-      <c r="ABR26"/>
-      <c r="ABS26"/>
-      <c r="ABT26"/>
-      <c r="ABU26"/>
-      <c r="ABV26"/>
-      <c r="ABW26"/>
-      <c r="ABX26"/>
-      <c r="ABY26"/>
-      <c r="ABZ26"/>
-      <c r="ACA26"/>
-      <c r="ACB26"/>
-      <c r="ACC26"/>
-      <c r="ACD26"/>
-      <c r="ACE26"/>
-      <c r="ACF26"/>
-      <c r="ACG26"/>
-      <c r="ACH26"/>
-      <c r="ACI26"/>
-      <c r="ACJ26"/>
-      <c r="ACK26"/>
-      <c r="ACL26"/>
-      <c r="ACM26"/>
-      <c r="ACN26"/>
-      <c r="ACO26"/>
-      <c r="ACP26"/>
-      <c r="ACQ26"/>
-      <c r="ACR26"/>
-      <c r="ACS26"/>
-      <c r="ACT26"/>
-      <c r="ACU26"/>
-      <c r="ACV26"/>
-      <c r="ACW26"/>
-      <c r="ACX26"/>
-      <c r="ACY26"/>
-      <c r="ACZ26"/>
-      <c r="ADA26"/>
-      <c r="ADB26"/>
-      <c r="ADC26"/>
-      <c r="ADD26"/>
-      <c r="ADE26"/>
-      <c r="ADF26"/>
-      <c r="ADG26"/>
-      <c r="ADH26"/>
-      <c r="ADI26"/>
-      <c r="ADJ26"/>
-      <c r="ADK26"/>
-      <c r="ADL26"/>
-      <c r="ADM26"/>
-      <c r="ADN26"/>
-      <c r="ADO26"/>
-      <c r="ADP26"/>
-      <c r="ADQ26"/>
-      <c r="ADR26"/>
-      <c r="ADS26"/>
-      <c r="ADT26"/>
-      <c r="ADU26"/>
-      <c r="ADV26"/>
-      <c r="ADW26"/>
-      <c r="ADX26"/>
-      <c r="ADY26"/>
-      <c r="ADZ26"/>
-      <c r="AEA26"/>
-      <c r="AEB26"/>
-      <c r="AEC26"/>
-      <c r="AED26"/>
-      <c r="AEE26"/>
-      <c r="AEF26"/>
-      <c r="AEG26"/>
-      <c r="AEH26"/>
-      <c r="AEI26"/>
-      <c r="AEJ26"/>
-      <c r="AEK26"/>
-      <c r="AEL26"/>
-      <c r="AEM26"/>
-      <c r="AEN26"/>
-      <c r="AEO26"/>
-      <c r="AEP26"/>
-      <c r="AEQ26"/>
-      <c r="AER26"/>
-      <c r="AES26"/>
-      <c r="AET26"/>
-      <c r="AEU26"/>
-      <c r="AEV26"/>
-      <c r="AEW26"/>
-      <c r="AEX26"/>
-      <c r="AEY26"/>
-      <c r="AEZ26"/>
-      <c r="AFA26"/>
-      <c r="AFB26"/>
-      <c r="AFC26"/>
-      <c r="AFD26"/>
-      <c r="AFE26"/>
-      <c r="AFF26"/>
-      <c r="AFG26"/>
-      <c r="AFH26"/>
-      <c r="AFI26"/>
-      <c r="AFJ26"/>
-      <c r="AFK26"/>
-      <c r="AFL26"/>
-      <c r="AFM26"/>
-      <c r="AFN26"/>
-      <c r="AFO26"/>
-      <c r="AFP26"/>
-      <c r="AFQ26"/>
-      <c r="AFR26"/>
-      <c r="AFS26"/>
-      <c r="AFT26"/>
-      <c r="AFU26"/>
-      <c r="AFV26"/>
-      <c r="AFW26"/>
-      <c r="AFX26"/>
-      <c r="AFY26"/>
-      <c r="AFZ26"/>
-      <c r="AGA26"/>
-      <c r="AGB26"/>
-      <c r="AGC26"/>
-      <c r="AGD26"/>
-      <c r="AGE26"/>
-      <c r="AGF26"/>
-      <c r="AGG26"/>
-      <c r="AGH26"/>
-      <c r="AGI26"/>
-      <c r="AGJ26"/>
-      <c r="AGK26"/>
-      <c r="AGL26"/>
-      <c r="AGM26"/>
-      <c r="AGN26"/>
-      <c r="AGO26"/>
-      <c r="AGP26"/>
-      <c r="AGQ26"/>
-      <c r="AGR26"/>
-      <c r="AGS26"/>
-      <c r="AGT26"/>
-      <c r="AGU26"/>
-      <c r="AGV26"/>
-      <c r="AGW26"/>
-      <c r="AGX26"/>
-      <c r="AGY26"/>
-      <c r="AGZ26"/>
-      <c r="AHA26"/>
-      <c r="AHB26"/>
-      <c r="AHC26"/>
-      <c r="AHD26"/>
-      <c r="AHE26"/>
-      <c r="AHF26"/>
-      <c r="AHG26"/>
-      <c r="AHH26"/>
-      <c r="AHI26"/>
-      <c r="AHJ26"/>
-      <c r="AHK26"/>
-      <c r="AHL26"/>
-      <c r="AHM26"/>
-      <c r="AHN26"/>
-      <c r="AHO26"/>
-      <c r="AHP26"/>
-      <c r="AHQ26"/>
-      <c r="AHR26"/>
-      <c r="AHS26"/>
-      <c r="AHT26"/>
-      <c r="AHU26"/>
-      <c r="AHV26"/>
-      <c r="AHW26"/>
-      <c r="AHX26"/>
-      <c r="AHY26"/>
-      <c r="AHZ26"/>
-      <c r="AIA26"/>
-      <c r="AIB26"/>
-      <c r="AIC26"/>
-      <c r="AID26"/>
-      <c r="AIE26"/>
-      <c r="AIF26"/>
-      <c r="AIG26"/>
-      <c r="AIH26"/>
-      <c r="AII26"/>
-      <c r="AIJ26"/>
-      <c r="AIK26"/>
-      <c r="AIL26"/>
-      <c r="AIM26"/>
-      <c r="AIN26"/>
-      <c r="AIO26"/>
-      <c r="AIP26"/>
-      <c r="AIQ26"/>
-      <c r="AIR26"/>
-      <c r="AIS26"/>
-      <c r="AIT26"/>
-      <c r="AIU26"/>
-      <c r="AIV26"/>
-      <c r="AIW26"/>
-      <c r="AIX26"/>
-      <c r="AIY26"/>
-      <c r="AIZ26"/>
-      <c r="AJA26"/>
-      <c r="AJB26"/>
-      <c r="AJC26"/>
-      <c r="AJD26"/>
-      <c r="AJE26"/>
-      <c r="AJF26"/>
-      <c r="AJG26"/>
-      <c r="AJH26"/>
-      <c r="AJI26"/>
-      <c r="AJJ26"/>
-      <c r="AJK26"/>
-      <c r="AJL26"/>
-      <c r="AJM26"/>
-      <c r="AJN26"/>
-      <c r="AJO26"/>
-      <c r="AJP26"/>
-      <c r="AJQ26"/>
-      <c r="AJR26"/>
-      <c r="AJS26"/>
-      <c r="AJT26"/>
-      <c r="AJU26"/>
-      <c r="AJV26"/>
-      <c r="AJW26"/>
-      <c r="AJX26"/>
-      <c r="AJY26"/>
-      <c r="AJZ26"/>
-      <c r="AKA26"/>
-      <c r="AKB26"/>
-      <c r="AKC26"/>
-      <c r="AKD26"/>
-      <c r="AKE26"/>
-      <c r="AKF26"/>
-      <c r="AKG26"/>
-      <c r="AKH26"/>
-      <c r="AKI26"/>
-      <c r="AKJ26"/>
-      <c r="AKK26"/>
-      <c r="AKL26"/>
-      <c r="AKM26"/>
-      <c r="AKN26"/>
-      <c r="AKO26"/>
-      <c r="AKP26"/>
-      <c r="AKQ26"/>
-      <c r="AKR26"/>
-      <c r="AKS26"/>
-      <c r="AKT26"/>
-      <c r="AKU26"/>
-      <c r="AKV26"/>
-      <c r="AKW26"/>
-      <c r="AKX26"/>
-      <c r="AKY26"/>
-      <c r="AKZ26"/>
-      <c r="ALA26"/>
-      <c r="ALB26"/>
-      <c r="ALC26"/>
-      <c r="ALD26"/>
-      <c r="ALE26"/>
-      <c r="ALF26"/>
-      <c r="ALG26"/>
-      <c r="ALH26"/>
-      <c r="ALI26"/>
-      <c r="ALJ26"/>
-      <c r="ALK26"/>
-      <c r="ALL26"/>
-      <c r="ALM26"/>
-      <c r="ALN26"/>
-      <c r="ALO26"/>
-      <c r="ALP26"/>
-      <c r="ALQ26"/>
-      <c r="ALR26"/>
-      <c r="ALS26"/>
-      <c r="ALT26"/>
-      <c r="ALU26"/>
-      <c r="ALV26"/>
-      <c r="ALW26"/>
-      <c r="ALX26"/>
-      <c r="ALY26"/>
-      <c r="ALZ26"/>
-      <c r="AMA26"/>
-      <c r="AMB26"/>
-      <c r="AMC26"/>
-      <c r="AMD26"/>
-      <c r="AME26"/>
-      <c r="AMF26"/>
-      <c r="AMG26"/>
-      <c r="AMH26"/>
-      <c r="AMI26"/>
-      <c r="AMJ26"/>
+    <row r="28" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="B28" s="101"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
     </row>
-    <row r="27" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="109"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
-      <c r="Y27"/>
-      <c r="Z27"/>
-      <c r="AA27"/>
-      <c r="AB27"/>
-      <c r="AC27"/>
-      <c r="AD27"/>
-      <c r="AE27"/>
-      <c r="AF27"/>
-      <c r="AG27"/>
-      <c r="AH27"/>
-      <c r="AI27"/>
-      <c r="AJ27"/>
-      <c r="AK27"/>
-      <c r="AL27"/>
-      <c r="AM27"/>
-      <c r="AN27"/>
-      <c r="AO27"/>
-      <c r="AP27"/>
-      <c r="AQ27"/>
-      <c r="AR27"/>
-      <c r="AS27"/>
-      <c r="AT27"/>
-      <c r="AU27"/>
-      <c r="AV27"/>
-      <c r="AW27"/>
-      <c r="AX27"/>
-      <c r="AY27"/>
-      <c r="AZ27"/>
-      <c r="BA27"/>
-      <c r="BB27"/>
-      <c r="BC27"/>
-      <c r="BD27"/>
-      <c r="BE27"/>
-      <c r="BF27"/>
-      <c r="BG27"/>
-      <c r="BH27"/>
-      <c r="BI27"/>
-      <c r="BJ27"/>
-      <c r="BK27"/>
-      <c r="BL27"/>
-      <c r="BM27"/>
-      <c r="BN27"/>
-      <c r="BO27"/>
-      <c r="BP27"/>
-      <c r="BQ27"/>
-      <c r="BR27"/>
-      <c r="BS27"/>
-      <c r="BT27"/>
-      <c r="BU27"/>
-      <c r="BV27"/>
-      <c r="BW27"/>
-      <c r="BX27"/>
-      <c r="BY27"/>
-      <c r="BZ27"/>
-      <c r="CA27"/>
-      <c r="CB27"/>
-      <c r="CC27"/>
-      <c r="CD27"/>
-      <c r="CE27"/>
-      <c r="CF27"/>
-      <c r="CG27"/>
-      <c r="CH27"/>
-      <c r="CI27"/>
-      <c r="CJ27"/>
-      <c r="CK27"/>
-      <c r="CL27"/>
-      <c r="CM27"/>
-      <c r="CN27"/>
-      <c r="CO27"/>
-      <c r="CP27"/>
-      <c r="CQ27"/>
-      <c r="CR27"/>
-      <c r="CS27"/>
-      <c r="CT27"/>
-      <c r="CU27"/>
-      <c r="CV27"/>
-      <c r="CW27"/>
-      <c r="CX27"/>
-      <c r="CY27"/>
-      <c r="CZ27"/>
-      <c r="DA27"/>
-      <c r="DB27"/>
-      <c r="DC27"/>
-      <c r="DD27"/>
-      <c r="DE27"/>
-      <c r="DF27"/>
-      <c r="DG27"/>
-      <c r="DH27"/>
-      <c r="DI27"/>
-      <c r="DJ27"/>
-      <c r="DK27"/>
-      <c r="DL27"/>
-      <c r="DM27"/>
-      <c r="DN27"/>
-      <c r="DO27"/>
-      <c r="DP27"/>
-      <c r="DQ27"/>
-      <c r="DR27"/>
-      <c r="DS27"/>
-      <c r="DT27"/>
-      <c r="DU27"/>
-      <c r="DV27"/>
-      <c r="DW27"/>
-      <c r="DX27"/>
-      <c r="DY27"/>
-      <c r="DZ27"/>
-      <c r="EA27"/>
-      <c r="EB27"/>
-      <c r="EC27"/>
-      <c r="ED27"/>
-      <c r="EE27"/>
-      <c r="EF27"/>
-      <c r="EG27"/>
-      <c r="EH27"/>
-      <c r="EI27"/>
-      <c r="EJ27"/>
-      <c r="EK27"/>
-      <c r="EL27"/>
-      <c r="EM27"/>
-      <c r="EN27"/>
-      <c r="EO27"/>
-      <c r="EP27"/>
-      <c r="EQ27"/>
-      <c r="ER27"/>
-      <c r="ES27"/>
-      <c r="ET27"/>
-      <c r="EU27"/>
-      <c r="EV27"/>
-      <c r="EW27"/>
-      <c r="EX27"/>
-      <c r="EY27"/>
-      <c r="EZ27"/>
-      <c r="FA27"/>
-      <c r="FB27"/>
-      <c r="FC27"/>
-      <c r="FD27"/>
-      <c r="FE27"/>
-      <c r="FF27"/>
-      <c r="FG27"/>
-      <c r="FH27"/>
-      <c r="FI27"/>
-      <c r="FJ27"/>
-      <c r="FK27"/>
-      <c r="FL27"/>
-      <c r="FM27"/>
-      <c r="FN27"/>
-      <c r="FO27"/>
-      <c r="FP27"/>
-      <c r="FQ27"/>
-      <c r="FR27"/>
-      <c r="FS27"/>
-      <c r="FT27"/>
-      <c r="FU27"/>
-      <c r="FV27"/>
-      <c r="FW27"/>
-      <c r="FX27"/>
-      <c r="FY27"/>
-      <c r="FZ27"/>
-      <c r="GA27"/>
-      <c r="GB27"/>
-      <c r="GC27"/>
-      <c r="GD27"/>
-      <c r="GE27"/>
-      <c r="GF27"/>
-      <c r="GG27"/>
-      <c r="GH27"/>
-      <c r="GI27"/>
-      <c r="GJ27"/>
-      <c r="GK27"/>
-      <c r="GL27"/>
-      <c r="GM27"/>
-      <c r="GN27"/>
-      <c r="GO27"/>
-      <c r="GP27"/>
-      <c r="GQ27"/>
-      <c r="GR27"/>
-      <c r="GS27"/>
-      <c r="GT27"/>
-      <c r="GU27"/>
-      <c r="GV27"/>
-      <c r="GW27"/>
-      <c r="GX27"/>
-      <c r="GY27"/>
-      <c r="GZ27"/>
-      <c r="HA27"/>
-      <c r="HB27"/>
-      <c r="HC27"/>
-      <c r="HD27"/>
-      <c r="HE27"/>
-      <c r="HF27"/>
-      <c r="HG27"/>
-      <c r="HH27"/>
-      <c r="HI27"/>
-      <c r="HJ27"/>
-      <c r="HK27"/>
-      <c r="HL27"/>
-      <c r="HM27"/>
-      <c r="HN27"/>
-      <c r="HO27"/>
-      <c r="HP27"/>
-      <c r="HQ27"/>
-      <c r="HR27"/>
-      <c r="HS27"/>
-      <c r="HT27"/>
-      <c r="HU27"/>
-      <c r="HV27"/>
-      <c r="HW27"/>
-      <c r="HX27"/>
-      <c r="HY27"/>
-      <c r="HZ27"/>
-      <c r="IA27"/>
-      <c r="IB27"/>
-      <c r="IC27"/>
-      <c r="ID27"/>
-      <c r="IE27"/>
-      <c r="IF27"/>
-      <c r="IG27"/>
-      <c r="IH27"/>
-      <c r="II27"/>
-      <c r="IJ27"/>
-      <c r="IK27"/>
-      <c r="IL27"/>
-      <c r="IM27"/>
-      <c r="IN27"/>
-      <c r="IO27"/>
-      <c r="IP27"/>
-      <c r="IQ27"/>
-      <c r="IR27"/>
-      <c r="IS27"/>
-      <c r="IT27"/>
-      <c r="IU27"/>
-      <c r="IV27"/>
-      <c r="IW27"/>
-      <c r="IX27"/>
-      <c r="IY27"/>
-      <c r="IZ27"/>
-      <c r="JA27"/>
-      <c r="JB27"/>
-      <c r="JC27"/>
-      <c r="JD27"/>
-      <c r="JE27"/>
-      <c r="JF27"/>
-      <c r="JG27"/>
-      <c r="JH27"/>
-      <c r="JI27"/>
-      <c r="JJ27"/>
-      <c r="JK27"/>
-      <c r="JL27"/>
-      <c r="JM27"/>
-      <c r="JN27"/>
-      <c r="JO27"/>
-      <c r="JP27"/>
-      <c r="JQ27"/>
-      <c r="JR27"/>
-      <c r="JS27"/>
-      <c r="JT27"/>
-      <c r="JU27"/>
-      <c r="JV27"/>
-      <c r="JW27"/>
-      <c r="JX27"/>
-      <c r="JY27"/>
-      <c r="JZ27"/>
-      <c r="KA27"/>
-      <c r="KB27"/>
-      <c r="KC27"/>
-      <c r="KD27"/>
-      <c r="KE27"/>
-      <c r="KF27"/>
-      <c r="KG27"/>
-      <c r="KH27"/>
-      <c r="KI27"/>
-      <c r="KJ27"/>
-      <c r="KK27"/>
-      <c r="KL27"/>
-      <c r="KM27"/>
-      <c r="KN27"/>
-      <c r="KO27"/>
-      <c r="KP27"/>
-      <c r="KQ27"/>
-      <c r="KR27"/>
-      <c r="KS27"/>
-      <c r="KT27"/>
-      <c r="KU27"/>
-      <c r="KV27"/>
-      <c r="KW27"/>
-      <c r="KX27"/>
-      <c r="KY27"/>
-      <c r="KZ27"/>
-      <c r="LA27"/>
-      <c r="LB27"/>
-      <c r="LC27"/>
-      <c r="LD27"/>
-      <c r="LE27"/>
-      <c r="LF27"/>
-      <c r="LG27"/>
-      <c r="LH27"/>
-      <c r="LI27"/>
-      <c r="LJ27"/>
-      <c r="LK27"/>
-      <c r="LL27"/>
-      <c r="LM27"/>
-      <c r="LN27"/>
-      <c r="LO27"/>
-      <c r="LP27"/>
-      <c r="LQ27"/>
-      <c r="LR27"/>
-      <c r="LS27"/>
-      <c r="LT27"/>
-      <c r="LU27"/>
-      <c r="LV27"/>
-      <c r="LW27"/>
-      <c r="LX27"/>
-      <c r="LY27"/>
-      <c r="LZ27"/>
-      <c r="MA27"/>
-      <c r="MB27"/>
-      <c r="MC27"/>
-      <c r="MD27"/>
-      <c r="ME27"/>
-      <c r="MF27"/>
-      <c r="MG27"/>
-      <c r="MH27"/>
-      <c r="MI27"/>
-      <c r="MJ27"/>
-      <c r="MK27"/>
-      <c r="ML27"/>
-      <c r="MM27"/>
-      <c r="MN27"/>
-      <c r="MO27"/>
-      <c r="MP27"/>
-      <c r="MQ27"/>
-      <c r="MR27"/>
-      <c r="MS27"/>
-      <c r="MT27"/>
-      <c r="MU27"/>
-      <c r="MV27"/>
-      <c r="MW27"/>
-      <c r="MX27"/>
-      <c r="MY27"/>
-      <c r="MZ27"/>
-      <c r="NA27"/>
-      <c r="NB27"/>
-      <c r="NC27"/>
-      <c r="ND27"/>
-      <c r="NE27"/>
-      <c r="NF27"/>
-      <c r="NG27"/>
-      <c r="NH27"/>
-      <c r="NI27"/>
-      <c r="NJ27"/>
-      <c r="NK27"/>
-      <c r="NL27"/>
-      <c r="NM27"/>
-      <c r="NN27"/>
-      <c r="NO27"/>
-      <c r="NP27"/>
-      <c r="NQ27"/>
-      <c r="NR27"/>
-      <c r="NS27"/>
-      <c r="NT27"/>
-      <c r="NU27"/>
-      <c r="NV27"/>
-      <c r="NW27"/>
-      <c r="NX27"/>
-      <c r="NY27"/>
-      <c r="NZ27"/>
-      <c r="OA27"/>
-      <c r="OB27"/>
-      <c r="OC27"/>
-      <c r="OD27"/>
-      <c r="OE27"/>
-      <c r="OF27"/>
-      <c r="OG27"/>
-      <c r="OH27"/>
-      <c r="OI27"/>
-      <c r="OJ27"/>
-      <c r="OK27"/>
-      <c r="OL27"/>
-      <c r="OM27"/>
-      <c r="ON27"/>
-      <c r="OO27"/>
-      <c r="OP27"/>
-      <c r="OQ27"/>
-      <c r="OR27"/>
-      <c r="OS27"/>
-      <c r="OT27"/>
-      <c r="OU27"/>
-      <c r="OV27"/>
-      <c r="OW27"/>
-      <c r="OX27"/>
-      <c r="OY27"/>
-      <c r="OZ27"/>
-      <c r="PA27"/>
-      <c r="PB27"/>
-      <c r="PC27"/>
-      <c r="PD27"/>
-      <c r="PE27"/>
-      <c r="PF27"/>
-      <c r="PG27"/>
-      <c r="PH27"/>
-      <c r="PI27"/>
-      <c r="PJ27"/>
-      <c r="PK27"/>
-      <c r="PL27"/>
-      <c r="PM27"/>
-      <c r="PN27"/>
-      <c r="PO27"/>
-      <c r="PP27"/>
-      <c r="PQ27"/>
-      <c r="PR27"/>
-      <c r="PS27"/>
-      <c r="PT27"/>
-      <c r="PU27"/>
-      <c r="PV27"/>
-      <c r="PW27"/>
-      <c r="PX27"/>
-      <c r="PY27"/>
-      <c r="PZ27"/>
-      <c r="QA27"/>
-      <c r="QB27"/>
-      <c r="QC27"/>
-      <c r="QD27"/>
-      <c r="QE27"/>
-      <c r="QF27"/>
-      <c r="QG27"/>
-      <c r="QH27"/>
-      <c r="QI27"/>
-      <c r="QJ27"/>
-      <c r="QK27"/>
-      <c r="QL27"/>
-      <c r="QM27"/>
-      <c r="QN27"/>
-      <c r="QO27"/>
-      <c r="QP27"/>
-      <c r="QQ27"/>
-      <c r="QR27"/>
-      <c r="QS27"/>
-      <c r="QT27"/>
-      <c r="QU27"/>
-      <c r="QV27"/>
-      <c r="QW27"/>
-      <c r="QX27"/>
-      <c r="QY27"/>
-      <c r="QZ27"/>
-      <c r="RA27"/>
-      <c r="RB27"/>
-      <c r="RC27"/>
-      <c r="RD27"/>
-      <c r="RE27"/>
-      <c r="RF27"/>
-      <c r="RG27"/>
-      <c r="RH27"/>
-      <c r="RI27"/>
-      <c r="RJ27"/>
-      <c r="RK27"/>
-      <c r="RL27"/>
-      <c r="RM27"/>
-      <c r="RN27"/>
-      <c r="RO27"/>
-      <c r="RP27"/>
-      <c r="RQ27"/>
-      <c r="RR27"/>
-      <c r="RS27"/>
-      <c r="RT27"/>
-      <c r="RU27"/>
-      <c r="RV27"/>
-      <c r="RW27"/>
-      <c r="RX27"/>
-      <c r="RY27"/>
-      <c r="RZ27"/>
-      <c r="SA27"/>
-      <c r="SB27"/>
-      <c r="SC27"/>
-      <c r="SD27"/>
-      <c r="SE27"/>
-      <c r="SF27"/>
-      <c r="SG27"/>
-      <c r="SH27"/>
-      <c r="SI27"/>
-      <c r="SJ27"/>
-      <c r="SK27"/>
-      <c r="SL27"/>
-      <c r="SM27"/>
-      <c r="SN27"/>
-      <c r="SO27"/>
-      <c r="SP27"/>
-      <c r="SQ27"/>
-      <c r="SR27"/>
-      <c r="SS27"/>
-      <c r="ST27"/>
-      <c r="SU27"/>
-      <c r="SV27"/>
-      <c r="SW27"/>
-      <c r="SX27"/>
-      <c r="SY27"/>
-      <c r="SZ27"/>
-      <c r="TA27"/>
-      <c r="TB27"/>
-      <c r="TC27"/>
-      <c r="TD27"/>
-      <c r="TE27"/>
-      <c r="TF27"/>
-      <c r="TG27"/>
-      <c r="TH27"/>
-      <c r="TI27"/>
-      <c r="TJ27"/>
-      <c r="TK27"/>
-      <c r="TL27"/>
-      <c r="TM27"/>
-      <c r="TN27"/>
-      <c r="TO27"/>
-      <c r="TP27"/>
-      <c r="TQ27"/>
-      <c r="TR27"/>
-      <c r="TS27"/>
-      <c r="TT27"/>
-      <c r="TU27"/>
-      <c r="TV27"/>
-      <c r="TW27"/>
-      <c r="TX27"/>
-      <c r="TY27"/>
-      <c r="TZ27"/>
-      <c r="UA27"/>
-      <c r="UB27"/>
-      <c r="UC27"/>
-      <c r="UD27"/>
-      <c r="UE27"/>
-      <c r="UF27"/>
-      <c r="UG27"/>
-      <c r="UH27"/>
-      <c r="UI27"/>
-      <c r="UJ27"/>
-      <c r="UK27"/>
-      <c r="UL27"/>
-      <c r="UM27"/>
-      <c r="UN27"/>
-      <c r="UO27"/>
-      <c r="UP27"/>
-      <c r="UQ27"/>
-      <c r="UR27"/>
-      <c r="US27"/>
-      <c r="UT27"/>
-      <c r="UU27"/>
-      <c r="UV27"/>
-      <c r="UW27"/>
-      <c r="UX27"/>
-      <c r="UY27"/>
-      <c r="UZ27"/>
-      <c r="VA27"/>
-      <c r="VB27"/>
-      <c r="VC27"/>
-      <c r="VD27"/>
-      <c r="VE27"/>
-      <c r="VF27"/>
-      <c r="VG27"/>
-      <c r="VH27"/>
-      <c r="VI27"/>
-      <c r="VJ27"/>
-      <c r="VK27"/>
-      <c r="VL27"/>
-      <c r="VM27"/>
-      <c r="VN27"/>
-      <c r="VO27"/>
-      <c r="VP27"/>
-      <c r="VQ27"/>
-      <c r="VR27"/>
-      <c r="VS27"/>
-      <c r="VT27"/>
-      <c r="VU27"/>
-      <c r="VV27"/>
-      <c r="VW27"/>
-      <c r="VX27"/>
-      <c r="VY27"/>
-      <c r="VZ27"/>
-      <c r="WA27"/>
-      <c r="WB27"/>
-      <c r="WC27"/>
-      <c r="WD27"/>
-      <c r="WE27"/>
-      <c r="WF27"/>
-      <c r="WG27"/>
-      <c r="WH27"/>
-      <c r="WI27"/>
-      <c r="WJ27"/>
-      <c r="WK27"/>
-      <c r="WL27"/>
-      <c r="WM27"/>
-      <c r="WN27"/>
-      <c r="WO27"/>
-      <c r="WP27"/>
-      <c r="WQ27"/>
-      <c r="WR27"/>
-      <c r="WS27"/>
-      <c r="WT27"/>
-      <c r="WU27"/>
-      <c r="WV27"/>
-      <c r="WW27"/>
-      <c r="WX27"/>
-      <c r="WY27"/>
-      <c r="WZ27"/>
-      <c r="XA27"/>
-      <c r="XB27"/>
-      <c r="XC27"/>
-      <c r="XD27"/>
-      <c r="XE27"/>
-      <c r="XF27"/>
-      <c r="XG27"/>
-      <c r="XH27"/>
-      <c r="XI27"/>
-      <c r="XJ27"/>
-      <c r="XK27"/>
-      <c r="XL27"/>
-      <c r="XM27"/>
-      <c r="XN27"/>
-      <c r="XO27"/>
-      <c r="XP27"/>
-      <c r="XQ27"/>
-      <c r="XR27"/>
-      <c r="XS27"/>
-      <c r="XT27"/>
-      <c r="XU27"/>
-      <c r="XV27"/>
-      <c r="XW27"/>
-      <c r="XX27"/>
-      <c r="XY27"/>
-      <c r="XZ27"/>
-      <c r="YA27"/>
-      <c r="YB27"/>
-      <c r="YC27"/>
-      <c r="YD27"/>
-      <c r="YE27"/>
-      <c r="YF27"/>
-      <c r="YG27"/>
-      <c r="YH27"/>
-      <c r="YI27"/>
-      <c r="YJ27"/>
-      <c r="YK27"/>
-      <c r="YL27"/>
-      <c r="YM27"/>
-      <c r="YN27"/>
-      <c r="YO27"/>
-      <c r="YP27"/>
-      <c r="YQ27"/>
-      <c r="YR27"/>
-      <c r="YS27"/>
-      <c r="YT27"/>
-      <c r="YU27"/>
-      <c r="YV27"/>
-      <c r="YW27"/>
-      <c r="YX27"/>
-      <c r="YY27"/>
-      <c r="YZ27"/>
-      <c r="ZA27"/>
-      <c r="ZB27"/>
-      <c r="ZC27"/>
-      <c r="ZD27"/>
-      <c r="ZE27"/>
-      <c r="ZF27"/>
-      <c r="ZG27"/>
-      <c r="ZH27"/>
-      <c r="ZI27"/>
-      <c r="ZJ27"/>
-      <c r="ZK27"/>
-      <c r="ZL27"/>
-      <c r="ZM27"/>
-      <c r="ZN27"/>
-      <c r="ZO27"/>
-      <c r="ZP27"/>
-      <c r="ZQ27"/>
-      <c r="ZR27"/>
-      <c r="ZS27"/>
-      <c r="ZT27"/>
-      <c r="ZU27"/>
-      <c r="ZV27"/>
-      <c r="ZW27"/>
-      <c r="ZX27"/>
-      <c r="ZY27"/>
-      <c r="ZZ27"/>
-      <c r="AAA27"/>
-      <c r="AAB27"/>
-      <c r="AAC27"/>
-      <c r="AAD27"/>
-      <c r="AAE27"/>
-      <c r="AAF27"/>
-      <c r="AAG27"/>
-      <c r="AAH27"/>
-      <c r="AAI27"/>
-      <c r="AAJ27"/>
-      <c r="AAK27"/>
-      <c r="AAL27"/>
-      <c r="AAM27"/>
-      <c r="AAN27"/>
-      <c r="AAO27"/>
-      <c r="AAP27"/>
-      <c r="AAQ27"/>
-      <c r="AAR27"/>
-      <c r="AAS27"/>
-      <c r="AAT27"/>
-      <c r="AAU27"/>
-      <c r="AAV27"/>
-      <c r="AAW27"/>
-      <c r="AAX27"/>
-      <c r="AAY27"/>
-      <c r="AAZ27"/>
-      <c r="ABA27"/>
-      <c r="ABB27"/>
-      <c r="ABC27"/>
-      <c r="ABD27"/>
-      <c r="ABE27"/>
-      <c r="ABF27"/>
-      <c r="ABG27"/>
-      <c r="ABH27"/>
-      <c r="ABI27"/>
-      <c r="ABJ27"/>
-      <c r="ABK27"/>
-      <c r="ABL27"/>
-      <c r="ABM27"/>
-      <c r="ABN27"/>
-      <c r="ABO27"/>
-      <c r="ABP27"/>
-      <c r="ABQ27"/>
-      <c r="ABR27"/>
-      <c r="ABS27"/>
-      <c r="ABT27"/>
-      <c r="ABU27"/>
-      <c r="ABV27"/>
-      <c r="ABW27"/>
-      <c r="ABX27"/>
-      <c r="ABY27"/>
-      <c r="ABZ27"/>
-      <c r="ACA27"/>
-      <c r="ACB27"/>
-      <c r="ACC27"/>
-      <c r="ACD27"/>
-      <c r="ACE27"/>
-      <c r="ACF27"/>
-      <c r="ACG27"/>
-      <c r="ACH27"/>
-      <c r="ACI27"/>
-      <c r="ACJ27"/>
-      <c r="ACK27"/>
-      <c r="ACL27"/>
-      <c r="ACM27"/>
-      <c r="ACN27"/>
-      <c r="ACO27"/>
-      <c r="ACP27"/>
-      <c r="ACQ27"/>
-      <c r="ACR27"/>
-      <c r="ACS27"/>
-      <c r="ACT27"/>
-      <c r="ACU27"/>
-      <c r="ACV27"/>
-      <c r="ACW27"/>
-      <c r="ACX27"/>
-      <c r="ACY27"/>
-      <c r="ACZ27"/>
-      <c r="ADA27"/>
-      <c r="ADB27"/>
-      <c r="ADC27"/>
-      <c r="ADD27"/>
-      <c r="ADE27"/>
-      <c r="ADF27"/>
-      <c r="ADG27"/>
-      <c r="ADH27"/>
-      <c r="ADI27"/>
-      <c r="ADJ27"/>
-      <c r="ADK27"/>
-      <c r="ADL27"/>
-      <c r="ADM27"/>
-      <c r="ADN27"/>
-      <c r="ADO27"/>
-      <c r="ADP27"/>
-      <c r="ADQ27"/>
-      <c r="ADR27"/>
-      <c r="ADS27"/>
-      <c r="ADT27"/>
-      <c r="ADU27"/>
-      <c r="ADV27"/>
-      <c r="ADW27"/>
-      <c r="ADX27"/>
-      <c r="ADY27"/>
-      <c r="ADZ27"/>
-      <c r="AEA27"/>
-      <c r="AEB27"/>
-      <c r="AEC27"/>
-      <c r="AED27"/>
-      <c r="AEE27"/>
-      <c r="AEF27"/>
-      <c r="AEG27"/>
-      <c r="AEH27"/>
-      <c r="AEI27"/>
-      <c r="AEJ27"/>
-      <c r="AEK27"/>
-      <c r="AEL27"/>
-      <c r="AEM27"/>
-      <c r="AEN27"/>
-      <c r="AEO27"/>
-      <c r="AEP27"/>
-      <c r="AEQ27"/>
-      <c r="AER27"/>
-      <c r="AES27"/>
-      <c r="AET27"/>
-      <c r="AEU27"/>
-      <c r="AEV27"/>
-      <c r="AEW27"/>
-      <c r="AEX27"/>
-      <c r="AEY27"/>
-      <c r="AEZ27"/>
-      <c r="AFA27"/>
-      <c r="AFB27"/>
-      <c r="AFC27"/>
-      <c r="AFD27"/>
-      <c r="AFE27"/>
-      <c r="AFF27"/>
-      <c r="AFG27"/>
-      <c r="AFH27"/>
-      <c r="AFI27"/>
-      <c r="AFJ27"/>
-      <c r="AFK27"/>
-      <c r="AFL27"/>
-      <c r="AFM27"/>
-      <c r="AFN27"/>
-      <c r="AFO27"/>
-      <c r="AFP27"/>
-      <c r="AFQ27"/>
-      <c r="AFR27"/>
-      <c r="AFS27"/>
-      <c r="AFT27"/>
-      <c r="AFU27"/>
-      <c r="AFV27"/>
-      <c r="AFW27"/>
-      <c r="AFX27"/>
-      <c r="AFY27"/>
-      <c r="AFZ27"/>
-      <c r="AGA27"/>
-      <c r="AGB27"/>
-      <c r="AGC27"/>
-      <c r="AGD27"/>
-      <c r="AGE27"/>
-      <c r="AGF27"/>
-      <c r="AGG27"/>
-      <c r="AGH27"/>
-      <c r="AGI27"/>
-      <c r="AGJ27"/>
-      <c r="AGK27"/>
-      <c r="AGL27"/>
-      <c r="AGM27"/>
-      <c r="AGN27"/>
-      <c r="AGO27"/>
-      <c r="AGP27"/>
-      <c r="AGQ27"/>
-      <c r="AGR27"/>
-      <c r="AGS27"/>
-      <c r="AGT27"/>
-      <c r="AGU27"/>
-      <c r="AGV27"/>
-      <c r="AGW27"/>
-      <c r="AGX27"/>
-      <c r="AGY27"/>
-      <c r="AGZ27"/>
-      <c r="AHA27"/>
-      <c r="AHB27"/>
-      <c r="AHC27"/>
-      <c r="AHD27"/>
-      <c r="AHE27"/>
-      <c r="AHF27"/>
-      <c r="AHG27"/>
-      <c r="AHH27"/>
-      <c r="AHI27"/>
-      <c r="AHJ27"/>
-      <c r="AHK27"/>
-      <c r="AHL27"/>
-      <c r="AHM27"/>
-      <c r="AHN27"/>
-      <c r="AHO27"/>
-      <c r="AHP27"/>
-      <c r="AHQ27"/>
-      <c r="AHR27"/>
-      <c r="AHS27"/>
-      <c r="AHT27"/>
-      <c r="AHU27"/>
-      <c r="AHV27"/>
-      <c r="AHW27"/>
-      <c r="AHX27"/>
-      <c r="AHY27"/>
-      <c r="AHZ27"/>
-      <c r="AIA27"/>
-      <c r="AIB27"/>
-      <c r="AIC27"/>
-      <c r="AID27"/>
-      <c r="AIE27"/>
-      <c r="AIF27"/>
-      <c r="AIG27"/>
-      <c r="AIH27"/>
-      <c r="AII27"/>
-      <c r="AIJ27"/>
-      <c r="AIK27"/>
-      <c r="AIL27"/>
-      <c r="AIM27"/>
-      <c r="AIN27"/>
-      <c r="AIO27"/>
-      <c r="AIP27"/>
-      <c r="AIQ27"/>
-      <c r="AIR27"/>
-      <c r="AIS27"/>
-      <c r="AIT27"/>
-      <c r="AIU27"/>
-      <c r="AIV27"/>
-      <c r="AIW27"/>
-      <c r="AIX27"/>
-      <c r="AIY27"/>
-      <c r="AIZ27"/>
-      <c r="AJA27"/>
-      <c r="AJB27"/>
-      <c r="AJC27"/>
-      <c r="AJD27"/>
-      <c r="AJE27"/>
-      <c r="AJF27"/>
-      <c r="AJG27"/>
-      <c r="AJH27"/>
-      <c r="AJI27"/>
-      <c r="AJJ27"/>
-      <c r="AJK27"/>
-      <c r="AJL27"/>
-      <c r="AJM27"/>
-      <c r="AJN27"/>
-      <c r="AJO27"/>
-      <c r="AJP27"/>
-      <c r="AJQ27"/>
-      <c r="AJR27"/>
-      <c r="AJS27"/>
-      <c r="AJT27"/>
-      <c r="AJU27"/>
-      <c r="AJV27"/>
-      <c r="AJW27"/>
-      <c r="AJX27"/>
-      <c r="AJY27"/>
-      <c r="AJZ27"/>
-      <c r="AKA27"/>
-      <c r="AKB27"/>
-      <c r="AKC27"/>
-      <c r="AKD27"/>
-      <c r="AKE27"/>
-      <c r="AKF27"/>
-      <c r="AKG27"/>
-      <c r="AKH27"/>
-      <c r="AKI27"/>
-      <c r="AKJ27"/>
-      <c r="AKK27"/>
-      <c r="AKL27"/>
-      <c r="AKM27"/>
-      <c r="AKN27"/>
-      <c r="AKO27"/>
-      <c r="AKP27"/>
-      <c r="AKQ27"/>
-      <c r="AKR27"/>
-      <c r="AKS27"/>
-      <c r="AKT27"/>
-      <c r="AKU27"/>
-      <c r="AKV27"/>
-      <c r="AKW27"/>
-      <c r="AKX27"/>
-      <c r="AKY27"/>
-      <c r="AKZ27"/>
-      <c r="ALA27"/>
-      <c r="ALB27"/>
-      <c r="ALC27"/>
-      <c r="ALD27"/>
-      <c r="ALE27"/>
-      <c r="ALF27"/>
-      <c r="ALG27"/>
-      <c r="ALH27"/>
-      <c r="ALI27"/>
-      <c r="ALJ27"/>
-      <c r="ALK27"/>
-      <c r="ALL27"/>
-      <c r="ALM27"/>
-      <c r="ALN27"/>
-      <c r="ALO27"/>
-      <c r="ALP27"/>
-      <c r="ALQ27"/>
-      <c r="ALR27"/>
-      <c r="ALS27"/>
-      <c r="ALT27"/>
-      <c r="ALU27"/>
-      <c r="ALV27"/>
-      <c r="ALW27"/>
-      <c r="ALX27"/>
-      <c r="ALY27"/>
-      <c r="ALZ27"/>
-      <c r="AMA27"/>
-      <c r="AMB27"/>
-      <c r="AMC27"/>
-      <c r="AMD27"/>
-      <c r="AME27"/>
-      <c r="AMF27"/>
-      <c r="AMG27"/>
-      <c r="AMH27"/>
-      <c r="AMI27"/>
-      <c r="AMJ27"/>
+    <row r="29" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="B29" s="101"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
     </row>
-    <row r="28" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="109"/>
-      <c r="B28" s="109"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
-      <c r="Z28"/>
-      <c r="AA28"/>
-      <c r="AB28"/>
-      <c r="AC28"/>
-      <c r="AD28"/>
-      <c r="AE28"/>
-      <c r="AF28"/>
-      <c r="AG28"/>
-      <c r="AH28"/>
-      <c r="AI28"/>
-      <c r="AJ28"/>
-      <c r="AK28"/>
-      <c r="AL28"/>
-      <c r="AM28"/>
-      <c r="AN28"/>
-      <c r="AO28"/>
-      <c r="AP28"/>
-      <c r="AQ28"/>
-      <c r="AR28"/>
-      <c r="AS28"/>
-      <c r="AT28"/>
-      <c r="AU28"/>
-      <c r="AV28"/>
-      <c r="AW28"/>
-      <c r="AX28"/>
-      <c r="AY28"/>
-      <c r="AZ28"/>
-      <c r="BA28"/>
-      <c r="BB28"/>
-      <c r="BC28"/>
-      <c r="BD28"/>
-      <c r="BE28"/>
-      <c r="BF28"/>
-      <c r="BG28"/>
-      <c r="BH28"/>
-      <c r="BI28"/>
-      <c r="BJ28"/>
-      <c r="BK28"/>
-      <c r="BL28"/>
-      <c r="BM28"/>
-      <c r="BN28"/>
-      <c r="BO28"/>
-      <c r="BP28"/>
-      <c r="BQ28"/>
-      <c r="BR28"/>
-      <c r="BS28"/>
-      <c r="BT28"/>
-      <c r="BU28"/>
-      <c r="BV28"/>
-      <c r="BW28"/>
-      <c r="BX28"/>
-      <c r="BY28"/>
-      <c r="BZ28"/>
-      <c r="CA28"/>
-      <c r="CB28"/>
-      <c r="CC28"/>
-      <c r="CD28"/>
-      <c r="CE28"/>
-      <c r="CF28"/>
-      <c r="CG28"/>
-      <c r="CH28"/>
-      <c r="CI28"/>
-      <c r="CJ28"/>
-      <c r="CK28"/>
-      <c r="CL28"/>
-      <c r="CM28"/>
-      <c r="CN28"/>
-      <c r="CO28"/>
-      <c r="CP28"/>
-      <c r="CQ28"/>
-      <c r="CR28"/>
-      <c r="CS28"/>
-      <c r="CT28"/>
-      <c r="CU28"/>
-      <c r="CV28"/>
-      <c r="CW28"/>
-      <c r="CX28"/>
-      <c r="CY28"/>
-      <c r="CZ28"/>
-      <c r="DA28"/>
-      <c r="DB28"/>
-      <c r="DC28"/>
-      <c r="DD28"/>
-      <c r="DE28"/>
-      <c r="DF28"/>
-      <c r="DG28"/>
-      <c r="DH28"/>
-      <c r="DI28"/>
-      <c r="DJ28"/>
-      <c r="DK28"/>
-      <c r="DL28"/>
-      <c r="DM28"/>
-      <c r="DN28"/>
-      <c r="DO28"/>
-      <c r="DP28"/>
-      <c r="DQ28"/>
-      <c r="DR28"/>
-      <c r="DS28"/>
-      <c r="DT28"/>
-      <c r="DU28"/>
-      <c r="DV28"/>
-      <c r="DW28"/>
-      <c r="DX28"/>
-      <c r="DY28"/>
-      <c r="DZ28"/>
-      <c r="EA28"/>
-      <c r="EB28"/>
-      <c r="EC28"/>
-      <c r="ED28"/>
-      <c r="EE28"/>
-      <c r="EF28"/>
-      <c r="EG28"/>
-      <c r="EH28"/>
-      <c r="EI28"/>
-      <c r="EJ28"/>
-      <c r="EK28"/>
-      <c r="EL28"/>
-      <c r="EM28"/>
-      <c r="EN28"/>
-      <c r="EO28"/>
-      <c r="EP28"/>
-      <c r="EQ28"/>
-      <c r="ER28"/>
-      <c r="ES28"/>
-      <c r="ET28"/>
-      <c r="EU28"/>
-      <c r="EV28"/>
-      <c r="EW28"/>
-      <c r="EX28"/>
-      <c r="EY28"/>
-      <c r="EZ28"/>
-      <c r="FA28"/>
-      <c r="FB28"/>
-      <c r="FC28"/>
-      <c r="FD28"/>
-      <c r="FE28"/>
-      <c r="FF28"/>
-      <c r="FG28"/>
-      <c r="FH28"/>
-      <c r="FI28"/>
-      <c r="FJ28"/>
-      <c r="FK28"/>
-      <c r="FL28"/>
-      <c r="FM28"/>
-      <c r="FN28"/>
-      <c r="FO28"/>
-      <c r="FP28"/>
-      <c r="FQ28"/>
-      <c r="FR28"/>
-      <c r="FS28"/>
-      <c r="FT28"/>
-      <c r="FU28"/>
-      <c r="FV28"/>
-      <c r="FW28"/>
-      <c r="FX28"/>
-      <c r="FY28"/>
-      <c r="FZ28"/>
-      <c r="GA28"/>
-      <c r="GB28"/>
-      <c r="GC28"/>
-      <c r="GD28"/>
-      <c r="GE28"/>
-      <c r="GF28"/>
-      <c r="GG28"/>
-      <c r="GH28"/>
-      <c r="GI28"/>
-      <c r="GJ28"/>
-      <c r="GK28"/>
-      <c r="GL28"/>
-      <c r="GM28"/>
-      <c r="GN28"/>
-      <c r="GO28"/>
-      <c r="GP28"/>
-      <c r="GQ28"/>
-      <c r="GR28"/>
-      <c r="GS28"/>
-      <c r="GT28"/>
-      <c r="GU28"/>
-      <c r="GV28"/>
-      <c r="GW28"/>
-      <c r="GX28"/>
-      <c r="GY28"/>
-      <c r="GZ28"/>
-      <c r="HA28"/>
-      <c r="HB28"/>
-      <c r="HC28"/>
-      <c r="HD28"/>
-      <c r="HE28"/>
-      <c r="HF28"/>
-      <c r="HG28"/>
-      <c r="HH28"/>
-      <c r="HI28"/>
-      <c r="HJ28"/>
-      <c r="HK28"/>
-      <c r="HL28"/>
-      <c r="HM28"/>
-      <c r="HN28"/>
-      <c r="HO28"/>
-      <c r="HP28"/>
-      <c r="HQ28"/>
-      <c r="HR28"/>
-      <c r="HS28"/>
-      <c r="HT28"/>
-      <c r="HU28"/>
-      <c r="HV28"/>
-      <c r="HW28"/>
-      <c r="HX28"/>
-      <c r="HY28"/>
-      <c r="HZ28"/>
-      <c r="IA28"/>
-      <c r="IB28"/>
-      <c r="IC28"/>
-      <c r="ID28"/>
-      <c r="IE28"/>
-      <c r="IF28"/>
-      <c r="IG28"/>
-      <c r="IH28"/>
-      <c r="II28"/>
-      <c r="IJ28"/>
-      <c r="IK28"/>
-      <c r="IL28"/>
-      <c r="IM28"/>
-      <c r="IN28"/>
-      <c r="IO28"/>
-      <c r="IP28"/>
-      <c r="IQ28"/>
-      <c r="IR28"/>
-      <c r="IS28"/>
-      <c r="IT28"/>
-      <c r="IU28"/>
-      <c r="IV28"/>
-      <c r="IW28"/>
-      <c r="IX28"/>
-      <c r="IY28"/>
-      <c r="IZ28"/>
-      <c r="JA28"/>
-      <c r="JB28"/>
-      <c r="JC28"/>
-      <c r="JD28"/>
-      <c r="JE28"/>
-      <c r="JF28"/>
-      <c r="JG28"/>
-      <c r="JH28"/>
-      <c r="JI28"/>
-      <c r="JJ28"/>
-      <c r="JK28"/>
-      <c r="JL28"/>
-      <c r="JM28"/>
-      <c r="JN28"/>
-      <c r="JO28"/>
-      <c r="JP28"/>
-      <c r="JQ28"/>
-      <c r="JR28"/>
-      <c r="JS28"/>
-      <c r="JT28"/>
-      <c r="JU28"/>
-      <c r="JV28"/>
-      <c r="JW28"/>
-      <c r="JX28"/>
-      <c r="JY28"/>
-      <c r="JZ28"/>
-      <c r="KA28"/>
-      <c r="KB28"/>
-      <c r="KC28"/>
-      <c r="KD28"/>
-      <c r="KE28"/>
-      <c r="KF28"/>
-      <c r="KG28"/>
-      <c r="KH28"/>
-      <c r="KI28"/>
-      <c r="KJ28"/>
-      <c r="KK28"/>
-      <c r="KL28"/>
-      <c r="KM28"/>
-      <c r="KN28"/>
-      <c r="KO28"/>
-      <c r="KP28"/>
-      <c r="KQ28"/>
-      <c r="KR28"/>
-      <c r="KS28"/>
-      <c r="KT28"/>
-      <c r="KU28"/>
-      <c r="KV28"/>
-      <c r="KW28"/>
-      <c r="KX28"/>
-      <c r="KY28"/>
-      <c r="KZ28"/>
-      <c r="LA28"/>
-      <c r="LB28"/>
-      <c r="LC28"/>
-      <c r="LD28"/>
-      <c r="LE28"/>
-      <c r="LF28"/>
-      <c r="LG28"/>
-      <c r="LH28"/>
-      <c r="LI28"/>
-      <c r="LJ28"/>
-      <c r="LK28"/>
-      <c r="LL28"/>
-      <c r="LM28"/>
-      <c r="LN28"/>
-      <c r="LO28"/>
-      <c r="LP28"/>
-      <c r="LQ28"/>
-      <c r="LR28"/>
-      <c r="LS28"/>
-      <c r="LT28"/>
-      <c r="LU28"/>
-      <c r="LV28"/>
-      <c r="LW28"/>
-      <c r="LX28"/>
-      <c r="LY28"/>
-      <c r="LZ28"/>
-      <c r="MA28"/>
-      <c r="MB28"/>
-      <c r="MC28"/>
-      <c r="MD28"/>
-      <c r="ME28"/>
-      <c r="MF28"/>
-      <c r="MG28"/>
-      <c r="MH28"/>
-      <c r="MI28"/>
-      <c r="MJ28"/>
-      <c r="MK28"/>
-      <c r="ML28"/>
-      <c r="MM28"/>
-      <c r="MN28"/>
-      <c r="MO28"/>
-      <c r="MP28"/>
-      <c r="MQ28"/>
-      <c r="MR28"/>
-      <c r="MS28"/>
-      <c r="MT28"/>
-      <c r="MU28"/>
-      <c r="MV28"/>
-      <c r="MW28"/>
-      <c r="MX28"/>
-      <c r="MY28"/>
-      <c r="MZ28"/>
-      <c r="NA28"/>
-      <c r="NB28"/>
-      <c r="NC28"/>
-      <c r="ND28"/>
-      <c r="NE28"/>
-      <c r="NF28"/>
-      <c r="NG28"/>
-      <c r="NH28"/>
-      <c r="NI28"/>
-      <c r="NJ28"/>
-      <c r="NK28"/>
-      <c r="NL28"/>
-      <c r="NM28"/>
-      <c r="NN28"/>
-      <c r="NO28"/>
-      <c r="NP28"/>
-      <c r="NQ28"/>
-      <c r="NR28"/>
-      <c r="NS28"/>
-      <c r="NT28"/>
-      <c r="NU28"/>
-      <c r="NV28"/>
-      <c r="NW28"/>
-      <c r="NX28"/>
-      <c r="NY28"/>
-      <c r="NZ28"/>
-      <c r="OA28"/>
-      <c r="OB28"/>
-      <c r="OC28"/>
-      <c r="OD28"/>
-      <c r="OE28"/>
-      <c r="OF28"/>
-      <c r="OG28"/>
-      <c r="OH28"/>
-      <c r="OI28"/>
-      <c r="OJ28"/>
-      <c r="OK28"/>
-      <c r="OL28"/>
-      <c r="OM28"/>
-      <c r="ON28"/>
-      <c r="OO28"/>
-      <c r="OP28"/>
-      <c r="OQ28"/>
-      <c r="OR28"/>
-      <c r="OS28"/>
-      <c r="OT28"/>
-      <c r="OU28"/>
-      <c r="OV28"/>
-      <c r="OW28"/>
-      <c r="OX28"/>
-      <c r="OY28"/>
-      <c r="OZ28"/>
-      <c r="PA28"/>
-      <c r="PB28"/>
-      <c r="PC28"/>
-      <c r="PD28"/>
-      <c r="PE28"/>
-      <c r="PF28"/>
-      <c r="PG28"/>
-      <c r="PH28"/>
-      <c r="PI28"/>
-      <c r="PJ28"/>
-      <c r="PK28"/>
-      <c r="PL28"/>
-      <c r="PM28"/>
-      <c r="PN28"/>
-      <c r="PO28"/>
-      <c r="PP28"/>
-      <c r="PQ28"/>
-      <c r="PR28"/>
-      <c r="PS28"/>
-      <c r="PT28"/>
-      <c r="PU28"/>
-      <c r="PV28"/>
-      <c r="PW28"/>
-      <c r="PX28"/>
-      <c r="PY28"/>
-      <c r="PZ28"/>
-      <c r="QA28"/>
-      <c r="QB28"/>
-      <c r="QC28"/>
-      <c r="QD28"/>
-      <c r="QE28"/>
-      <c r="QF28"/>
-      <c r="QG28"/>
-      <c r="QH28"/>
-      <c r="QI28"/>
-      <c r="QJ28"/>
-      <c r="QK28"/>
-      <c r="QL28"/>
-      <c r="QM28"/>
-      <c r="QN28"/>
-      <c r="QO28"/>
-      <c r="QP28"/>
-      <c r="QQ28"/>
-      <c r="QR28"/>
-      <c r="QS28"/>
-      <c r="QT28"/>
-      <c r="QU28"/>
-      <c r="QV28"/>
-      <c r="QW28"/>
-      <c r="QX28"/>
-      <c r="QY28"/>
-      <c r="QZ28"/>
-      <c r="RA28"/>
-      <c r="RB28"/>
-      <c r="RC28"/>
-      <c r="RD28"/>
-      <c r="RE28"/>
-      <c r="RF28"/>
-      <c r="RG28"/>
-      <c r="RH28"/>
-      <c r="RI28"/>
-      <c r="RJ28"/>
-      <c r="RK28"/>
-      <c r="RL28"/>
-      <c r="RM28"/>
-      <c r="RN28"/>
-      <c r="RO28"/>
-      <c r="RP28"/>
-      <c r="RQ28"/>
-      <c r="RR28"/>
-      <c r="RS28"/>
-      <c r="RT28"/>
-      <c r="RU28"/>
-      <c r="RV28"/>
-      <c r="RW28"/>
-      <c r="RX28"/>
-      <c r="RY28"/>
-      <c r="RZ28"/>
-      <c r="SA28"/>
-      <c r="SB28"/>
-      <c r="SC28"/>
-      <c r="SD28"/>
-      <c r="SE28"/>
-      <c r="SF28"/>
-      <c r="SG28"/>
-      <c r="SH28"/>
-      <c r="SI28"/>
-      <c r="SJ28"/>
-      <c r="SK28"/>
-      <c r="SL28"/>
-      <c r="SM28"/>
-      <c r="SN28"/>
-      <c r="SO28"/>
-      <c r="SP28"/>
-      <c r="SQ28"/>
-      <c r="SR28"/>
-      <c r="SS28"/>
-      <c r="ST28"/>
-      <c r="SU28"/>
-      <c r="SV28"/>
-      <c r="SW28"/>
-      <c r="SX28"/>
-      <c r="SY28"/>
-      <c r="SZ28"/>
-      <c r="TA28"/>
-      <c r="TB28"/>
-      <c r="TC28"/>
-      <c r="TD28"/>
-      <c r="TE28"/>
-      <c r="TF28"/>
-      <c r="TG28"/>
-      <c r="TH28"/>
-      <c r="TI28"/>
-      <c r="TJ28"/>
-      <c r="TK28"/>
-      <c r="TL28"/>
-      <c r="TM28"/>
-      <c r="TN28"/>
-      <c r="TO28"/>
-      <c r="TP28"/>
-      <c r="TQ28"/>
-      <c r="TR28"/>
-      <c r="TS28"/>
-      <c r="TT28"/>
-      <c r="TU28"/>
-      <c r="TV28"/>
-      <c r="TW28"/>
-      <c r="TX28"/>
-      <c r="TY28"/>
-      <c r="TZ28"/>
-      <c r="UA28"/>
-      <c r="UB28"/>
-      <c r="UC28"/>
-      <c r="UD28"/>
-      <c r="UE28"/>
-      <c r="UF28"/>
-      <c r="UG28"/>
-      <c r="UH28"/>
-      <c r="UI28"/>
-      <c r="UJ28"/>
-      <c r="UK28"/>
-      <c r="UL28"/>
-      <c r="UM28"/>
-      <c r="UN28"/>
-      <c r="UO28"/>
-      <c r="UP28"/>
-      <c r="UQ28"/>
-      <c r="UR28"/>
-      <c r="US28"/>
-      <c r="UT28"/>
-      <c r="UU28"/>
-      <c r="UV28"/>
-      <c r="UW28"/>
-      <c r="UX28"/>
-      <c r="UY28"/>
-      <c r="UZ28"/>
-      <c r="VA28"/>
-      <c r="VB28"/>
-      <c r="VC28"/>
-      <c r="VD28"/>
-      <c r="VE28"/>
-      <c r="VF28"/>
-      <c r="VG28"/>
-      <c r="VH28"/>
-      <c r="VI28"/>
-      <c r="VJ28"/>
-      <c r="VK28"/>
-      <c r="VL28"/>
-      <c r="VM28"/>
-      <c r="VN28"/>
-      <c r="VO28"/>
-      <c r="VP28"/>
-      <c r="VQ28"/>
-      <c r="VR28"/>
-      <c r="VS28"/>
-      <c r="VT28"/>
-      <c r="VU28"/>
-      <c r="VV28"/>
-      <c r="VW28"/>
-      <c r="VX28"/>
-      <c r="VY28"/>
-      <c r="VZ28"/>
-      <c r="WA28"/>
-      <c r="WB28"/>
-      <c r="WC28"/>
-      <c r="WD28"/>
-      <c r="WE28"/>
-      <c r="WF28"/>
-      <c r="WG28"/>
-      <c r="WH28"/>
-      <c r="WI28"/>
-      <c r="WJ28"/>
-      <c r="WK28"/>
-      <c r="WL28"/>
-      <c r="WM28"/>
-      <c r="WN28"/>
-      <c r="WO28"/>
-      <c r="WP28"/>
-      <c r="WQ28"/>
-      <c r="WR28"/>
-      <c r="WS28"/>
-      <c r="WT28"/>
-      <c r="WU28"/>
-      <c r="WV28"/>
-      <c r="WW28"/>
-      <c r="WX28"/>
-      <c r="WY28"/>
-      <c r="WZ28"/>
-      <c r="XA28"/>
-      <c r="XB28"/>
-      <c r="XC28"/>
-      <c r="XD28"/>
-      <c r="XE28"/>
-      <c r="XF28"/>
-      <c r="XG28"/>
-      <c r="XH28"/>
-      <c r="XI28"/>
-      <c r="XJ28"/>
-      <c r="XK28"/>
-      <c r="XL28"/>
-      <c r="XM28"/>
-      <c r="XN28"/>
-      <c r="XO28"/>
-      <c r="XP28"/>
-      <c r="XQ28"/>
-      <c r="XR28"/>
-      <c r="XS28"/>
-      <c r="XT28"/>
-      <c r="XU28"/>
-      <c r="XV28"/>
-      <c r="XW28"/>
-      <c r="XX28"/>
-      <c r="XY28"/>
-      <c r="XZ28"/>
-      <c r="YA28"/>
-      <c r="YB28"/>
-      <c r="YC28"/>
-      <c r="YD28"/>
-      <c r="YE28"/>
-      <c r="YF28"/>
-      <c r="YG28"/>
-      <c r="YH28"/>
-      <c r="YI28"/>
-      <c r="YJ28"/>
-      <c r="YK28"/>
-      <c r="YL28"/>
-      <c r="YM28"/>
-      <c r="YN28"/>
-      <c r="YO28"/>
-      <c r="YP28"/>
-      <c r="YQ28"/>
-      <c r="YR28"/>
-      <c r="YS28"/>
-      <c r="YT28"/>
-      <c r="YU28"/>
-      <c r="YV28"/>
-      <c r="YW28"/>
-      <c r="YX28"/>
-      <c r="YY28"/>
-      <c r="YZ28"/>
-      <c r="ZA28"/>
-      <c r="ZB28"/>
-      <c r="ZC28"/>
-      <c r="ZD28"/>
-      <c r="ZE28"/>
-      <c r="ZF28"/>
-      <c r="ZG28"/>
-      <c r="ZH28"/>
-      <c r="ZI28"/>
-      <c r="ZJ28"/>
-      <c r="ZK28"/>
-      <c r="ZL28"/>
-      <c r="ZM28"/>
-      <c r="ZN28"/>
-      <c r="ZO28"/>
-      <c r="ZP28"/>
-      <c r="ZQ28"/>
-      <c r="ZR28"/>
-      <c r="ZS28"/>
-      <c r="ZT28"/>
-      <c r="ZU28"/>
-      <c r="ZV28"/>
-      <c r="ZW28"/>
-      <c r="ZX28"/>
-      <c r="ZY28"/>
-      <c r="ZZ28"/>
-      <c r="AAA28"/>
-      <c r="AAB28"/>
-      <c r="AAC28"/>
-      <c r="AAD28"/>
-      <c r="AAE28"/>
-      <c r="AAF28"/>
-      <c r="AAG28"/>
-      <c r="AAH28"/>
-      <c r="AAI28"/>
-      <c r="AAJ28"/>
-      <c r="AAK28"/>
-      <c r="AAL28"/>
-      <c r="AAM28"/>
-      <c r="AAN28"/>
-      <c r="AAO28"/>
-      <c r="AAP28"/>
-      <c r="AAQ28"/>
-      <c r="AAR28"/>
-      <c r="AAS28"/>
-      <c r="AAT28"/>
-      <c r="AAU28"/>
-      <c r="AAV28"/>
-      <c r="AAW28"/>
-      <c r="AAX28"/>
-      <c r="AAY28"/>
-      <c r="AAZ28"/>
-      <c r="ABA28"/>
-      <c r="ABB28"/>
-      <c r="ABC28"/>
-      <c r="ABD28"/>
-      <c r="ABE28"/>
-      <c r="ABF28"/>
-      <c r="ABG28"/>
-      <c r="ABH28"/>
-      <c r="ABI28"/>
-      <c r="ABJ28"/>
-      <c r="ABK28"/>
-      <c r="ABL28"/>
-      <c r="ABM28"/>
-      <c r="ABN28"/>
-      <c r="ABO28"/>
-      <c r="ABP28"/>
-      <c r="ABQ28"/>
-      <c r="ABR28"/>
-      <c r="ABS28"/>
-      <c r="ABT28"/>
-      <c r="ABU28"/>
-      <c r="ABV28"/>
-      <c r="ABW28"/>
-      <c r="ABX28"/>
-      <c r="ABY28"/>
-      <c r="ABZ28"/>
-      <c r="ACA28"/>
-      <c r="ACB28"/>
-      <c r="ACC28"/>
-      <c r="ACD28"/>
-      <c r="ACE28"/>
-      <c r="ACF28"/>
-      <c r="ACG28"/>
-      <c r="ACH28"/>
-      <c r="ACI28"/>
-      <c r="ACJ28"/>
-      <c r="ACK28"/>
-      <c r="ACL28"/>
-      <c r="ACM28"/>
-      <c r="ACN28"/>
-      <c r="ACO28"/>
-      <c r="ACP28"/>
-      <c r="ACQ28"/>
-      <c r="ACR28"/>
-      <c r="ACS28"/>
-      <c r="ACT28"/>
-      <c r="ACU28"/>
-      <c r="ACV28"/>
-      <c r="ACW28"/>
-      <c r="ACX28"/>
-      <c r="ACY28"/>
-      <c r="ACZ28"/>
-      <c r="ADA28"/>
-      <c r="ADB28"/>
-      <c r="ADC28"/>
-      <c r="ADD28"/>
-      <c r="ADE28"/>
-      <c r="ADF28"/>
-      <c r="ADG28"/>
-      <c r="ADH28"/>
-      <c r="ADI28"/>
-      <c r="ADJ28"/>
-      <c r="ADK28"/>
-      <c r="ADL28"/>
-      <c r="ADM28"/>
-      <c r="ADN28"/>
-      <c r="ADO28"/>
-      <c r="ADP28"/>
-      <c r="ADQ28"/>
-      <c r="ADR28"/>
-      <c r="ADS28"/>
-      <c r="ADT28"/>
-      <c r="ADU28"/>
-      <c r="ADV28"/>
-      <c r="ADW28"/>
-      <c r="ADX28"/>
-      <c r="ADY28"/>
-      <c r="ADZ28"/>
-      <c r="AEA28"/>
-      <c r="AEB28"/>
-      <c r="AEC28"/>
-      <c r="AED28"/>
-      <c r="AEE28"/>
-      <c r="AEF28"/>
-      <c r="AEG28"/>
-      <c r="AEH28"/>
-      <c r="AEI28"/>
-      <c r="AEJ28"/>
-      <c r="AEK28"/>
-      <c r="AEL28"/>
-      <c r="AEM28"/>
-      <c r="AEN28"/>
-      <c r="AEO28"/>
-      <c r="AEP28"/>
-      <c r="AEQ28"/>
-      <c r="AER28"/>
-      <c r="AES28"/>
-      <c r="AET28"/>
-      <c r="AEU28"/>
-      <c r="AEV28"/>
-      <c r="AEW28"/>
-      <c r="AEX28"/>
-      <c r="AEY28"/>
-      <c r="AEZ28"/>
-      <c r="AFA28"/>
-      <c r="AFB28"/>
-      <c r="AFC28"/>
-      <c r="AFD28"/>
-      <c r="AFE28"/>
-      <c r="AFF28"/>
-      <c r="AFG28"/>
-      <c r="AFH28"/>
-      <c r="AFI28"/>
-      <c r="AFJ28"/>
-      <c r="AFK28"/>
-      <c r="AFL28"/>
-      <c r="AFM28"/>
-      <c r="AFN28"/>
-      <c r="AFO28"/>
-      <c r="AFP28"/>
-      <c r="AFQ28"/>
-      <c r="AFR28"/>
-      <c r="AFS28"/>
-      <c r="AFT28"/>
-      <c r="AFU28"/>
-      <c r="AFV28"/>
-      <c r="AFW28"/>
-      <c r="AFX28"/>
-      <c r="AFY28"/>
-      <c r="AFZ28"/>
-      <c r="AGA28"/>
-      <c r="AGB28"/>
-      <c r="AGC28"/>
-      <c r="AGD28"/>
-      <c r="AGE28"/>
-      <c r="AGF28"/>
-      <c r="AGG28"/>
-      <c r="AGH28"/>
-      <c r="AGI28"/>
-      <c r="AGJ28"/>
-      <c r="AGK28"/>
-      <c r="AGL28"/>
-      <c r="AGM28"/>
-      <c r="AGN28"/>
-      <c r="AGO28"/>
-      <c r="AGP28"/>
-      <c r="AGQ28"/>
-      <c r="AGR28"/>
-      <c r="AGS28"/>
-      <c r="AGT28"/>
-      <c r="AGU28"/>
-      <c r="AGV28"/>
-      <c r="AGW28"/>
-      <c r="AGX28"/>
-      <c r="AGY28"/>
-      <c r="AGZ28"/>
-      <c r="AHA28"/>
-      <c r="AHB28"/>
-      <c r="AHC28"/>
-      <c r="AHD28"/>
-      <c r="AHE28"/>
-      <c r="AHF28"/>
-      <c r="AHG28"/>
-      <c r="AHH28"/>
-      <c r="AHI28"/>
-      <c r="AHJ28"/>
-      <c r="AHK28"/>
-      <c r="AHL28"/>
-      <c r="AHM28"/>
-      <c r="AHN28"/>
-      <c r="AHO28"/>
-      <c r="AHP28"/>
-      <c r="AHQ28"/>
-      <c r="AHR28"/>
-      <c r="AHS28"/>
-      <c r="AHT28"/>
-      <c r="AHU28"/>
-      <c r="AHV28"/>
-      <c r="AHW28"/>
-      <c r="AHX28"/>
-      <c r="AHY28"/>
-      <c r="AHZ28"/>
-      <c r="AIA28"/>
-      <c r="AIB28"/>
-      <c r="AIC28"/>
-      <c r="AID28"/>
-      <c r="AIE28"/>
-      <c r="AIF28"/>
-      <c r="AIG28"/>
-      <c r="AIH28"/>
-      <c r="AII28"/>
-      <c r="AIJ28"/>
-      <c r="AIK28"/>
-      <c r="AIL28"/>
-      <c r="AIM28"/>
-      <c r="AIN28"/>
-      <c r="AIO28"/>
-      <c r="AIP28"/>
-      <c r="AIQ28"/>
-      <c r="AIR28"/>
-      <c r="AIS28"/>
-      <c r="AIT28"/>
-      <c r="AIU28"/>
-      <c r="AIV28"/>
-      <c r="AIW28"/>
-      <c r="AIX28"/>
-      <c r="AIY28"/>
-      <c r="AIZ28"/>
-      <c r="AJA28"/>
-      <c r="AJB28"/>
-      <c r="AJC28"/>
-      <c r="AJD28"/>
-      <c r="AJE28"/>
-      <c r="AJF28"/>
-      <c r="AJG28"/>
-      <c r="AJH28"/>
-      <c r="AJI28"/>
-      <c r="AJJ28"/>
-      <c r="AJK28"/>
-      <c r="AJL28"/>
-      <c r="AJM28"/>
-      <c r="AJN28"/>
-      <c r="AJO28"/>
-      <c r="AJP28"/>
-      <c r="AJQ28"/>
-      <c r="AJR28"/>
-      <c r="AJS28"/>
-      <c r="AJT28"/>
-      <c r="AJU28"/>
-      <c r="AJV28"/>
-      <c r="AJW28"/>
-      <c r="AJX28"/>
-      <c r="AJY28"/>
-      <c r="AJZ28"/>
-      <c r="AKA28"/>
-      <c r="AKB28"/>
-      <c r="AKC28"/>
-      <c r="AKD28"/>
-      <c r="AKE28"/>
-      <c r="AKF28"/>
-      <c r="AKG28"/>
-      <c r="AKH28"/>
-      <c r="AKI28"/>
-      <c r="AKJ28"/>
-      <c r="AKK28"/>
-      <c r="AKL28"/>
-      <c r="AKM28"/>
-      <c r="AKN28"/>
-      <c r="AKO28"/>
-      <c r="AKP28"/>
-      <c r="AKQ28"/>
-      <c r="AKR28"/>
-      <c r="AKS28"/>
-      <c r="AKT28"/>
-      <c r="AKU28"/>
-      <c r="AKV28"/>
-      <c r="AKW28"/>
-      <c r="AKX28"/>
-      <c r="AKY28"/>
-      <c r="AKZ28"/>
-      <c r="ALA28"/>
-      <c r="ALB28"/>
-      <c r="ALC28"/>
-      <c r="ALD28"/>
-      <c r="ALE28"/>
-      <c r="ALF28"/>
-      <c r="ALG28"/>
-      <c r="ALH28"/>
-      <c r="ALI28"/>
-      <c r="ALJ28"/>
-      <c r="ALK28"/>
-      <c r="ALL28"/>
-      <c r="ALM28"/>
-      <c r="ALN28"/>
-      <c r="ALO28"/>
-      <c r="ALP28"/>
-      <c r="ALQ28"/>
-      <c r="ALR28"/>
-      <c r="ALS28"/>
-      <c r="ALT28"/>
-      <c r="ALU28"/>
-      <c r="ALV28"/>
-      <c r="ALW28"/>
-      <c r="ALX28"/>
-      <c r="ALY28"/>
-      <c r="ALZ28"/>
-      <c r="AMA28"/>
-      <c r="AMB28"/>
-      <c r="AMC28"/>
-      <c r="AMD28"/>
-      <c r="AME28"/>
-      <c r="AMF28"/>
-      <c r="AMG28"/>
-      <c r="AMH28"/>
-      <c r="AMI28"/>
-      <c r="AMJ28"/>
-    </row>
-    <row r="29" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="109"/>
-      <c r="B29" s="109"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
-      <c r="X29"/>
-      <c r="Y29"/>
-      <c r="Z29"/>
-      <c r="AA29"/>
-      <c r="AB29"/>
-      <c r="AC29"/>
-      <c r="AD29"/>
-      <c r="AE29"/>
-      <c r="AF29"/>
-      <c r="AG29"/>
-      <c r="AH29"/>
-      <c r="AI29"/>
-      <c r="AJ29"/>
-      <c r="AK29"/>
-      <c r="AL29"/>
-      <c r="AM29"/>
-      <c r="AN29"/>
-      <c r="AO29"/>
-      <c r="AP29"/>
-      <c r="AQ29"/>
-      <c r="AR29"/>
-      <c r="AS29"/>
-      <c r="AT29"/>
-      <c r="AU29"/>
-      <c r="AV29"/>
-      <c r="AW29"/>
-      <c r="AX29"/>
-      <c r="AY29"/>
-      <c r="AZ29"/>
-      <c r="BA29"/>
-      <c r="BB29"/>
-      <c r="BC29"/>
-      <c r="BD29"/>
-      <c r="BE29"/>
-      <c r="BF29"/>
-      <c r="BG29"/>
-      <c r="BH29"/>
-      <c r="BI29"/>
-      <c r="BJ29"/>
-      <c r="BK29"/>
-      <c r="BL29"/>
-      <c r="BM29"/>
-      <c r="BN29"/>
-      <c r="BO29"/>
-      <c r="BP29"/>
-      <c r="BQ29"/>
-      <c r="BR29"/>
-      <c r="BS29"/>
-      <c r="BT29"/>
-      <c r="BU29"/>
-      <c r="BV29"/>
-      <c r="BW29"/>
-      <c r="BX29"/>
-      <c r="BY29"/>
-      <c r="BZ29"/>
-      <c r="CA29"/>
-      <c r="CB29"/>
-      <c r="CC29"/>
-      <c r="CD29"/>
-      <c r="CE29"/>
-      <c r="CF29"/>
-      <c r="CG29"/>
-      <c r="CH29"/>
-      <c r="CI29"/>
-      <c r="CJ29"/>
-      <c r="CK29"/>
-      <c r="CL29"/>
-      <c r="CM29"/>
-      <c r="CN29"/>
-      <c r="CO29"/>
-      <c r="CP29"/>
-      <c r="CQ29"/>
-      <c r="CR29"/>
-      <c r="CS29"/>
-      <c r="CT29"/>
-      <c r="CU29"/>
-      <c r="CV29"/>
-      <c r="CW29"/>
-      <c r="CX29"/>
-      <c r="CY29"/>
-      <c r="CZ29"/>
-      <c r="DA29"/>
-      <c r="DB29"/>
-      <c r="DC29"/>
-      <c r="DD29"/>
-      <c r="DE29"/>
-      <c r="DF29"/>
-      <c r="DG29"/>
-      <c r="DH29"/>
-      <c r="DI29"/>
-      <c r="DJ29"/>
-      <c r="DK29"/>
-      <c r="DL29"/>
-      <c r="DM29"/>
-      <c r="DN29"/>
-      <c r="DO29"/>
-      <c r="DP29"/>
-      <c r="DQ29"/>
-      <c r="DR29"/>
-      <c r="DS29"/>
-      <c r="DT29"/>
-      <c r="DU29"/>
-      <c r="DV29"/>
-      <c r="DW29"/>
-      <c r="DX29"/>
-      <c r="DY29"/>
-      <c r="DZ29"/>
-      <c r="EA29"/>
-      <c r="EB29"/>
-      <c r="EC29"/>
-      <c r="ED29"/>
-      <c r="EE29"/>
-      <c r="EF29"/>
-      <c r="EG29"/>
-      <c r="EH29"/>
-      <c r="EI29"/>
-      <c r="EJ29"/>
-      <c r="EK29"/>
-      <c r="EL29"/>
-      <c r="EM29"/>
-      <c r="EN29"/>
-      <c r="EO29"/>
-      <c r="EP29"/>
-      <c r="EQ29"/>
-      <c r="ER29"/>
-      <c r="ES29"/>
-      <c r="ET29"/>
-      <c r="EU29"/>
-      <c r="EV29"/>
-      <c r="EW29"/>
-      <c r="EX29"/>
-      <c r="EY29"/>
-      <c r="EZ29"/>
-      <c r="FA29"/>
-      <c r="FB29"/>
-      <c r="FC29"/>
-      <c r="FD29"/>
-      <c r="FE29"/>
-      <c r="FF29"/>
-      <c r="FG29"/>
-      <c r="FH29"/>
-      <c r="FI29"/>
-      <c r="FJ29"/>
-      <c r="FK29"/>
-      <c r="FL29"/>
-      <c r="FM29"/>
-      <c r="FN29"/>
-      <c r="FO29"/>
-      <c r="FP29"/>
-      <c r="FQ29"/>
-      <c r="FR29"/>
-      <c r="FS29"/>
-      <c r="FT29"/>
-      <c r="FU29"/>
-      <c r="FV29"/>
-      <c r="FW29"/>
-      <c r="FX29"/>
-      <c r="FY29"/>
-      <c r="FZ29"/>
-      <c r="GA29"/>
-      <c r="GB29"/>
-      <c r="GC29"/>
-      <c r="GD29"/>
-      <c r="GE29"/>
-      <c r="GF29"/>
-      <c r="GG29"/>
-      <c r="GH29"/>
-      <c r="GI29"/>
-      <c r="GJ29"/>
-      <c r="GK29"/>
-      <c r="GL29"/>
-      <c r="GM29"/>
-      <c r="GN29"/>
-      <c r="GO29"/>
-      <c r="GP29"/>
-      <c r="GQ29"/>
-      <c r="GR29"/>
-      <c r="GS29"/>
-      <c r="GT29"/>
-      <c r="GU29"/>
-      <c r="GV29"/>
-      <c r="GW29"/>
-      <c r="GX29"/>
-      <c r="GY29"/>
-      <c r="GZ29"/>
-      <c r="HA29"/>
-      <c r="HB29"/>
-      <c r="HC29"/>
-      <c r="HD29"/>
-      <c r="HE29"/>
-      <c r="HF29"/>
-      <c r="HG29"/>
-      <c r="HH29"/>
-      <c r="HI29"/>
-      <c r="HJ29"/>
-      <c r="HK29"/>
-      <c r="HL29"/>
-      <c r="HM29"/>
-      <c r="HN29"/>
-      <c r="HO29"/>
-      <c r="HP29"/>
-      <c r="HQ29"/>
-      <c r="HR29"/>
-      <c r="HS29"/>
-      <c r="HT29"/>
-      <c r="HU29"/>
-      <c r="HV29"/>
-      <c r="HW29"/>
-      <c r="HX29"/>
-      <c r="HY29"/>
-      <c r="HZ29"/>
-      <c r="IA29"/>
-      <c r="IB29"/>
-      <c r="IC29"/>
-      <c r="ID29"/>
-      <c r="IE29"/>
-      <c r="IF29"/>
-      <c r="IG29"/>
-      <c r="IH29"/>
-      <c r="II29"/>
-      <c r="IJ29"/>
-      <c r="IK29"/>
-      <c r="IL29"/>
-      <c r="IM29"/>
-      <c r="IN29"/>
-      <c r="IO29"/>
-      <c r="IP29"/>
-      <c r="IQ29"/>
-      <c r="IR29"/>
-      <c r="IS29"/>
-      <c r="IT29"/>
-      <c r="IU29"/>
-      <c r="IV29"/>
-      <c r="IW29"/>
-      <c r="IX29"/>
-      <c r="IY29"/>
-      <c r="IZ29"/>
-      <c r="JA29"/>
-      <c r="JB29"/>
-      <c r="JC29"/>
-      <c r="JD29"/>
-      <c r="JE29"/>
-      <c r="JF29"/>
-      <c r="JG29"/>
-      <c r="JH29"/>
-      <c r="JI29"/>
-      <c r="JJ29"/>
-      <c r="JK29"/>
-      <c r="JL29"/>
-      <c r="JM29"/>
-      <c r="JN29"/>
-      <c r="JO29"/>
-      <c r="JP29"/>
-      <c r="JQ29"/>
-      <c r="JR29"/>
-      <c r="JS29"/>
-      <c r="JT29"/>
-      <c r="JU29"/>
-      <c r="JV29"/>
-      <c r="JW29"/>
-      <c r="JX29"/>
-      <c r="JY29"/>
-      <c r="JZ29"/>
-      <c r="KA29"/>
-      <c r="KB29"/>
-      <c r="KC29"/>
-      <c r="KD29"/>
-      <c r="KE29"/>
-      <c r="KF29"/>
-      <c r="KG29"/>
-      <c r="KH29"/>
-      <c r="KI29"/>
-      <c r="KJ29"/>
-      <c r="KK29"/>
-      <c r="KL29"/>
-      <c r="KM29"/>
-      <c r="KN29"/>
-      <c r="KO29"/>
-      <c r="KP29"/>
-      <c r="KQ29"/>
-      <c r="KR29"/>
-      <c r="KS29"/>
-      <c r="KT29"/>
-      <c r="KU29"/>
-      <c r="KV29"/>
-      <c r="KW29"/>
-      <c r="KX29"/>
-      <c r="KY29"/>
-      <c r="KZ29"/>
-      <c r="LA29"/>
-      <c r="LB29"/>
-      <c r="LC29"/>
-      <c r="LD29"/>
-      <c r="LE29"/>
-      <c r="LF29"/>
-      <c r="LG29"/>
-      <c r="LH29"/>
-      <c r="LI29"/>
-      <c r="LJ29"/>
-      <c r="LK29"/>
-      <c r="LL29"/>
-      <c r="LM29"/>
-      <c r="LN29"/>
-      <c r="LO29"/>
-      <c r="LP29"/>
-      <c r="LQ29"/>
-      <c r="LR29"/>
-      <c r="LS29"/>
-      <c r="LT29"/>
-      <c r="LU29"/>
-      <c r="LV29"/>
-      <c r="LW29"/>
-      <c r="LX29"/>
-      <c r="LY29"/>
-      <c r="LZ29"/>
-      <c r="MA29"/>
-      <c r="MB29"/>
-      <c r="MC29"/>
-      <c r="MD29"/>
-      <c r="ME29"/>
-      <c r="MF29"/>
-      <c r="MG29"/>
-      <c r="MH29"/>
-      <c r="MI29"/>
-      <c r="MJ29"/>
-      <c r="MK29"/>
-      <c r="ML29"/>
-      <c r="MM29"/>
-      <c r="MN29"/>
-      <c r="MO29"/>
-      <c r="MP29"/>
-      <c r="MQ29"/>
-      <c r="MR29"/>
-      <c r="MS29"/>
-      <c r="MT29"/>
-      <c r="MU29"/>
-      <c r="MV29"/>
-      <c r="MW29"/>
-      <c r="MX29"/>
-      <c r="MY29"/>
-      <c r="MZ29"/>
-      <c r="NA29"/>
-      <c r="NB29"/>
-      <c r="NC29"/>
-      <c r="ND29"/>
-      <c r="NE29"/>
-      <c r="NF29"/>
-      <c r="NG29"/>
-      <c r="NH29"/>
-      <c r="NI29"/>
-      <c r="NJ29"/>
-      <c r="NK29"/>
-      <c r="NL29"/>
-      <c r="NM29"/>
-      <c r="NN29"/>
-      <c r="NO29"/>
-      <c r="NP29"/>
-      <c r="NQ29"/>
-      <c r="NR29"/>
-      <c r="NS29"/>
-      <c r="NT29"/>
-      <c r="NU29"/>
-      <c r="NV29"/>
-      <c r="NW29"/>
-      <c r="NX29"/>
-      <c r="NY29"/>
-      <c r="NZ29"/>
-      <c r="OA29"/>
-      <c r="OB29"/>
-      <c r="OC29"/>
-      <c r="OD29"/>
-      <c r="OE29"/>
-      <c r="OF29"/>
-      <c r="OG29"/>
-      <c r="OH29"/>
-      <c r="OI29"/>
-      <c r="OJ29"/>
-      <c r="OK29"/>
-      <c r="OL29"/>
-      <c r="OM29"/>
-      <c r="ON29"/>
-      <c r="OO29"/>
-      <c r="OP29"/>
-      <c r="OQ29"/>
-      <c r="OR29"/>
-      <c r="OS29"/>
-      <c r="OT29"/>
-      <c r="OU29"/>
-      <c r="OV29"/>
-      <c r="OW29"/>
-      <c r="OX29"/>
-      <c r="OY29"/>
-      <c r="OZ29"/>
-      <c r="PA29"/>
-      <c r="PB29"/>
-      <c r="PC29"/>
-      <c r="PD29"/>
-      <c r="PE29"/>
-      <c r="PF29"/>
-      <c r="PG29"/>
-      <c r="PH29"/>
-      <c r="PI29"/>
-      <c r="PJ29"/>
-      <c r="PK29"/>
-      <c r="PL29"/>
-      <c r="PM29"/>
-      <c r="PN29"/>
-      <c r="PO29"/>
-      <c r="PP29"/>
-      <c r="PQ29"/>
-      <c r="PR29"/>
-      <c r="PS29"/>
-      <c r="PT29"/>
-      <c r="PU29"/>
-      <c r="PV29"/>
-      <c r="PW29"/>
-      <c r="PX29"/>
-      <c r="PY29"/>
-      <c r="PZ29"/>
-      <c r="QA29"/>
-      <c r="QB29"/>
-      <c r="QC29"/>
-      <c r="QD29"/>
-      <c r="QE29"/>
-      <c r="QF29"/>
-      <c r="QG29"/>
-      <c r="QH29"/>
-      <c r="QI29"/>
-      <c r="QJ29"/>
-      <c r="QK29"/>
-      <c r="QL29"/>
-      <c r="QM29"/>
-      <c r="QN29"/>
-      <c r="QO29"/>
-      <c r="QP29"/>
-      <c r="QQ29"/>
-      <c r="QR29"/>
-      <c r="QS29"/>
-      <c r="QT29"/>
-      <c r="QU29"/>
-      <c r="QV29"/>
-      <c r="QW29"/>
-      <c r="QX29"/>
-      <c r="QY29"/>
-      <c r="QZ29"/>
-      <c r="RA29"/>
-      <c r="RB29"/>
-      <c r="RC29"/>
-      <c r="RD29"/>
-      <c r="RE29"/>
-      <c r="RF29"/>
-      <c r="RG29"/>
-      <c r="RH29"/>
-      <c r="RI29"/>
-      <c r="RJ29"/>
-      <c r="RK29"/>
-      <c r="RL29"/>
-      <c r="RM29"/>
-      <c r="RN29"/>
-      <c r="RO29"/>
-      <c r="RP29"/>
-      <c r="RQ29"/>
-      <c r="RR29"/>
-      <c r="RS29"/>
-      <c r="RT29"/>
-      <c r="RU29"/>
-      <c r="RV29"/>
-      <c r="RW29"/>
-      <c r="RX29"/>
-      <c r="RY29"/>
-      <c r="RZ29"/>
-      <c r="SA29"/>
-      <c r="SB29"/>
-      <c r="SC29"/>
-      <c r="SD29"/>
-      <c r="SE29"/>
-      <c r="SF29"/>
-      <c r="SG29"/>
-      <c r="SH29"/>
-      <c r="SI29"/>
-      <c r="SJ29"/>
-      <c r="SK29"/>
-      <c r="SL29"/>
-      <c r="SM29"/>
-      <c r="SN29"/>
-      <c r="SO29"/>
-      <c r="SP29"/>
-      <c r="SQ29"/>
-      <c r="SR29"/>
-      <c r="SS29"/>
-      <c r="ST29"/>
-      <c r="SU29"/>
-      <c r="SV29"/>
-      <c r="SW29"/>
-      <c r="SX29"/>
-      <c r="SY29"/>
-      <c r="SZ29"/>
-      <c r="TA29"/>
-      <c r="TB29"/>
-      <c r="TC29"/>
-      <c r="TD29"/>
-      <c r="TE29"/>
-      <c r="TF29"/>
-      <c r="TG29"/>
-      <c r="TH29"/>
-      <c r="TI29"/>
-      <c r="TJ29"/>
-      <c r="TK29"/>
-      <c r="TL29"/>
-      <c r="TM29"/>
-      <c r="TN29"/>
-      <c r="TO29"/>
-      <c r="TP29"/>
-      <c r="TQ29"/>
-      <c r="TR29"/>
-      <c r="TS29"/>
-      <c r="TT29"/>
-      <c r="TU29"/>
-      <c r="TV29"/>
-      <c r="TW29"/>
-      <c r="TX29"/>
-      <c r="TY29"/>
-      <c r="TZ29"/>
-      <c r="UA29"/>
-      <c r="UB29"/>
-      <c r="UC29"/>
-      <c r="UD29"/>
-      <c r="UE29"/>
-      <c r="UF29"/>
-      <c r="UG29"/>
-      <c r="UH29"/>
-      <c r="UI29"/>
-      <c r="UJ29"/>
-      <c r="UK29"/>
-      <c r="UL29"/>
-      <c r="UM29"/>
-      <c r="UN29"/>
-      <c r="UO29"/>
-      <c r="UP29"/>
-      <c r="UQ29"/>
-      <c r="UR29"/>
-      <c r="US29"/>
-      <c r="UT29"/>
-      <c r="UU29"/>
-      <c r="UV29"/>
-      <c r="UW29"/>
-      <c r="UX29"/>
-      <c r="UY29"/>
-      <c r="UZ29"/>
-      <c r="VA29"/>
-      <c r="VB29"/>
-      <c r="VC29"/>
-      <c r="VD29"/>
-      <c r="VE29"/>
-      <c r="VF29"/>
-      <c r="VG29"/>
-      <c r="VH29"/>
-      <c r="VI29"/>
-      <c r="VJ29"/>
-      <c r="VK29"/>
-      <c r="VL29"/>
-      <c r="VM29"/>
-      <c r="VN29"/>
-      <c r="VO29"/>
-      <c r="VP29"/>
-      <c r="VQ29"/>
-      <c r="VR29"/>
-      <c r="VS29"/>
-      <c r="VT29"/>
-      <c r="VU29"/>
-      <c r="VV29"/>
-      <c r="VW29"/>
-      <c r="VX29"/>
-      <c r="VY29"/>
-      <c r="VZ29"/>
-      <c r="WA29"/>
-      <c r="WB29"/>
-      <c r="WC29"/>
-      <c r="WD29"/>
-      <c r="WE29"/>
-      <c r="WF29"/>
-      <c r="WG29"/>
-      <c r="WH29"/>
-      <c r="WI29"/>
-      <c r="WJ29"/>
-      <c r="WK29"/>
-      <c r="WL29"/>
-      <c r="WM29"/>
-      <c r="WN29"/>
-      <c r="WO29"/>
-      <c r="WP29"/>
-      <c r="WQ29"/>
-      <c r="WR29"/>
-      <c r="WS29"/>
-      <c r="WT29"/>
-      <c r="WU29"/>
-      <c r="WV29"/>
-      <c r="WW29"/>
-      <c r="WX29"/>
-      <c r="WY29"/>
-      <c r="WZ29"/>
-      <c r="XA29"/>
-      <c r="XB29"/>
-      <c r="XC29"/>
-      <c r="XD29"/>
-      <c r="XE29"/>
-      <c r="XF29"/>
-      <c r="XG29"/>
-      <c r="XH29"/>
-      <c r="XI29"/>
-      <c r="XJ29"/>
-      <c r="XK29"/>
-      <c r="XL29"/>
-      <c r="XM29"/>
-      <c r="XN29"/>
-      <c r="XO29"/>
-      <c r="XP29"/>
-      <c r="XQ29"/>
-      <c r="XR29"/>
-      <c r="XS29"/>
-      <c r="XT29"/>
-      <c r="XU29"/>
-      <c r="XV29"/>
-      <c r="XW29"/>
-      <c r="XX29"/>
-      <c r="XY29"/>
-      <c r="XZ29"/>
-      <c r="YA29"/>
-      <c r="YB29"/>
-      <c r="YC29"/>
-      <c r="YD29"/>
-      <c r="YE29"/>
-      <c r="YF29"/>
-      <c r="YG29"/>
-      <c r="YH29"/>
-      <c r="YI29"/>
-      <c r="YJ29"/>
-      <c r="YK29"/>
-      <c r="YL29"/>
-      <c r="YM29"/>
-      <c r="YN29"/>
-      <c r="YO29"/>
-      <c r="YP29"/>
-      <c r="YQ29"/>
-      <c r="YR29"/>
-      <c r="YS29"/>
-      <c r="YT29"/>
-      <c r="YU29"/>
-      <c r="YV29"/>
-      <c r="YW29"/>
-      <c r="YX29"/>
-      <c r="YY29"/>
-      <c r="YZ29"/>
-      <c r="ZA29"/>
-      <c r="ZB29"/>
-      <c r="ZC29"/>
-      <c r="ZD29"/>
-      <c r="ZE29"/>
-      <c r="ZF29"/>
-      <c r="ZG29"/>
-      <c r="ZH29"/>
-      <c r="ZI29"/>
-      <c r="ZJ29"/>
-      <c r="ZK29"/>
-      <c r="ZL29"/>
-      <c r="ZM29"/>
-      <c r="ZN29"/>
-      <c r="ZO29"/>
-      <c r="ZP29"/>
-      <c r="ZQ29"/>
-      <c r="ZR29"/>
-      <c r="ZS29"/>
-      <c r="ZT29"/>
-      <c r="ZU29"/>
-      <c r="ZV29"/>
-      <c r="ZW29"/>
-      <c r="ZX29"/>
-      <c r="ZY29"/>
-      <c r="ZZ29"/>
-      <c r="AAA29"/>
-      <c r="AAB29"/>
-      <c r="AAC29"/>
-      <c r="AAD29"/>
-      <c r="AAE29"/>
-      <c r="AAF29"/>
-      <c r="AAG29"/>
-      <c r="AAH29"/>
-      <c r="AAI29"/>
-      <c r="AAJ29"/>
-      <c r="AAK29"/>
-      <c r="AAL29"/>
-      <c r="AAM29"/>
-      <c r="AAN29"/>
-      <c r="AAO29"/>
-      <c r="AAP29"/>
-      <c r="AAQ29"/>
-      <c r="AAR29"/>
-      <c r="AAS29"/>
-      <c r="AAT29"/>
-      <c r="AAU29"/>
-      <c r="AAV29"/>
-      <c r="AAW29"/>
-      <c r="AAX29"/>
-      <c r="AAY29"/>
-      <c r="AAZ29"/>
-      <c r="ABA29"/>
-      <c r="ABB29"/>
-      <c r="ABC29"/>
-      <c r="ABD29"/>
-      <c r="ABE29"/>
-      <c r="ABF29"/>
-      <c r="ABG29"/>
-      <c r="ABH29"/>
-      <c r="ABI29"/>
-      <c r="ABJ29"/>
-      <c r="ABK29"/>
-      <c r="ABL29"/>
-      <c r="ABM29"/>
-      <c r="ABN29"/>
-      <c r="ABO29"/>
-      <c r="ABP29"/>
-      <c r="ABQ29"/>
-      <c r="ABR29"/>
-      <c r="ABS29"/>
-      <c r="ABT29"/>
-      <c r="ABU29"/>
-      <c r="ABV29"/>
-      <c r="ABW29"/>
-      <c r="ABX29"/>
-      <c r="ABY29"/>
-      <c r="ABZ29"/>
-      <c r="ACA29"/>
-      <c r="ACB29"/>
-      <c r="ACC29"/>
-      <c r="ACD29"/>
-      <c r="ACE29"/>
-      <c r="ACF29"/>
-      <c r="ACG29"/>
-      <c r="ACH29"/>
-      <c r="ACI29"/>
-      <c r="ACJ29"/>
-      <c r="ACK29"/>
-      <c r="ACL29"/>
-      <c r="ACM29"/>
-      <c r="ACN29"/>
-      <c r="ACO29"/>
-      <c r="ACP29"/>
-      <c r="ACQ29"/>
-      <c r="ACR29"/>
-      <c r="ACS29"/>
-      <c r="ACT29"/>
-      <c r="ACU29"/>
-      <c r="ACV29"/>
-      <c r="ACW29"/>
-      <c r="ACX29"/>
-      <c r="ACY29"/>
-      <c r="ACZ29"/>
-      <c r="ADA29"/>
-      <c r="ADB29"/>
-      <c r="ADC29"/>
-      <c r="ADD29"/>
-      <c r="ADE29"/>
-      <c r="ADF29"/>
-      <c r="ADG29"/>
-      <c r="ADH29"/>
-      <c r="ADI29"/>
-      <c r="ADJ29"/>
-      <c r="ADK29"/>
-      <c r="ADL29"/>
-      <c r="ADM29"/>
-      <c r="ADN29"/>
-      <c r="ADO29"/>
-      <c r="ADP29"/>
-      <c r="ADQ29"/>
-      <c r="ADR29"/>
-      <c r="ADS29"/>
-      <c r="ADT29"/>
-      <c r="ADU29"/>
-      <c r="ADV29"/>
-      <c r="ADW29"/>
-      <c r="ADX29"/>
-      <c r="ADY29"/>
-      <c r="ADZ29"/>
-      <c r="AEA29"/>
-      <c r="AEB29"/>
-      <c r="AEC29"/>
-      <c r="AED29"/>
-      <c r="AEE29"/>
-      <c r="AEF29"/>
-      <c r="AEG29"/>
-      <c r="AEH29"/>
-      <c r="AEI29"/>
-      <c r="AEJ29"/>
-      <c r="AEK29"/>
-      <c r="AEL29"/>
-      <c r="AEM29"/>
-      <c r="AEN29"/>
-      <c r="AEO29"/>
-      <c r="AEP29"/>
-      <c r="AEQ29"/>
-      <c r="AER29"/>
-      <c r="AES29"/>
-      <c r="AET29"/>
-      <c r="AEU29"/>
-      <c r="AEV29"/>
-      <c r="AEW29"/>
-      <c r="AEX29"/>
-      <c r="AEY29"/>
-      <c r="AEZ29"/>
-      <c r="AFA29"/>
-      <c r="AFB29"/>
-      <c r="AFC29"/>
-      <c r="AFD29"/>
-      <c r="AFE29"/>
-      <c r="AFF29"/>
-      <c r="AFG29"/>
-      <c r="AFH29"/>
-      <c r="AFI29"/>
-      <c r="AFJ29"/>
-      <c r="AFK29"/>
-      <c r="AFL29"/>
-      <c r="AFM29"/>
-      <c r="AFN29"/>
-      <c r="AFO29"/>
-      <c r="AFP29"/>
-      <c r="AFQ29"/>
-      <c r="AFR29"/>
-      <c r="AFS29"/>
-      <c r="AFT29"/>
-      <c r="AFU29"/>
-      <c r="AFV29"/>
-      <c r="AFW29"/>
-      <c r="AFX29"/>
-      <c r="AFY29"/>
-      <c r="AFZ29"/>
-      <c r="AGA29"/>
-      <c r="AGB29"/>
-      <c r="AGC29"/>
-      <c r="AGD29"/>
-      <c r="AGE29"/>
-      <c r="AGF29"/>
-      <c r="AGG29"/>
-      <c r="AGH29"/>
-      <c r="AGI29"/>
-      <c r="AGJ29"/>
-      <c r="AGK29"/>
-      <c r="AGL29"/>
-      <c r="AGM29"/>
-      <c r="AGN29"/>
-      <c r="AGO29"/>
-      <c r="AGP29"/>
-      <c r="AGQ29"/>
-      <c r="AGR29"/>
-      <c r="AGS29"/>
-      <c r="AGT29"/>
-      <c r="AGU29"/>
-      <c r="AGV29"/>
-      <c r="AGW29"/>
-      <c r="AGX29"/>
-      <c r="AGY29"/>
-      <c r="AGZ29"/>
-      <c r="AHA29"/>
-      <c r="AHB29"/>
-      <c r="AHC29"/>
-      <c r="AHD29"/>
-      <c r="AHE29"/>
-      <c r="AHF29"/>
-      <c r="AHG29"/>
-      <c r="AHH29"/>
-      <c r="AHI29"/>
-      <c r="AHJ29"/>
-      <c r="AHK29"/>
-      <c r="AHL29"/>
-      <c r="AHM29"/>
-      <c r="AHN29"/>
-      <c r="AHO29"/>
-      <c r="AHP29"/>
-      <c r="AHQ29"/>
-      <c r="AHR29"/>
-      <c r="AHS29"/>
-      <c r="AHT29"/>
-      <c r="AHU29"/>
-      <c r="AHV29"/>
-      <c r="AHW29"/>
-      <c r="AHX29"/>
-      <c r="AHY29"/>
-      <c r="AHZ29"/>
-      <c r="AIA29"/>
-      <c r="AIB29"/>
-      <c r="AIC29"/>
-      <c r="AID29"/>
-      <c r="AIE29"/>
-      <c r="AIF29"/>
-      <c r="AIG29"/>
-      <c r="AIH29"/>
-      <c r="AII29"/>
-      <c r="AIJ29"/>
-      <c r="AIK29"/>
-      <c r="AIL29"/>
-      <c r="AIM29"/>
-      <c r="AIN29"/>
-      <c r="AIO29"/>
-      <c r="AIP29"/>
-      <c r="AIQ29"/>
-      <c r="AIR29"/>
-      <c r="AIS29"/>
-      <c r="AIT29"/>
-      <c r="AIU29"/>
-      <c r="AIV29"/>
-      <c r="AIW29"/>
-      <c r="AIX29"/>
-      <c r="AIY29"/>
-      <c r="AIZ29"/>
-      <c r="AJA29"/>
-      <c r="AJB29"/>
-      <c r="AJC29"/>
-      <c r="AJD29"/>
-      <c r="AJE29"/>
-      <c r="AJF29"/>
-      <c r="AJG29"/>
-      <c r="AJH29"/>
-      <c r="AJI29"/>
-      <c r="AJJ29"/>
-      <c r="AJK29"/>
-      <c r="AJL29"/>
-      <c r="AJM29"/>
-      <c r="AJN29"/>
-      <c r="AJO29"/>
-      <c r="AJP29"/>
-      <c r="AJQ29"/>
-      <c r="AJR29"/>
-      <c r="AJS29"/>
-      <c r="AJT29"/>
-      <c r="AJU29"/>
-      <c r="AJV29"/>
-      <c r="AJW29"/>
-      <c r="AJX29"/>
-      <c r="AJY29"/>
-      <c r="AJZ29"/>
-      <c r="AKA29"/>
-      <c r="AKB29"/>
-      <c r="AKC29"/>
-      <c r="AKD29"/>
-      <c r="AKE29"/>
-      <c r="AKF29"/>
-      <c r="AKG29"/>
-      <c r="AKH29"/>
-      <c r="AKI29"/>
-      <c r="AKJ29"/>
-      <c r="AKK29"/>
-      <c r="AKL29"/>
-      <c r="AKM29"/>
-      <c r="AKN29"/>
-      <c r="AKO29"/>
-      <c r="AKP29"/>
-      <c r="AKQ29"/>
-      <c r="AKR29"/>
-      <c r="AKS29"/>
-      <c r="AKT29"/>
-      <c r="AKU29"/>
-      <c r="AKV29"/>
-      <c r="AKW29"/>
-      <c r="AKX29"/>
-      <c r="AKY29"/>
-      <c r="AKZ29"/>
-      <c r="ALA29"/>
-      <c r="ALB29"/>
-      <c r="ALC29"/>
-      <c r="ALD29"/>
-      <c r="ALE29"/>
-      <c r="ALF29"/>
-      <c r="ALG29"/>
-      <c r="ALH29"/>
-      <c r="ALI29"/>
-      <c r="ALJ29"/>
-      <c r="ALK29"/>
-      <c r="ALL29"/>
-      <c r="ALM29"/>
-      <c r="ALN29"/>
-      <c r="ALO29"/>
-      <c r="ALP29"/>
-      <c r="ALQ29"/>
-      <c r="ALR29"/>
-      <c r="ALS29"/>
-      <c r="ALT29"/>
-      <c r="ALU29"/>
-      <c r="ALV29"/>
-      <c r="ALW29"/>
-      <c r="ALX29"/>
-      <c r="ALY29"/>
-      <c r="ALZ29"/>
-      <c r="AMA29"/>
-      <c r="AMB29"/>
-      <c r="AMC29"/>
-      <c r="AMD29"/>
-      <c r="AME29"/>
-      <c r="AMF29"/>
-      <c r="AMG29"/>
-      <c r="AMH29"/>
-      <c r="AMI29"/>
-      <c r="AMJ29"/>
-    </row>
-    <row r="30" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="109"/>
-      <c r="B30" s="109"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="109"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-      <c r="AA30"/>
-      <c r="AB30"/>
-      <c r="AC30"/>
-      <c r="AD30"/>
-      <c r="AE30"/>
-      <c r="AF30"/>
-      <c r="AG30"/>
-      <c r="AH30"/>
-      <c r="AI30"/>
-      <c r="AJ30"/>
-      <c r="AK30"/>
-      <c r="AL30"/>
-      <c r="AM30"/>
-      <c r="AN30"/>
-      <c r="AO30"/>
-      <c r="AP30"/>
-      <c r="AQ30"/>
-      <c r="AR30"/>
-      <c r="AS30"/>
-      <c r="AT30"/>
-      <c r="AU30"/>
-      <c r="AV30"/>
-      <c r="AW30"/>
-      <c r="AX30"/>
-      <c r="AY30"/>
-      <c r="AZ30"/>
-      <c r="BA30"/>
-      <c r="BB30"/>
-      <c r="BC30"/>
-      <c r="BD30"/>
-      <c r="BE30"/>
-      <c r="BF30"/>
-      <c r="BG30"/>
-      <c r="BH30"/>
-      <c r="BI30"/>
-      <c r="BJ30"/>
-      <c r="BK30"/>
-      <c r="BL30"/>
-      <c r="BM30"/>
-      <c r="BN30"/>
-      <c r="BO30"/>
-      <c r="BP30"/>
-      <c r="BQ30"/>
-      <c r="BR30"/>
-      <c r="BS30"/>
-      <c r="BT30"/>
-      <c r="BU30"/>
-      <c r="BV30"/>
-      <c r="BW30"/>
-      <c r="BX30"/>
-      <c r="BY30"/>
-      <c r="BZ30"/>
-      <c r="CA30"/>
-      <c r="CB30"/>
-      <c r="CC30"/>
-      <c r="CD30"/>
-      <c r="CE30"/>
-      <c r="CF30"/>
-      <c r="CG30"/>
-      <c r="CH30"/>
-      <c r="CI30"/>
-      <c r="CJ30"/>
-      <c r="CK30"/>
-      <c r="CL30"/>
-      <c r="CM30"/>
-      <c r="CN30"/>
-      <c r="CO30"/>
-      <c r="CP30"/>
-      <c r="CQ30"/>
-      <c r="CR30"/>
-      <c r="CS30"/>
-      <c r="CT30"/>
-      <c r="CU30"/>
-      <c r="CV30"/>
-      <c r="CW30"/>
-      <c r="CX30"/>
-      <c r="CY30"/>
-      <c r="CZ30"/>
-      <c r="DA30"/>
-      <c r="DB30"/>
-      <c r="DC30"/>
-      <c r="DD30"/>
-      <c r="DE30"/>
-      <c r="DF30"/>
-      <c r="DG30"/>
-      <c r="DH30"/>
-      <c r="DI30"/>
-      <c r="DJ30"/>
-      <c r="DK30"/>
-      <c r="DL30"/>
-      <c r="DM30"/>
-      <c r="DN30"/>
-      <c r="DO30"/>
-      <c r="DP30"/>
-      <c r="DQ30"/>
-      <c r="DR30"/>
-      <c r="DS30"/>
-      <c r="DT30"/>
-      <c r="DU30"/>
-      <c r="DV30"/>
-      <c r="DW30"/>
-      <c r="DX30"/>
-      <c r="DY30"/>
-      <c r="DZ30"/>
-      <c r="EA30"/>
-      <c r="EB30"/>
-      <c r="EC30"/>
-      <c r="ED30"/>
-      <c r="EE30"/>
-      <c r="EF30"/>
-      <c r="EG30"/>
-      <c r="EH30"/>
-      <c r="EI30"/>
-      <c r="EJ30"/>
-      <c r="EK30"/>
-      <c r="EL30"/>
-      <c r="EM30"/>
-      <c r="EN30"/>
-      <c r="EO30"/>
-      <c r="EP30"/>
-      <c r="EQ30"/>
-      <c r="ER30"/>
-      <c r="ES30"/>
-      <c r="ET30"/>
-      <c r="EU30"/>
-      <c r="EV30"/>
-      <c r="EW30"/>
-      <c r="EX30"/>
-      <c r="EY30"/>
-      <c r="EZ30"/>
-      <c r="FA30"/>
-      <c r="FB30"/>
-      <c r="FC30"/>
-      <c r="FD30"/>
-      <c r="FE30"/>
-      <c r="FF30"/>
-      <c r="FG30"/>
-      <c r="FH30"/>
-      <c r="FI30"/>
-      <c r="FJ30"/>
-      <c r="FK30"/>
-      <c r="FL30"/>
-      <c r="FM30"/>
-      <c r="FN30"/>
-      <c r="FO30"/>
-      <c r="FP30"/>
-      <c r="FQ30"/>
-      <c r="FR30"/>
-      <c r="FS30"/>
-      <c r="FT30"/>
-      <c r="FU30"/>
-      <c r="FV30"/>
-      <c r="FW30"/>
-      <c r="FX30"/>
-      <c r="FY30"/>
-      <c r="FZ30"/>
-      <c r="GA30"/>
-      <c r="GB30"/>
-      <c r="GC30"/>
-      <c r="GD30"/>
-      <c r="GE30"/>
-      <c r="GF30"/>
-      <c r="GG30"/>
-      <c r="GH30"/>
-      <c r="GI30"/>
-      <c r="GJ30"/>
-      <c r="GK30"/>
-      <c r="GL30"/>
-      <c r="GM30"/>
-      <c r="GN30"/>
-      <c r="GO30"/>
-      <c r="GP30"/>
-      <c r="GQ30"/>
-      <c r="GR30"/>
-      <c r="GS30"/>
-      <c r="GT30"/>
-      <c r="GU30"/>
-      <c r="GV30"/>
-      <c r="GW30"/>
-      <c r="GX30"/>
-      <c r="GY30"/>
-      <c r="GZ30"/>
-      <c r="HA30"/>
-      <c r="HB30"/>
-      <c r="HC30"/>
-      <c r="HD30"/>
-      <c r="HE30"/>
-      <c r="HF30"/>
-      <c r="HG30"/>
-      <c r="HH30"/>
-      <c r="HI30"/>
-      <c r="HJ30"/>
-      <c r="HK30"/>
-      <c r="HL30"/>
-      <c r="HM30"/>
-      <c r="HN30"/>
-      <c r="HO30"/>
-      <c r="HP30"/>
-      <c r="HQ30"/>
-      <c r="HR30"/>
-      <c r="HS30"/>
-      <c r="HT30"/>
-      <c r="HU30"/>
-      <c r="HV30"/>
-      <c r="HW30"/>
-      <c r="HX30"/>
-      <c r="HY30"/>
-      <c r="HZ30"/>
-      <c r="IA30"/>
-      <c r="IB30"/>
-      <c r="IC30"/>
-      <c r="ID30"/>
-      <c r="IE30"/>
-      <c r="IF30"/>
-      <c r="IG30"/>
-      <c r="IH30"/>
-      <c r="II30"/>
-      <c r="IJ30"/>
-      <c r="IK30"/>
-      <c r="IL30"/>
-      <c r="IM30"/>
-      <c r="IN30"/>
-      <c r="IO30"/>
-      <c r="IP30"/>
-      <c r="IQ30"/>
-      <c r="IR30"/>
-      <c r="IS30"/>
-      <c r="IT30"/>
-      <c r="IU30"/>
-      <c r="IV30"/>
-      <c r="IW30"/>
-      <c r="IX30"/>
-      <c r="IY30"/>
-      <c r="IZ30"/>
-      <c r="JA30"/>
-      <c r="JB30"/>
-      <c r="JC30"/>
-      <c r="JD30"/>
-      <c r="JE30"/>
-      <c r="JF30"/>
-      <c r="JG30"/>
-      <c r="JH30"/>
-      <c r="JI30"/>
-      <c r="JJ30"/>
-      <c r="JK30"/>
-      <c r="JL30"/>
-      <c r="JM30"/>
-      <c r="JN30"/>
-      <c r="JO30"/>
-      <c r="JP30"/>
-      <c r="JQ30"/>
-      <c r="JR30"/>
-      <c r="JS30"/>
-      <c r="JT30"/>
-      <c r="JU30"/>
-      <c r="JV30"/>
-      <c r="JW30"/>
-      <c r="JX30"/>
-      <c r="JY30"/>
-      <c r="JZ30"/>
-      <c r="KA30"/>
-      <c r="KB30"/>
-      <c r="KC30"/>
-      <c r="KD30"/>
-      <c r="KE30"/>
-      <c r="KF30"/>
-      <c r="KG30"/>
-      <c r="KH30"/>
-      <c r="KI30"/>
-      <c r="KJ30"/>
-      <c r="KK30"/>
-      <c r="KL30"/>
-      <c r="KM30"/>
-      <c r="KN30"/>
-      <c r="KO30"/>
-      <c r="KP30"/>
-      <c r="KQ30"/>
-      <c r="KR30"/>
-      <c r="KS30"/>
-      <c r="KT30"/>
-      <c r="KU30"/>
-      <c r="KV30"/>
-      <c r="KW30"/>
-      <c r="KX30"/>
-      <c r="KY30"/>
-      <c r="KZ30"/>
-      <c r="LA30"/>
-      <c r="LB30"/>
-      <c r="LC30"/>
-      <c r="LD30"/>
-      <c r="LE30"/>
-      <c r="LF30"/>
-      <c r="LG30"/>
-      <c r="LH30"/>
-      <c r="LI30"/>
-      <c r="LJ30"/>
-      <c r="LK30"/>
-      <c r="LL30"/>
-      <c r="LM30"/>
-      <c r="LN30"/>
-      <c r="LO30"/>
-      <c r="LP30"/>
-      <c r="LQ30"/>
-      <c r="LR30"/>
-      <c r="LS30"/>
-      <c r="LT30"/>
-      <c r="LU30"/>
-      <c r="LV30"/>
-      <c r="LW30"/>
-      <c r="LX30"/>
-      <c r="LY30"/>
-      <c r="LZ30"/>
-      <c r="MA30"/>
-      <c r="MB30"/>
-      <c r="MC30"/>
-      <c r="MD30"/>
-      <c r="ME30"/>
-      <c r="MF30"/>
-      <c r="MG30"/>
-      <c r="MH30"/>
-      <c r="MI30"/>
-      <c r="MJ30"/>
-      <c r="MK30"/>
-      <c r="ML30"/>
-      <c r="MM30"/>
-      <c r="MN30"/>
-      <c r="MO30"/>
-      <c r="MP30"/>
-      <c r="MQ30"/>
-      <c r="MR30"/>
-      <c r="MS30"/>
-      <c r="MT30"/>
-      <c r="MU30"/>
-      <c r="MV30"/>
-      <c r="MW30"/>
-      <c r="MX30"/>
-      <c r="MY30"/>
-      <c r="MZ30"/>
-      <c r="NA30"/>
-      <c r="NB30"/>
-      <c r="NC30"/>
-      <c r="ND30"/>
-      <c r="NE30"/>
-      <c r="NF30"/>
-      <c r="NG30"/>
-      <c r="NH30"/>
-      <c r="NI30"/>
-      <c r="NJ30"/>
-      <c r="NK30"/>
-      <c r="NL30"/>
-      <c r="NM30"/>
-      <c r="NN30"/>
-      <c r="NO30"/>
-      <c r="NP30"/>
-      <c r="NQ30"/>
-      <c r="NR30"/>
-      <c r="NS30"/>
-      <c r="NT30"/>
-      <c r="NU30"/>
-      <c r="NV30"/>
-      <c r="NW30"/>
-      <c r="NX30"/>
-      <c r="NY30"/>
-      <c r="NZ30"/>
-      <c r="OA30"/>
-      <c r="OB30"/>
-      <c r="OC30"/>
-      <c r="OD30"/>
-      <c r="OE30"/>
-      <c r="OF30"/>
-      <c r="OG30"/>
-      <c r="OH30"/>
-      <c r="OI30"/>
-      <c r="OJ30"/>
-      <c r="OK30"/>
-      <c r="OL30"/>
-      <c r="OM30"/>
-      <c r="ON30"/>
-      <c r="OO30"/>
-      <c r="OP30"/>
-      <c r="OQ30"/>
-      <c r="OR30"/>
-      <c r="OS30"/>
-      <c r="OT30"/>
-      <c r="OU30"/>
-      <c r="OV30"/>
-      <c r="OW30"/>
-      <c r="OX30"/>
-      <c r="OY30"/>
-      <c r="OZ30"/>
-      <c r="PA30"/>
-      <c r="PB30"/>
-      <c r="PC30"/>
-      <c r="PD30"/>
-      <c r="PE30"/>
-      <c r="PF30"/>
-      <c r="PG30"/>
-      <c r="PH30"/>
-      <c r="PI30"/>
-      <c r="PJ30"/>
-      <c r="PK30"/>
-      <c r="PL30"/>
-      <c r="PM30"/>
-      <c r="PN30"/>
-      <c r="PO30"/>
-      <c r="PP30"/>
-      <c r="PQ30"/>
-      <c r="PR30"/>
-      <c r="PS30"/>
-      <c r="PT30"/>
-      <c r="PU30"/>
-      <c r="PV30"/>
-      <c r="PW30"/>
-      <c r="PX30"/>
-      <c r="PY30"/>
-      <c r="PZ30"/>
-      <c r="QA30"/>
-      <c r="QB30"/>
-      <c r="QC30"/>
-      <c r="QD30"/>
-      <c r="QE30"/>
-      <c r="QF30"/>
-      <c r="QG30"/>
-      <c r="QH30"/>
-      <c r="QI30"/>
-      <c r="QJ30"/>
-      <c r="QK30"/>
-      <c r="QL30"/>
-      <c r="QM30"/>
-      <c r="QN30"/>
-      <c r="QO30"/>
-      <c r="QP30"/>
-      <c r="QQ30"/>
-      <c r="QR30"/>
-      <c r="QS30"/>
-      <c r="QT30"/>
-      <c r="QU30"/>
-      <c r="QV30"/>
-      <c r="QW30"/>
-      <c r="QX30"/>
-      <c r="QY30"/>
-      <c r="QZ30"/>
-      <c r="RA30"/>
-      <c r="RB30"/>
-      <c r="RC30"/>
-      <c r="RD30"/>
-      <c r="RE30"/>
-      <c r="RF30"/>
-      <c r="RG30"/>
-      <c r="RH30"/>
-      <c r="RI30"/>
-      <c r="RJ30"/>
-      <c r="RK30"/>
-      <c r="RL30"/>
-      <c r="RM30"/>
-      <c r="RN30"/>
-      <c r="RO30"/>
-      <c r="RP30"/>
-      <c r="RQ30"/>
-      <c r="RR30"/>
-      <c r="RS30"/>
-      <c r="RT30"/>
-      <c r="RU30"/>
-      <c r="RV30"/>
-      <c r="RW30"/>
-      <c r="RX30"/>
-      <c r="RY30"/>
-      <c r="RZ30"/>
-      <c r="SA30"/>
-      <c r="SB30"/>
-      <c r="SC30"/>
-      <c r="SD30"/>
-      <c r="SE30"/>
-      <c r="SF30"/>
-      <c r="SG30"/>
-      <c r="SH30"/>
-      <c r="SI30"/>
-      <c r="SJ30"/>
-      <c r="SK30"/>
-      <c r="SL30"/>
-      <c r="SM30"/>
-      <c r="SN30"/>
-      <c r="SO30"/>
-      <c r="SP30"/>
-      <c r="SQ30"/>
-      <c r="SR30"/>
-      <c r="SS30"/>
-      <c r="ST30"/>
-      <c r="SU30"/>
-      <c r="SV30"/>
-      <c r="SW30"/>
-      <c r="SX30"/>
-      <c r="SY30"/>
-      <c r="SZ30"/>
-      <c r="TA30"/>
-      <c r="TB30"/>
-      <c r="TC30"/>
-      <c r="TD30"/>
-      <c r="TE30"/>
-      <c r="TF30"/>
-      <c r="TG30"/>
-      <c r="TH30"/>
-      <c r="TI30"/>
-      <c r="TJ30"/>
-      <c r="TK30"/>
-      <c r="TL30"/>
-      <c r="TM30"/>
-      <c r="TN30"/>
-      <c r="TO30"/>
-      <c r="TP30"/>
-      <c r="TQ30"/>
-      <c r="TR30"/>
-      <c r="TS30"/>
-      <c r="TT30"/>
-      <c r="TU30"/>
-      <c r="TV30"/>
-      <c r="TW30"/>
-      <c r="TX30"/>
-      <c r="TY30"/>
-      <c r="TZ30"/>
-      <c r="UA30"/>
-      <c r="UB30"/>
-      <c r="UC30"/>
-      <c r="UD30"/>
-      <c r="UE30"/>
-      <c r="UF30"/>
-      <c r="UG30"/>
-      <c r="UH30"/>
-      <c r="UI30"/>
-      <c r="UJ30"/>
-      <c r="UK30"/>
-      <c r="UL30"/>
-      <c r="UM30"/>
-      <c r="UN30"/>
-      <c r="UO30"/>
-      <c r="UP30"/>
-      <c r="UQ30"/>
-      <c r="UR30"/>
-      <c r="US30"/>
-      <c r="UT30"/>
-      <c r="UU30"/>
-      <c r="UV30"/>
-      <c r="UW30"/>
-      <c r="UX30"/>
-      <c r="UY30"/>
-      <c r="UZ30"/>
-      <c r="VA30"/>
-      <c r="VB30"/>
-      <c r="VC30"/>
-      <c r="VD30"/>
-      <c r="VE30"/>
-      <c r="VF30"/>
-      <c r="VG30"/>
-      <c r="VH30"/>
-      <c r="VI30"/>
-      <c r="VJ30"/>
-      <c r="VK30"/>
-      <c r="VL30"/>
-      <c r="VM30"/>
-      <c r="VN30"/>
-      <c r="VO30"/>
-      <c r="VP30"/>
-      <c r="VQ30"/>
-      <c r="VR30"/>
-      <c r="VS30"/>
-      <c r="VT30"/>
-      <c r="VU30"/>
-      <c r="VV30"/>
-      <c r="VW30"/>
-      <c r="VX30"/>
-      <c r="VY30"/>
-      <c r="VZ30"/>
-      <c r="WA30"/>
-      <c r="WB30"/>
-      <c r="WC30"/>
-      <c r="WD30"/>
-      <c r="WE30"/>
-      <c r="WF30"/>
-      <c r="WG30"/>
-      <c r="WH30"/>
-      <c r="WI30"/>
-      <c r="WJ30"/>
-      <c r="WK30"/>
-      <c r="WL30"/>
-      <c r="WM30"/>
-      <c r="WN30"/>
-      <c r="WO30"/>
-      <c r="WP30"/>
-      <c r="WQ30"/>
-      <c r="WR30"/>
-      <c r="WS30"/>
-      <c r="WT30"/>
-      <c r="WU30"/>
-      <c r="WV30"/>
-      <c r="WW30"/>
-      <c r="WX30"/>
-      <c r="WY30"/>
-      <c r="WZ30"/>
-      <c r="XA30"/>
-      <c r="XB30"/>
-      <c r="XC30"/>
-      <c r="XD30"/>
-      <c r="XE30"/>
-      <c r="XF30"/>
-      <c r="XG30"/>
-      <c r="XH30"/>
-      <c r="XI30"/>
-      <c r="XJ30"/>
-      <c r="XK30"/>
-      <c r="XL30"/>
-      <c r="XM30"/>
-      <c r="XN30"/>
-      <c r="XO30"/>
-      <c r="XP30"/>
-      <c r="XQ30"/>
-      <c r="XR30"/>
-      <c r="XS30"/>
-      <c r="XT30"/>
-      <c r="XU30"/>
-      <c r="XV30"/>
-      <c r="XW30"/>
-      <c r="XX30"/>
-      <c r="XY30"/>
-      <c r="XZ30"/>
-      <c r="YA30"/>
-      <c r="YB30"/>
-      <c r="YC30"/>
-      <c r="YD30"/>
-      <c r="YE30"/>
-      <c r="YF30"/>
-      <c r="YG30"/>
-      <c r="YH30"/>
-      <c r="YI30"/>
-      <c r="YJ30"/>
-      <c r="YK30"/>
-      <c r="YL30"/>
-      <c r="YM30"/>
-      <c r="YN30"/>
-      <c r="YO30"/>
-      <c r="YP30"/>
-      <c r="YQ30"/>
-      <c r="YR30"/>
-      <c r="YS30"/>
-      <c r="YT30"/>
-      <c r="YU30"/>
-      <c r="YV30"/>
-      <c r="YW30"/>
-      <c r="YX30"/>
-      <c r="YY30"/>
-      <c r="YZ30"/>
-      <c r="ZA30"/>
-      <c r="ZB30"/>
-      <c r="ZC30"/>
-      <c r="ZD30"/>
-      <c r="ZE30"/>
-      <c r="ZF30"/>
-      <c r="ZG30"/>
-      <c r="ZH30"/>
-      <c r="ZI30"/>
-      <c r="ZJ30"/>
-      <c r="ZK30"/>
-      <c r="ZL30"/>
-      <c r="ZM30"/>
-      <c r="ZN30"/>
-      <c r="ZO30"/>
-      <c r="ZP30"/>
-      <c r="ZQ30"/>
-      <c r="ZR30"/>
-      <c r="ZS30"/>
-      <c r="ZT30"/>
-      <c r="ZU30"/>
-      <c r="ZV30"/>
-      <c r="ZW30"/>
-      <c r="ZX30"/>
-      <c r="ZY30"/>
-      <c r="ZZ30"/>
-      <c r="AAA30"/>
-      <c r="AAB30"/>
-      <c r="AAC30"/>
-      <c r="AAD30"/>
-      <c r="AAE30"/>
-      <c r="AAF30"/>
-      <c r="AAG30"/>
-      <c r="AAH30"/>
-      <c r="AAI30"/>
-      <c r="AAJ30"/>
-      <c r="AAK30"/>
-      <c r="AAL30"/>
-      <c r="AAM30"/>
-      <c r="AAN30"/>
-      <c r="AAO30"/>
-      <c r="AAP30"/>
-      <c r="AAQ30"/>
-      <c r="AAR30"/>
-      <c r="AAS30"/>
-      <c r="AAT30"/>
-      <c r="AAU30"/>
-      <c r="AAV30"/>
-      <c r="AAW30"/>
-      <c r="AAX30"/>
-      <c r="AAY30"/>
-      <c r="AAZ30"/>
-      <c r="ABA30"/>
-      <c r="ABB30"/>
-      <c r="ABC30"/>
-      <c r="ABD30"/>
-      <c r="ABE30"/>
-      <c r="ABF30"/>
-      <c r="ABG30"/>
-      <c r="ABH30"/>
-      <c r="ABI30"/>
-      <c r="ABJ30"/>
-      <c r="ABK30"/>
-      <c r="ABL30"/>
-      <c r="ABM30"/>
-      <c r="ABN30"/>
-      <c r="ABO30"/>
-      <c r="ABP30"/>
-      <c r="ABQ30"/>
-      <c r="ABR30"/>
-      <c r="ABS30"/>
-      <c r="ABT30"/>
-      <c r="ABU30"/>
-      <c r="ABV30"/>
-      <c r="ABW30"/>
-      <c r="ABX30"/>
-      <c r="ABY30"/>
-      <c r="ABZ30"/>
-      <c r="ACA30"/>
-      <c r="ACB30"/>
-      <c r="ACC30"/>
-      <c r="ACD30"/>
-      <c r="ACE30"/>
-      <c r="ACF30"/>
-      <c r="ACG30"/>
-      <c r="ACH30"/>
-      <c r="ACI30"/>
-      <c r="ACJ30"/>
-      <c r="ACK30"/>
-      <c r="ACL30"/>
-      <c r="ACM30"/>
-      <c r="ACN30"/>
-      <c r="ACO30"/>
-      <c r="ACP30"/>
-      <c r="ACQ30"/>
-      <c r="ACR30"/>
-      <c r="ACS30"/>
-      <c r="ACT30"/>
-      <c r="ACU30"/>
-      <c r="ACV30"/>
-      <c r="ACW30"/>
-      <c r="ACX30"/>
-      <c r="ACY30"/>
-      <c r="ACZ30"/>
-      <c r="ADA30"/>
-      <c r="ADB30"/>
-      <c r="ADC30"/>
-      <c r="ADD30"/>
-      <c r="ADE30"/>
-      <c r="ADF30"/>
-      <c r="ADG30"/>
-      <c r="ADH30"/>
-      <c r="ADI30"/>
-      <c r="ADJ30"/>
-      <c r="ADK30"/>
-      <c r="ADL30"/>
-      <c r="ADM30"/>
-      <c r="ADN30"/>
-      <c r="ADO30"/>
-      <c r="ADP30"/>
-      <c r="ADQ30"/>
-      <c r="ADR30"/>
-      <c r="ADS30"/>
-      <c r="ADT30"/>
-      <c r="ADU30"/>
-      <c r="ADV30"/>
-      <c r="ADW30"/>
-      <c r="ADX30"/>
-      <c r="ADY30"/>
-      <c r="ADZ30"/>
-      <c r="AEA30"/>
-      <c r="AEB30"/>
-      <c r="AEC30"/>
-      <c r="AED30"/>
-      <c r="AEE30"/>
-      <c r="AEF30"/>
-      <c r="AEG30"/>
-      <c r="AEH30"/>
-      <c r="AEI30"/>
-      <c r="AEJ30"/>
-      <c r="AEK30"/>
-      <c r="AEL30"/>
-      <c r="AEM30"/>
-      <c r="AEN30"/>
-      <c r="AEO30"/>
-      <c r="AEP30"/>
-      <c r="AEQ30"/>
-      <c r="AER30"/>
-      <c r="AES30"/>
-      <c r="AET30"/>
-      <c r="AEU30"/>
-      <c r="AEV30"/>
-      <c r="AEW30"/>
-      <c r="AEX30"/>
-      <c r="AEY30"/>
-      <c r="AEZ30"/>
-      <c r="AFA30"/>
-      <c r="AFB30"/>
-      <c r="AFC30"/>
-      <c r="AFD30"/>
-      <c r="AFE30"/>
-      <c r="AFF30"/>
-      <c r="AFG30"/>
-      <c r="AFH30"/>
-      <c r="AFI30"/>
-      <c r="AFJ30"/>
-      <c r="AFK30"/>
-      <c r="AFL30"/>
-      <c r="AFM30"/>
-      <c r="AFN30"/>
-      <c r="AFO30"/>
-      <c r="AFP30"/>
-      <c r="AFQ30"/>
-      <c r="AFR30"/>
-      <c r="AFS30"/>
-      <c r="AFT30"/>
-      <c r="AFU30"/>
-      <c r="AFV30"/>
-      <c r="AFW30"/>
-      <c r="AFX30"/>
-      <c r="AFY30"/>
-      <c r="AFZ30"/>
-      <c r="AGA30"/>
-      <c r="AGB30"/>
-      <c r="AGC30"/>
-      <c r="AGD30"/>
-      <c r="AGE30"/>
-      <c r="AGF30"/>
-      <c r="AGG30"/>
-      <c r="AGH30"/>
-      <c r="AGI30"/>
-      <c r="AGJ30"/>
-      <c r="AGK30"/>
-      <c r="AGL30"/>
-      <c r="AGM30"/>
-      <c r="AGN30"/>
-      <c r="AGO30"/>
-      <c r="AGP30"/>
-      <c r="AGQ30"/>
-      <c r="AGR30"/>
-      <c r="AGS30"/>
-      <c r="AGT30"/>
-      <c r="AGU30"/>
-      <c r="AGV30"/>
-      <c r="AGW30"/>
-      <c r="AGX30"/>
-      <c r="AGY30"/>
-      <c r="AGZ30"/>
-      <c r="AHA30"/>
-      <c r="AHB30"/>
-      <c r="AHC30"/>
-      <c r="AHD30"/>
-      <c r="AHE30"/>
-      <c r="AHF30"/>
-      <c r="AHG30"/>
-      <c r="AHH30"/>
-      <c r="AHI30"/>
-      <c r="AHJ30"/>
-      <c r="AHK30"/>
-      <c r="AHL30"/>
-      <c r="AHM30"/>
-      <c r="AHN30"/>
-      <c r="AHO30"/>
-      <c r="AHP30"/>
-      <c r="AHQ30"/>
-      <c r="AHR30"/>
-      <c r="AHS30"/>
-      <c r="AHT30"/>
-      <c r="AHU30"/>
-      <c r="AHV30"/>
-      <c r="AHW30"/>
-      <c r="AHX30"/>
-      <c r="AHY30"/>
-      <c r="AHZ30"/>
-      <c r="AIA30"/>
-      <c r="AIB30"/>
-      <c r="AIC30"/>
-      <c r="AID30"/>
-      <c r="AIE30"/>
-      <c r="AIF30"/>
-      <c r="AIG30"/>
-      <c r="AIH30"/>
-      <c r="AII30"/>
-      <c r="AIJ30"/>
-      <c r="AIK30"/>
-      <c r="AIL30"/>
-      <c r="AIM30"/>
-      <c r="AIN30"/>
-      <c r="AIO30"/>
-      <c r="AIP30"/>
-      <c r="AIQ30"/>
-      <c r="AIR30"/>
-      <c r="AIS30"/>
-      <c r="AIT30"/>
-      <c r="AIU30"/>
-      <c r="AIV30"/>
-      <c r="AIW30"/>
-      <c r="AIX30"/>
-      <c r="AIY30"/>
-      <c r="AIZ30"/>
-      <c r="AJA30"/>
-      <c r="AJB30"/>
-      <c r="AJC30"/>
-      <c r="AJD30"/>
-      <c r="AJE30"/>
-      <c r="AJF30"/>
-      <c r="AJG30"/>
-      <c r="AJH30"/>
-      <c r="AJI30"/>
-      <c r="AJJ30"/>
-      <c r="AJK30"/>
-      <c r="AJL30"/>
-      <c r="AJM30"/>
-      <c r="AJN30"/>
-      <c r="AJO30"/>
-      <c r="AJP30"/>
-      <c r="AJQ30"/>
-      <c r="AJR30"/>
-      <c r="AJS30"/>
-      <c r="AJT30"/>
-      <c r="AJU30"/>
-      <c r="AJV30"/>
-      <c r="AJW30"/>
-      <c r="AJX30"/>
-      <c r="AJY30"/>
-      <c r="AJZ30"/>
-      <c r="AKA30"/>
-      <c r="AKB30"/>
-      <c r="AKC30"/>
-      <c r="AKD30"/>
-      <c r="AKE30"/>
-      <c r="AKF30"/>
-      <c r="AKG30"/>
-      <c r="AKH30"/>
-      <c r="AKI30"/>
-      <c r="AKJ30"/>
-      <c r="AKK30"/>
-      <c r="AKL30"/>
-      <c r="AKM30"/>
-      <c r="AKN30"/>
-      <c r="AKO30"/>
-      <c r="AKP30"/>
-      <c r="AKQ30"/>
-      <c r="AKR30"/>
-      <c r="AKS30"/>
-      <c r="AKT30"/>
-      <c r="AKU30"/>
-      <c r="AKV30"/>
-      <c r="AKW30"/>
-      <c r="AKX30"/>
-      <c r="AKY30"/>
-      <c r="AKZ30"/>
-      <c r="ALA30"/>
-      <c r="ALB30"/>
-      <c r="ALC30"/>
-      <c r="ALD30"/>
-      <c r="ALE30"/>
-      <c r="ALF30"/>
-      <c r="ALG30"/>
-      <c r="ALH30"/>
-      <c r="ALI30"/>
-      <c r="ALJ30"/>
-      <c r="ALK30"/>
-      <c r="ALL30"/>
-      <c r="ALM30"/>
-      <c r="ALN30"/>
-      <c r="ALO30"/>
-      <c r="ALP30"/>
-      <c r="ALQ30"/>
-      <c r="ALR30"/>
-      <c r="ALS30"/>
-      <c r="ALT30"/>
-      <c r="ALU30"/>
-      <c r="ALV30"/>
-      <c r="ALW30"/>
-      <c r="ALX30"/>
-      <c r="ALY30"/>
-      <c r="ALZ30"/>
-      <c r="AMA30"/>
-      <c r="AMB30"/>
-      <c r="AMC30"/>
-      <c r="AMD30"/>
-      <c r="AME30"/>
-      <c r="AMF30"/>
-      <c r="AMG30"/>
-      <c r="AMH30"/>
-      <c r="AMI30"/>
-      <c r="AMJ30"/>
+    <row r="30" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="B30" s="101"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
     </row>
     <row r="31" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-      <c r="Z31"/>
-      <c r="AA31"/>
-      <c r="AB31"/>
-      <c r="AC31"/>
-      <c r="AD31"/>
-      <c r="AE31"/>
-      <c r="AF31"/>
-      <c r="AG31"/>
-      <c r="AH31"/>
-      <c r="AI31"/>
-      <c r="AJ31"/>
-      <c r="AK31"/>
-      <c r="AL31"/>
-      <c r="AM31"/>
-      <c r="AN31"/>
-      <c r="AO31"/>
-      <c r="AP31"/>
-      <c r="AQ31"/>
-      <c r="AR31"/>
-      <c r="AS31"/>
-      <c r="AT31"/>
-      <c r="AU31"/>
-      <c r="AV31"/>
-      <c r="AW31"/>
-      <c r="AX31"/>
-      <c r="AY31"/>
-      <c r="AZ31"/>
-      <c r="BA31"/>
-      <c r="BB31"/>
-      <c r="BC31"/>
-      <c r="BD31"/>
-      <c r="BE31"/>
-      <c r="BF31"/>
-      <c r="BG31"/>
-      <c r="BH31"/>
-      <c r="BI31"/>
-      <c r="BJ31"/>
-      <c r="BK31"/>
-      <c r="BL31"/>
-      <c r="BM31"/>
-      <c r="BN31"/>
-      <c r="BO31"/>
-      <c r="BP31"/>
-      <c r="BQ31"/>
-      <c r="BR31"/>
-      <c r="BS31"/>
-      <c r="BT31"/>
-      <c r="BU31"/>
-      <c r="BV31"/>
-      <c r="BW31"/>
-      <c r="BX31"/>
-      <c r="BY31"/>
-      <c r="BZ31"/>
-      <c r="CA31"/>
-      <c r="CB31"/>
-      <c r="CC31"/>
-      <c r="CD31"/>
-      <c r="CE31"/>
-      <c r="CF31"/>
-      <c r="CG31"/>
-      <c r="CH31"/>
-      <c r="CI31"/>
-      <c r="CJ31"/>
-      <c r="CK31"/>
-      <c r="CL31"/>
-      <c r="CM31"/>
-      <c r="CN31"/>
-      <c r="CO31"/>
-      <c r="CP31"/>
-      <c r="CQ31"/>
-      <c r="CR31"/>
-      <c r="CS31"/>
-      <c r="CT31"/>
-      <c r="CU31"/>
-      <c r="CV31"/>
-      <c r="CW31"/>
-      <c r="CX31"/>
-      <c r="CY31"/>
-      <c r="CZ31"/>
-      <c r="DA31"/>
-      <c r="DB31"/>
-      <c r="DC31"/>
-      <c r="DD31"/>
-      <c r="DE31"/>
-      <c r="DF31"/>
-      <c r="DG31"/>
-      <c r="DH31"/>
-      <c r="DI31"/>
-      <c r="DJ31"/>
-      <c r="DK31"/>
-      <c r="DL31"/>
-      <c r="DM31"/>
-      <c r="DN31"/>
-      <c r="DO31"/>
-      <c r="DP31"/>
-      <c r="DQ31"/>
-      <c r="DR31"/>
-      <c r="DS31"/>
-      <c r="DT31"/>
-      <c r="DU31"/>
-      <c r="DV31"/>
-      <c r="DW31"/>
-      <c r="DX31"/>
-      <c r="DY31"/>
-      <c r="DZ31"/>
-      <c r="EA31"/>
-      <c r="EB31"/>
-      <c r="EC31"/>
-      <c r="ED31"/>
-      <c r="EE31"/>
-      <c r="EF31"/>
-      <c r="EG31"/>
-      <c r="EH31"/>
-      <c r="EI31"/>
-      <c r="EJ31"/>
-      <c r="EK31"/>
-      <c r="EL31"/>
-      <c r="EM31"/>
-      <c r="EN31"/>
-      <c r="EO31"/>
-      <c r="EP31"/>
-      <c r="EQ31"/>
-      <c r="ER31"/>
-      <c r="ES31"/>
-      <c r="ET31"/>
-      <c r="EU31"/>
-      <c r="EV31"/>
-      <c r="EW31"/>
-      <c r="EX31"/>
-      <c r="EY31"/>
-      <c r="EZ31"/>
-      <c r="FA31"/>
-      <c r="FB31"/>
-      <c r="FC31"/>
-      <c r="FD31"/>
-      <c r="FE31"/>
-      <c r="FF31"/>
-      <c r="FG31"/>
-      <c r="FH31"/>
-      <c r="FI31"/>
-      <c r="FJ31"/>
-      <c r="FK31"/>
-      <c r="FL31"/>
-      <c r="FM31"/>
-      <c r="FN31"/>
-      <c r="FO31"/>
-      <c r="FP31"/>
-      <c r="FQ31"/>
-      <c r="FR31"/>
-      <c r="FS31"/>
-      <c r="FT31"/>
-      <c r="FU31"/>
-      <c r="FV31"/>
-      <c r="FW31"/>
-      <c r="FX31"/>
-      <c r="FY31"/>
-      <c r="FZ31"/>
-      <c r="GA31"/>
-      <c r="GB31"/>
-      <c r="GC31"/>
-      <c r="GD31"/>
-      <c r="GE31"/>
-      <c r="GF31"/>
-      <c r="GG31"/>
-      <c r="GH31"/>
-      <c r="GI31"/>
-      <c r="GJ31"/>
-      <c r="GK31"/>
-      <c r="GL31"/>
-      <c r="GM31"/>
-      <c r="GN31"/>
-      <c r="GO31"/>
-      <c r="GP31"/>
-      <c r="GQ31"/>
-      <c r="GR31"/>
-      <c r="GS31"/>
-      <c r="GT31"/>
-      <c r="GU31"/>
-      <c r="GV31"/>
-      <c r="GW31"/>
-      <c r="GX31"/>
-      <c r="GY31"/>
-      <c r="GZ31"/>
-      <c r="HA31"/>
-      <c r="HB31"/>
-      <c r="HC31"/>
-      <c r="HD31"/>
-      <c r="HE31"/>
-      <c r="HF31"/>
-      <c r="HG31"/>
-      <c r="HH31"/>
-      <c r="HI31"/>
-      <c r="HJ31"/>
-      <c r="HK31"/>
-      <c r="HL31"/>
-      <c r="HM31"/>
-      <c r="HN31"/>
-      <c r="HO31"/>
-      <c r="HP31"/>
-      <c r="HQ31"/>
-      <c r="HR31"/>
-      <c r="HS31"/>
-      <c r="HT31"/>
-      <c r="HU31"/>
-      <c r="HV31"/>
-      <c r="HW31"/>
-      <c r="HX31"/>
-      <c r="HY31"/>
-      <c r="HZ31"/>
-      <c r="IA31"/>
-      <c r="IB31"/>
-      <c r="IC31"/>
-      <c r="ID31"/>
-      <c r="IE31"/>
-      <c r="IF31"/>
-      <c r="IG31"/>
-      <c r="IH31"/>
-      <c r="II31"/>
-      <c r="IJ31"/>
-      <c r="IK31"/>
-      <c r="IL31"/>
-      <c r="IM31"/>
-      <c r="IN31"/>
-      <c r="IO31"/>
-      <c r="IP31"/>
-      <c r="IQ31"/>
-      <c r="IR31"/>
-      <c r="IS31"/>
-      <c r="IT31"/>
-      <c r="IU31"/>
-      <c r="IV31"/>
-      <c r="IW31"/>
-      <c r="IX31"/>
-      <c r="IY31"/>
-      <c r="IZ31"/>
-      <c r="JA31"/>
-      <c r="JB31"/>
-      <c r="JC31"/>
-      <c r="JD31"/>
-      <c r="JE31"/>
-      <c r="JF31"/>
-      <c r="JG31"/>
-      <c r="JH31"/>
-      <c r="JI31"/>
-      <c r="JJ31"/>
-      <c r="JK31"/>
-      <c r="JL31"/>
-      <c r="JM31"/>
-      <c r="JN31"/>
-      <c r="JO31"/>
-      <c r="JP31"/>
-      <c r="JQ31"/>
-      <c r="JR31"/>
-      <c r="JS31"/>
-      <c r="JT31"/>
-      <c r="JU31"/>
-      <c r="JV31"/>
-      <c r="JW31"/>
-      <c r="JX31"/>
-      <c r="JY31"/>
-      <c r="JZ31"/>
-      <c r="KA31"/>
-      <c r="KB31"/>
-      <c r="KC31"/>
-      <c r="KD31"/>
-      <c r="KE31"/>
-      <c r="KF31"/>
-      <c r="KG31"/>
-      <c r="KH31"/>
-      <c r="KI31"/>
-      <c r="KJ31"/>
-      <c r="KK31"/>
-      <c r="KL31"/>
-      <c r="KM31"/>
-      <c r="KN31"/>
-      <c r="KO31"/>
-      <c r="KP31"/>
-      <c r="KQ31"/>
-      <c r="KR31"/>
-      <c r="KS31"/>
-      <c r="KT31"/>
-      <c r="KU31"/>
-      <c r="KV31"/>
-      <c r="KW31"/>
-      <c r="KX31"/>
-      <c r="KY31"/>
-      <c r="KZ31"/>
-      <c r="LA31"/>
-      <c r="LB31"/>
-      <c r="LC31"/>
-      <c r="LD31"/>
-      <c r="LE31"/>
-      <c r="LF31"/>
-      <c r="LG31"/>
-      <c r="LH31"/>
-      <c r="LI31"/>
-      <c r="LJ31"/>
-      <c r="LK31"/>
-      <c r="LL31"/>
-      <c r="LM31"/>
-      <c r="LN31"/>
-      <c r="LO31"/>
-      <c r="LP31"/>
-      <c r="LQ31"/>
-      <c r="LR31"/>
-      <c r="LS31"/>
-      <c r="LT31"/>
-      <c r="LU31"/>
-      <c r="LV31"/>
-      <c r="LW31"/>
-      <c r="LX31"/>
-      <c r="LY31"/>
-      <c r="LZ31"/>
-      <c r="MA31"/>
-      <c r="MB31"/>
-      <c r="MC31"/>
-      <c r="MD31"/>
-      <c r="ME31"/>
-      <c r="MF31"/>
-      <c r="MG31"/>
-      <c r="MH31"/>
-      <c r="MI31"/>
-      <c r="MJ31"/>
-      <c r="MK31"/>
-      <c r="ML31"/>
-      <c r="MM31"/>
-      <c r="MN31"/>
-      <c r="MO31"/>
-      <c r="MP31"/>
-      <c r="MQ31"/>
-      <c r="MR31"/>
-      <c r="MS31"/>
-      <c r="MT31"/>
-      <c r="MU31"/>
-      <c r="MV31"/>
-      <c r="MW31"/>
-      <c r="MX31"/>
-      <c r="MY31"/>
-      <c r="MZ31"/>
-      <c r="NA31"/>
-      <c r="NB31"/>
-      <c r="NC31"/>
-      <c r="ND31"/>
-      <c r="NE31"/>
-      <c r="NF31"/>
-      <c r="NG31"/>
-      <c r="NH31"/>
-      <c r="NI31"/>
-      <c r="NJ31"/>
-      <c r="NK31"/>
-      <c r="NL31"/>
-      <c r="NM31"/>
-      <c r="NN31"/>
-      <c r="NO31"/>
-      <c r="NP31"/>
-      <c r="NQ31"/>
-      <c r="NR31"/>
-      <c r="NS31"/>
-      <c r="NT31"/>
-      <c r="NU31"/>
-      <c r="NV31"/>
-      <c r="NW31"/>
-      <c r="NX31"/>
-      <c r="NY31"/>
-      <c r="NZ31"/>
-      <c r="OA31"/>
-      <c r="OB31"/>
-      <c r="OC31"/>
-      <c r="OD31"/>
-      <c r="OE31"/>
-      <c r="OF31"/>
-      <c r="OG31"/>
-      <c r="OH31"/>
-      <c r="OI31"/>
-      <c r="OJ31"/>
-      <c r="OK31"/>
-      <c r="OL31"/>
-      <c r="OM31"/>
-      <c r="ON31"/>
-      <c r="OO31"/>
-      <c r="OP31"/>
-      <c r="OQ31"/>
-      <c r="OR31"/>
-      <c r="OS31"/>
-      <c r="OT31"/>
-      <c r="OU31"/>
-      <c r="OV31"/>
-      <c r="OW31"/>
-      <c r="OX31"/>
-      <c r="OY31"/>
-      <c r="OZ31"/>
-      <c r="PA31"/>
-      <c r="PB31"/>
-      <c r="PC31"/>
-      <c r="PD31"/>
-      <c r="PE31"/>
-      <c r="PF31"/>
-      <c r="PG31"/>
-      <c r="PH31"/>
-      <c r="PI31"/>
-      <c r="PJ31"/>
-      <c r="PK31"/>
-      <c r="PL31"/>
-      <c r="PM31"/>
-      <c r="PN31"/>
-      <c r="PO31"/>
-      <c r="PP31"/>
-      <c r="PQ31"/>
-      <c r="PR31"/>
-      <c r="PS31"/>
-      <c r="PT31"/>
-      <c r="PU31"/>
-      <c r="PV31"/>
-      <c r="PW31"/>
-      <c r="PX31"/>
-      <c r="PY31"/>
-      <c r="PZ31"/>
-      <c r="QA31"/>
-      <c r="QB31"/>
-      <c r="QC31"/>
-      <c r="QD31"/>
-      <c r="QE31"/>
-      <c r="QF31"/>
-      <c r="QG31"/>
-      <c r="QH31"/>
-      <c r="QI31"/>
-      <c r="QJ31"/>
-      <c r="QK31"/>
-      <c r="QL31"/>
-      <c r="QM31"/>
-      <c r="QN31"/>
-      <c r="QO31"/>
-      <c r="QP31"/>
-      <c r="QQ31"/>
-      <c r="QR31"/>
-      <c r="QS31"/>
-      <c r="QT31"/>
-      <c r="QU31"/>
-      <c r="QV31"/>
-      <c r="QW31"/>
-      <c r="QX31"/>
-      <c r="QY31"/>
-      <c r="QZ31"/>
-      <c r="RA31"/>
-      <c r="RB31"/>
-      <c r="RC31"/>
-      <c r="RD31"/>
-      <c r="RE31"/>
-      <c r="RF31"/>
-      <c r="RG31"/>
-      <c r="RH31"/>
-      <c r="RI31"/>
-      <c r="RJ31"/>
-      <c r="RK31"/>
-      <c r="RL31"/>
-      <c r="RM31"/>
-      <c r="RN31"/>
-      <c r="RO31"/>
-      <c r="RP31"/>
-      <c r="RQ31"/>
-      <c r="RR31"/>
-      <c r="RS31"/>
-      <c r="RT31"/>
-      <c r="RU31"/>
-      <c r="RV31"/>
-      <c r="RW31"/>
-      <c r="RX31"/>
-      <c r="RY31"/>
-      <c r="RZ31"/>
-      <c r="SA31"/>
-      <c r="SB31"/>
-      <c r="SC31"/>
-      <c r="SD31"/>
-      <c r="SE31"/>
-      <c r="SF31"/>
-      <c r="SG31"/>
-      <c r="SH31"/>
-      <c r="SI31"/>
-      <c r="SJ31"/>
-      <c r="SK31"/>
-      <c r="SL31"/>
-      <c r="SM31"/>
-      <c r="SN31"/>
-      <c r="SO31"/>
-      <c r="SP31"/>
-      <c r="SQ31"/>
-      <c r="SR31"/>
-      <c r="SS31"/>
-      <c r="ST31"/>
-      <c r="SU31"/>
-      <c r="SV31"/>
-      <c r="SW31"/>
-      <c r="SX31"/>
-      <c r="SY31"/>
-      <c r="SZ31"/>
-      <c r="TA31"/>
-      <c r="TB31"/>
-      <c r="TC31"/>
-      <c r="TD31"/>
-      <c r="TE31"/>
-      <c r="TF31"/>
-      <c r="TG31"/>
-      <c r="TH31"/>
-      <c r="TI31"/>
-      <c r="TJ31"/>
-      <c r="TK31"/>
-      <c r="TL31"/>
-      <c r="TM31"/>
-      <c r="TN31"/>
-      <c r="TO31"/>
-      <c r="TP31"/>
-      <c r="TQ31"/>
-      <c r="TR31"/>
-      <c r="TS31"/>
-      <c r="TT31"/>
-      <c r="TU31"/>
-      <c r="TV31"/>
-      <c r="TW31"/>
-      <c r="TX31"/>
-      <c r="TY31"/>
-      <c r="TZ31"/>
-      <c r="UA31"/>
-      <c r="UB31"/>
-      <c r="UC31"/>
-      <c r="UD31"/>
-      <c r="UE31"/>
-      <c r="UF31"/>
-      <c r="UG31"/>
-      <c r="UH31"/>
-      <c r="UI31"/>
-      <c r="UJ31"/>
-      <c r="UK31"/>
-      <c r="UL31"/>
-      <c r="UM31"/>
-      <c r="UN31"/>
-      <c r="UO31"/>
-      <c r="UP31"/>
-      <c r="UQ31"/>
-      <c r="UR31"/>
-      <c r="US31"/>
-      <c r="UT31"/>
-      <c r="UU31"/>
-      <c r="UV31"/>
-      <c r="UW31"/>
-      <c r="UX31"/>
-      <c r="UY31"/>
-      <c r="UZ31"/>
-      <c r="VA31"/>
-      <c r="VB31"/>
-      <c r="VC31"/>
-      <c r="VD31"/>
-      <c r="VE31"/>
-      <c r="VF31"/>
-      <c r="VG31"/>
-      <c r="VH31"/>
-      <c r="VI31"/>
-      <c r="VJ31"/>
-      <c r="VK31"/>
-      <c r="VL31"/>
-      <c r="VM31"/>
-      <c r="VN31"/>
-      <c r="VO31"/>
-      <c r="VP31"/>
-      <c r="VQ31"/>
-      <c r="VR31"/>
-      <c r="VS31"/>
-      <c r="VT31"/>
-      <c r="VU31"/>
-      <c r="VV31"/>
-      <c r="VW31"/>
-      <c r="VX31"/>
-      <c r="VY31"/>
-      <c r="VZ31"/>
-      <c r="WA31"/>
-      <c r="WB31"/>
-      <c r="WC31"/>
-      <c r="WD31"/>
-      <c r="WE31"/>
-      <c r="WF31"/>
-      <c r="WG31"/>
-      <c r="WH31"/>
-      <c r="WI31"/>
-      <c r="WJ31"/>
-      <c r="WK31"/>
-      <c r="WL31"/>
-      <c r="WM31"/>
-      <c r="WN31"/>
-      <c r="WO31"/>
-      <c r="WP31"/>
-      <c r="WQ31"/>
-      <c r="WR31"/>
-      <c r="WS31"/>
-      <c r="WT31"/>
-      <c r="WU31"/>
-      <c r="WV31"/>
-      <c r="WW31"/>
-      <c r="WX31"/>
-      <c r="WY31"/>
-      <c r="WZ31"/>
-      <c r="XA31"/>
-      <c r="XB31"/>
-      <c r="XC31"/>
-      <c r="XD31"/>
-      <c r="XE31"/>
-      <c r="XF31"/>
-      <c r="XG31"/>
-      <c r="XH31"/>
-      <c r="XI31"/>
-      <c r="XJ31"/>
-      <c r="XK31"/>
-      <c r="XL31"/>
-      <c r="XM31"/>
-      <c r="XN31"/>
-      <c r="XO31"/>
-      <c r="XP31"/>
-      <c r="XQ31"/>
-      <c r="XR31"/>
-      <c r="XS31"/>
-      <c r="XT31"/>
-      <c r="XU31"/>
-      <c r="XV31"/>
-      <c r="XW31"/>
-      <c r="XX31"/>
-      <c r="XY31"/>
-      <c r="XZ31"/>
-      <c r="YA31"/>
-      <c r="YB31"/>
-      <c r="YC31"/>
-      <c r="YD31"/>
-      <c r="YE31"/>
-      <c r="YF31"/>
-      <c r="YG31"/>
-      <c r="YH31"/>
-      <c r="YI31"/>
-      <c r="YJ31"/>
-      <c r="YK31"/>
-      <c r="YL31"/>
-      <c r="YM31"/>
-      <c r="YN31"/>
-      <c r="YO31"/>
-      <c r="YP31"/>
-      <c r="YQ31"/>
-      <c r="YR31"/>
-      <c r="YS31"/>
-      <c r="YT31"/>
-      <c r="YU31"/>
-      <c r="YV31"/>
-      <c r="YW31"/>
-      <c r="YX31"/>
-      <c r="YY31"/>
-      <c r="YZ31"/>
-      <c r="ZA31"/>
-      <c r="ZB31"/>
-      <c r="ZC31"/>
-      <c r="ZD31"/>
-      <c r="ZE31"/>
-      <c r="ZF31"/>
-      <c r="ZG31"/>
-      <c r="ZH31"/>
-      <c r="ZI31"/>
-      <c r="ZJ31"/>
-      <c r="ZK31"/>
-      <c r="ZL31"/>
-      <c r="ZM31"/>
-      <c r="ZN31"/>
-      <c r="ZO31"/>
-      <c r="ZP31"/>
-      <c r="ZQ31"/>
-      <c r="ZR31"/>
-      <c r="ZS31"/>
-      <c r="ZT31"/>
-      <c r="ZU31"/>
-      <c r="ZV31"/>
-      <c r="ZW31"/>
-      <c r="ZX31"/>
-      <c r="ZY31"/>
-      <c r="ZZ31"/>
-      <c r="AAA31"/>
-      <c r="AAB31"/>
-      <c r="AAC31"/>
-      <c r="AAD31"/>
-      <c r="AAE31"/>
-      <c r="AAF31"/>
-      <c r="AAG31"/>
-      <c r="AAH31"/>
-      <c r="AAI31"/>
-      <c r="AAJ31"/>
-      <c r="AAK31"/>
-      <c r="AAL31"/>
-      <c r="AAM31"/>
-      <c r="AAN31"/>
-      <c r="AAO31"/>
-      <c r="AAP31"/>
-      <c r="AAQ31"/>
-      <c r="AAR31"/>
-      <c r="AAS31"/>
-      <c r="AAT31"/>
-      <c r="AAU31"/>
-      <c r="AAV31"/>
-      <c r="AAW31"/>
-      <c r="AAX31"/>
-      <c r="AAY31"/>
-      <c r="AAZ31"/>
-      <c r="ABA31"/>
-      <c r="ABB31"/>
-      <c r="ABC31"/>
-      <c r="ABD31"/>
-      <c r="ABE31"/>
-      <c r="ABF31"/>
-      <c r="ABG31"/>
-      <c r="ABH31"/>
-      <c r="ABI31"/>
-      <c r="ABJ31"/>
-      <c r="ABK31"/>
-      <c r="ABL31"/>
-      <c r="ABM31"/>
-      <c r="ABN31"/>
-      <c r="ABO31"/>
-      <c r="ABP31"/>
-      <c r="ABQ31"/>
-      <c r="ABR31"/>
-      <c r="ABS31"/>
-      <c r="ABT31"/>
-      <c r="ABU31"/>
-      <c r="ABV31"/>
-      <c r="ABW31"/>
-      <c r="ABX31"/>
-      <c r="ABY31"/>
-      <c r="ABZ31"/>
-      <c r="ACA31"/>
-      <c r="ACB31"/>
-      <c r="ACC31"/>
-      <c r="ACD31"/>
-      <c r="ACE31"/>
-      <c r="ACF31"/>
-      <c r="ACG31"/>
-      <c r="ACH31"/>
-      <c r="ACI31"/>
-      <c r="ACJ31"/>
-      <c r="ACK31"/>
-      <c r="ACL31"/>
-      <c r="ACM31"/>
-      <c r="ACN31"/>
-      <c r="ACO31"/>
-      <c r="ACP31"/>
-      <c r="ACQ31"/>
-      <c r="ACR31"/>
-      <c r="ACS31"/>
-      <c r="ACT31"/>
-      <c r="ACU31"/>
-      <c r="ACV31"/>
-      <c r="ACW31"/>
-      <c r="ACX31"/>
-      <c r="ACY31"/>
-      <c r="ACZ31"/>
-      <c r="ADA31"/>
-      <c r="ADB31"/>
-      <c r="ADC31"/>
-      <c r="ADD31"/>
-      <c r="ADE31"/>
-      <c r="ADF31"/>
-      <c r="ADG31"/>
-      <c r="ADH31"/>
-      <c r="ADI31"/>
-      <c r="ADJ31"/>
-      <c r="ADK31"/>
-      <c r="ADL31"/>
-      <c r="ADM31"/>
-      <c r="ADN31"/>
-      <c r="ADO31"/>
-      <c r="ADP31"/>
-      <c r="ADQ31"/>
-      <c r="ADR31"/>
-      <c r="ADS31"/>
-      <c r="ADT31"/>
-      <c r="ADU31"/>
-      <c r="ADV31"/>
-      <c r="ADW31"/>
-      <c r="ADX31"/>
-      <c r="ADY31"/>
-      <c r="ADZ31"/>
-      <c r="AEA31"/>
-      <c r="AEB31"/>
-      <c r="AEC31"/>
-      <c r="AED31"/>
-      <c r="AEE31"/>
-      <c r="AEF31"/>
-      <c r="AEG31"/>
-      <c r="AEH31"/>
-      <c r="AEI31"/>
-      <c r="AEJ31"/>
-      <c r="AEK31"/>
-      <c r="AEL31"/>
-      <c r="AEM31"/>
-      <c r="AEN31"/>
-      <c r="AEO31"/>
-      <c r="AEP31"/>
-      <c r="AEQ31"/>
-      <c r="AER31"/>
-      <c r="AES31"/>
-      <c r="AET31"/>
-      <c r="AEU31"/>
-      <c r="AEV31"/>
-      <c r="AEW31"/>
-      <c r="AEX31"/>
-      <c r="AEY31"/>
-      <c r="AEZ31"/>
-      <c r="AFA31"/>
-      <c r="AFB31"/>
-      <c r="AFC31"/>
-      <c r="AFD31"/>
-      <c r="AFE31"/>
-      <c r="AFF31"/>
-      <c r="AFG31"/>
-      <c r="AFH31"/>
-      <c r="AFI31"/>
-      <c r="AFJ31"/>
-      <c r="AFK31"/>
-      <c r="AFL31"/>
-      <c r="AFM31"/>
-      <c r="AFN31"/>
-      <c r="AFO31"/>
-      <c r="AFP31"/>
-      <c r="AFQ31"/>
-      <c r="AFR31"/>
-      <c r="AFS31"/>
-      <c r="AFT31"/>
-      <c r="AFU31"/>
-      <c r="AFV31"/>
-      <c r="AFW31"/>
-      <c r="AFX31"/>
-      <c r="AFY31"/>
-      <c r="AFZ31"/>
-      <c r="AGA31"/>
-      <c r="AGB31"/>
-      <c r="AGC31"/>
-      <c r="AGD31"/>
-      <c r="AGE31"/>
-      <c r="AGF31"/>
-      <c r="AGG31"/>
-      <c r="AGH31"/>
-      <c r="AGI31"/>
-      <c r="AGJ31"/>
-      <c r="AGK31"/>
-      <c r="AGL31"/>
-      <c r="AGM31"/>
-      <c r="AGN31"/>
-      <c r="AGO31"/>
-      <c r="AGP31"/>
-      <c r="AGQ31"/>
-      <c r="AGR31"/>
-      <c r="AGS31"/>
-      <c r="AGT31"/>
-      <c r="AGU31"/>
-      <c r="AGV31"/>
-      <c r="AGW31"/>
-      <c r="AGX31"/>
-      <c r="AGY31"/>
-      <c r="AGZ31"/>
-      <c r="AHA31"/>
-      <c r="AHB31"/>
-      <c r="AHC31"/>
-      <c r="AHD31"/>
-      <c r="AHE31"/>
-      <c r="AHF31"/>
-      <c r="AHG31"/>
-      <c r="AHH31"/>
-      <c r="AHI31"/>
-      <c r="AHJ31"/>
-      <c r="AHK31"/>
-      <c r="AHL31"/>
-      <c r="AHM31"/>
-      <c r="AHN31"/>
-      <c r="AHO31"/>
-      <c r="AHP31"/>
-      <c r="AHQ31"/>
-      <c r="AHR31"/>
-      <c r="AHS31"/>
-      <c r="AHT31"/>
-      <c r="AHU31"/>
-      <c r="AHV31"/>
-      <c r="AHW31"/>
-      <c r="AHX31"/>
-      <c r="AHY31"/>
-      <c r="AHZ31"/>
-      <c r="AIA31"/>
-      <c r="AIB31"/>
-      <c r="AIC31"/>
-      <c r="AID31"/>
-      <c r="AIE31"/>
-      <c r="AIF31"/>
-      <c r="AIG31"/>
-      <c r="AIH31"/>
-      <c r="AII31"/>
-      <c r="AIJ31"/>
-      <c r="AIK31"/>
-      <c r="AIL31"/>
-      <c r="AIM31"/>
-      <c r="AIN31"/>
-      <c r="AIO31"/>
-      <c r="AIP31"/>
-      <c r="AIQ31"/>
-      <c r="AIR31"/>
-      <c r="AIS31"/>
-      <c r="AIT31"/>
-      <c r="AIU31"/>
-      <c r="AIV31"/>
-      <c r="AIW31"/>
-      <c r="AIX31"/>
-      <c r="AIY31"/>
-      <c r="AIZ31"/>
-      <c r="AJA31"/>
-      <c r="AJB31"/>
-      <c r="AJC31"/>
-      <c r="AJD31"/>
-      <c r="AJE31"/>
-      <c r="AJF31"/>
-      <c r="AJG31"/>
-      <c r="AJH31"/>
-      <c r="AJI31"/>
-      <c r="AJJ31"/>
-      <c r="AJK31"/>
-      <c r="AJL31"/>
-      <c r="AJM31"/>
-      <c r="AJN31"/>
-      <c r="AJO31"/>
-      <c r="AJP31"/>
-      <c r="AJQ31"/>
-      <c r="AJR31"/>
-      <c r="AJS31"/>
-      <c r="AJT31"/>
-      <c r="AJU31"/>
-      <c r="AJV31"/>
-      <c r="AJW31"/>
-      <c r="AJX31"/>
-      <c r="AJY31"/>
-      <c r="AJZ31"/>
-      <c r="AKA31"/>
-      <c r="AKB31"/>
-      <c r="AKC31"/>
-      <c r="AKD31"/>
-      <c r="AKE31"/>
-      <c r="AKF31"/>
-      <c r="AKG31"/>
-      <c r="AKH31"/>
-      <c r="AKI31"/>
-      <c r="AKJ31"/>
-      <c r="AKK31"/>
-      <c r="AKL31"/>
-      <c r="AKM31"/>
-      <c r="AKN31"/>
-      <c r="AKO31"/>
-      <c r="AKP31"/>
-      <c r="AKQ31"/>
-      <c r="AKR31"/>
-      <c r="AKS31"/>
-      <c r="AKT31"/>
-      <c r="AKU31"/>
-      <c r="AKV31"/>
-      <c r="AKW31"/>
-      <c r="AKX31"/>
-      <c r="AKY31"/>
-      <c r="AKZ31"/>
-      <c r="ALA31"/>
-      <c r="ALB31"/>
-      <c r="ALC31"/>
-      <c r="ALD31"/>
-      <c r="ALE31"/>
-      <c r="ALF31"/>
-      <c r="ALG31"/>
-      <c r="ALH31"/>
-      <c r="ALI31"/>
-      <c r="ALJ31"/>
-      <c r="ALK31"/>
-      <c r="ALL31"/>
-      <c r="ALM31"/>
-      <c r="ALN31"/>
-      <c r="ALO31"/>
-      <c r="ALP31"/>
-      <c r="ALQ31"/>
-      <c r="ALR31"/>
-      <c r="ALS31"/>
-      <c r="ALT31"/>
-      <c r="ALU31"/>
-      <c r="ALV31"/>
-      <c r="ALW31"/>
-      <c r="ALX31"/>
-      <c r="ALY31"/>
-      <c r="ALZ31"/>
-      <c r="AMA31"/>
-      <c r="AMB31"/>
-      <c r="AMC31"/>
-      <c r="AMD31"/>
-      <c r="AME31"/>
-      <c r="AMF31"/>
-      <c r="AMG31"/>
-      <c r="AMH31"/>
-      <c r="AMI31"/>
-      <c r="AMJ31"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
     </row>
-    <row r="38" spans="1:32" s="111" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="112"/>
-      <c r="D38" s="112"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="46"/>
-      <c r="S38" s="46"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="46"/>
-      <c r="V38" s="46"/>
-      <c r="W38" s="46"/>
-      <c r="X38" s="46"/>
-      <c r="Y38" s="46"/>
-      <c r="Z38" s="46"/>
-      <c r="AA38" s="46"/>
-      <c r="AB38" s="46"/>
-      <c r="AC38" s="46"/>
-      <c r="AD38" s="46"/>
-      <c r="AE38" s="46"/>
-      <c r="AF38" s="46"/>
+    <row r="32" spans="1:1024" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="46"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="46"/>
+      <c r="AE32" s="46"/>
+      <c r="AF32" s="46"/>
     </row>
-    <row r="39" spans="1:32" s="111" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="112"/>
-      <c r="D39" s="112"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="46"/>
-      <c r="U39" s="46"/>
-      <c r="V39" s="46"/>
-      <c r="W39" s="46"/>
-      <c r="X39" s="46"/>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="46"/>
-      <c r="AA39" s="46"/>
-      <c r="AB39" s="46"/>
-      <c r="AC39" s="46"/>
-      <c r="AD39" s="46"/>
-      <c r="AE39" s="46"/>
-      <c r="AF39" s="46"/>
+    <row r="33" spans="1:32" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="46"/>
+      <c r="AE33" s="46"/>
+      <c r="AF33" s="46"/>
     </row>
-    <row r="40" spans="1:32" s="111" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
-      <c r="S40" s="46"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="46"/>
-      <c r="V40" s="46"/>
-      <c r="W40" s="46"/>
-      <c r="X40" s="46"/>
-      <c r="Y40" s="46"/>
-      <c r="Z40" s="46"/>
-      <c r="AA40" s="46"/>
-      <c r="AB40" s="46"/>
-      <c r="AC40" s="46"/>
-      <c r="AD40" s="46"/>
-      <c r="AE40" s="46"/>
-      <c r="AF40" s="46"/>
+    <row r="34" spans="1:32" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="46"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="46"/>
+      <c r="AA34" s="46"/>
+      <c r="AB34" s="46"/>
+      <c r="AC34" s="46"/>
+      <c r="AD34" s="46"/>
+      <c r="AE34" s="46"/>
+      <c r="AF34" s="46"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A41" s="111"/>
-      <c r="B41" s="111"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="113"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="46"/>
-      <c r="S41" s="46"/>
-      <c r="T41" s="46"/>
-      <c r="U41" s="46"/>
-      <c r="V41" s="46"/>
-      <c r="W41" s="46"/>
-      <c r="X41" s="46"/>
-      <c r="Y41" s="46"/>
-      <c r="Z41" s="46"/>
-      <c r="AA41" s="46"/>
-      <c r="AB41" s="46"/>
-      <c r="AC41" s="46"/>
-      <c r="AD41" s="46"/>
-      <c r="AE41" s="46"/>
-      <c r="AF41" s="46"/>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A35" s="101"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="46"/>
+      <c r="V35" s="46"/>
+      <c r="W35" s="46"/>
+      <c r="X35" s="46"/>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="46"/>
+      <c r="AA35" s="46"/>
+      <c r="AB35" s="46"/>
+      <c r="AC35" s="46"/>
+      <c r="AD35" s="46"/>
+      <c r="AE35" s="46"/>
+      <c r="AF35" s="46"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A42" s="111"/>
-      <c r="B42" s="111"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="46"/>
-      <c r="Z42" s="46"/>
-      <c r="AA42" s="46"/>
-      <c r="AB42" s="46"/>
-      <c r="AC42" s="46"/>
-      <c r="AD42" s="46"/>
-      <c r="AE42" s="46"/>
-      <c r="AF42" s="46"/>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A36" s="101"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="46"/>
+      <c r="AA36" s="46"/>
+      <c r="AB36" s="46"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="46"/>
+      <c r="AE36" s="46"/>
+      <c r="AF36" s="46"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A43" s="111"/>
-      <c r="B43" s="111"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="113"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="46"/>
-      <c r="U43" s="46"/>
-      <c r="V43" s="46"/>
-      <c r="W43" s="46"/>
-      <c r="X43" s="46"/>
-      <c r="Y43" s="46"/>
-      <c r="Z43" s="46"/>
-      <c r="AA43" s="46"/>
-      <c r="AB43" s="46"/>
-      <c r="AC43" s="46"/>
-      <c r="AD43" s="46"/>
-      <c r="AE43" s="46"/>
-      <c r="AF43" s="46"/>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A37" s="101"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="46"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="46"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="46"/>
+      <c r="AE37" s="46"/>
+      <c r="AF37" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="IS19:IT19"/>
-    <mergeCell ref="IV20:IZ20"/>
-    <mergeCell ref="IV21:IZ21"/>
-    <mergeCell ref="IV22:IZ22"/>
+  <mergeCells count="7">
+    <mergeCell ref="IS17:IT17"/>
+    <mergeCell ref="IV18:IZ18"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="IR2:JA2"/>
-    <mergeCell ref="IT8:IU8"/>
-    <mergeCell ref="IS9:IS13"/>
-    <mergeCell ref="IV16:IZ16"/>
+    <mergeCell ref="IT7:IU7"/>
+    <mergeCell ref="IS8:IS11"/>
+    <mergeCell ref="IV14:IZ14"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IW4:IX17 SP4:ST23 SW4:SW23 ACL4:ACP23 ACS4:ACS23 AMH4:AMJ23 IT9:IU17 IT18 IT20:IT23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IT16 IT18 IT8:IU15 IW4:IX15 SP4:ST18 SW4:SW18 ACL4:ACP18 ACS4:ACS18 AMH4:AMJ18">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IV4:IV17 SV4:SV23 ACR4:ACR23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IV4:IV15 SV4:SV18 ACR4:ACR18">
       <formula1>"Critico,Alta,Media,Baja"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JB4:JB23 SX4:SX23 ACT4:ACT23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JB4:JB18 SX4:SX18 ACT4:ACT18">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C18">
       <formula1>",1,2,3,4,5"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F18">
       <formula1>"1,2,3,4"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J18">
       <formula1>"Abierto,Mitigado,Ocurrido,Cerrado"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -53617,7 +48348,7 @@
     <oddFooter>&amp;C&amp;9Información Confidencial IDS</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="24" max="16383" man="1"/>
+    <brk id="18" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
